--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Day 1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Day 2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Day 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Day 4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -185,12 +186,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$4</f>
+              <f>'Master Summary'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$4</f>
+              <f>'Master Summary'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -217,12 +218,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$4</f>
+              <f>'Master Summary'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$4</f>
+              <f>'Master Summary'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -249,12 +250,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$4</f>
+              <f>'Master Summary'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$4</f>
+              <f>'Master Summary'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -733,6 +734,307 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B74</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$75:$A$84</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$75:$B$84</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B86</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$87:$A$96</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$87:$B$96</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B98</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$99:$A$108</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$99:$B$108</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B110</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$111:$A$113</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$111:$B$113</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -777,12 +1079,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$4</f>
+              <f>'Master Summary'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$4</f>
+              <f>'Master Summary'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -814,7 +1116,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$4</f>
+              <f>'Master Summary'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -1408,7 +1710,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1430,7 +1732,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1710,6 +2012,99 @@
       <col>4</col>
       <colOff>0</colOff>
       <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>97</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>109</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2019,7 +2414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2221,6 +2616,49 @@
       </c>
       <c r="M4" t="n">
         <v>0.3835713072222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92.95999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8232046736111107</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2797005152777778</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,6 +2762,16 @@
           <t>Error message not found</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2430,6 +2878,49 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,52 +7627,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -7902,24 +8393,24 @@
     </row>
     <row r="22"/>
     <row r="23">
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -7929,7 +8420,7 @@
           <t>13.16</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -7939,7 +8430,7 @@
           <t>24.47</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -7951,7 +8442,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -7961,7 +8452,7 @@
           <t>8.96</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -7971,7 +8462,7 @@
           <t>16.46</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -7983,7 +8474,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -7993,7 +8484,7 @@
           <t>21.71</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -8003,7 +8494,7 @@
           <t>34.15</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -8016,17 +8507,17 @@
     </row>
     <row r="27"/>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -8170,12 +8661,12 @@
     </row>
     <row r="37"/>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -8283,12 +8774,12 @@
     </row>
     <row r="49"/>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -8396,12 +8887,12 @@
     </row>
     <row r="61"/>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -8509,12 +9000,12 @@
     </row>
     <row r="73"/>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -8545,4 +9036,2490 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:48:28.689791</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>9.739755708000303</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:50:08.726271</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 27)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>24.89038071800314</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:48:26.002397</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>6.926302025996847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:52:40.129724</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12.22106634699958</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:50:08.726271</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 19)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>28.60336724799708</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:52:36.877685</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7.405810242998996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:53:14.619920</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14.76278409599763</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:44:22.546976</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25.59200767200002</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:53:08.503846</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>7.149856347001332</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:54:00.165943</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16.64273647500158</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:44:22.546976</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 35)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>18.74283120600001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:53:51.746637</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>6.760863604999031</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:54:51.120320</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23.05658748399946</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 4)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>32.11041911900003</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:54:42.577184</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>7.368505602000369</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:30.098936</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18.9554138229978</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 32)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>15.56475010399998</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:20.901999</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>6.23434560899841</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:04.044103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9.254658166999434</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 36)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>35.30523037399996</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:51.535369</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>9.225246816000436</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:31.569603</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12.97762150299968</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>25.04282548599997</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:02.833150</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>7.862596336999559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:14:18.808490</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14.23317721300191</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>22.31566797599999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:27.038784</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>6.690923350000958</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:17.698058</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13.04225058299926</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:50:18.044829</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>24.246449095</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:14:15.137647</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6.768257601997902</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:17:26.707028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>19.01534114300011</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:50:18.044829</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>31.50091320000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:11.156932</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6.377986020997923</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:18:04.202887</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13.10294801599957</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>25.51722777400005</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:49.823491</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7.915042188000371</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:18:34.966062</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16.75854314900062</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>20.30912766799997</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:17:19.846311</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6.624801676000061</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:19:56.528242</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15.07485731100314</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>22.10389929199994</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:17:57.047889</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5.820372376998421</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:20:40.389670</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>18.86117539599945</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>19.31567681599995</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:18:27.555767</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>5.817229492000479</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:19.657973</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12.68264764600099</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>31.2704850670001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:19:49.128990</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>6.013141718001862</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:49.749577</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9.223377932998119</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:54:14.897822</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 28)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>25.20978284599994</v>
+      </c>
+      <c r="G18" t="n">
+        <v>28</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:20:33.492396</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>8.454442474998359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:36.994186</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11.0098028809989</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:54:14.897822</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 34)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>19.79026448000002</v>
+      </c>
+      <c r="G19" t="n">
+        <v>34</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:12.818347</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>5.707087474998843</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:06.914321</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15.22750738899776</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>34.69862186099999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:46.707645</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6.082853595002234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:43.190367</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11.83240232900062</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 31)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>16.14772895400006</v>
+      </c>
+      <c r="G21" t="n">
+        <v>31</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:33.814680</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>5.842845523999131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:13.359043</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12.74872948400298</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>37.98819528800004</v>
+      </c>
+      <c r="G22" t="n">
+        <v>26</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:59.361414</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>5.987875787999656</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:54.201304</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>19.02213804799976</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 33)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>21.90726079299998</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:38.087652</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6.598010349000106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:34.001276</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>18.50043175099927</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>25.71080897299998</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:10.315612</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.282159440001124</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:43.782502</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13.30749840700082</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>19.09752114800017</v>
+      </c>
+      <c r="G25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:44.753682</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>6.072943404997204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:20.154728</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>17.94780154299951</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 22)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>20.13124113599997</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:25.510004</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6.554649730001984</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:03.014644</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>20.23042048500065</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>30.89984609900011</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:36.633534</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6.049241011998674</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:36.018999</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.15438628999982</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:11.995146</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6.303271404998668</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:07.567358</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>14.06064980800147</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:50.105511</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>5.668358299000829</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:37.525788</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>11.65894129399749</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:29.601333</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6.183931113999279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:04.920495</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12.2581570830007</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:02.376937</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>7.12968110699876</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:51.259423</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15.94989597600215</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:32.122926</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6.134777331000805</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:32:31.617178</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>16.91584824900201</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:00.989213</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6.479192823000631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:35:54.661968</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>16.36474248000013</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:45.450156</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6.534823109999707</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:36:37.000132</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>21.52797504000046</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:32:27.670087</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>9.558821201000683</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:15.702678</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>17.71235919900209</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:33:15.600967</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>9.023647314999835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:52.226616</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>14.37758300999849</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:35:46.943498</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.161070899001061</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:11:00.635840</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>11.97499336200053</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:36:28.548819</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>6.500482330997329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:07.896621</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>6.344792412997776</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:46.502192</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7.236187489997974</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:38.486038</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>6.856922298000427</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:11:00.554425</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>10.39790224299941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:08.391051</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>7.020958000000974</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1523438369986252</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:53.043192</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:53.065961</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:59.150607</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:59.174089</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:59.288288</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 204 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:06.637060</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 414 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:46.228905</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:46.248970</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:16:43.556644</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 410 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:16.528185</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:16.552050</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No contours found</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:57:29.132885</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:57:29.138871</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:57:29.145963</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:58:22.572326</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:58:22.579425</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 9</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:04:06.729963</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:04:06.741982</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:14:06.484565</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:14:06.501028</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 18</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>9.22-10.61</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10.61-11.99</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>11.99-13.37</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>13.37-14.76</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>14.76-16.14</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.14-17.52</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17.52-18.91</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18.91-20.29</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20.29-21.67</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21.67-23.06</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15.56-17.81</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17.81-20.05</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20.05-22.29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>22.29-24.53</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>24.53-26.78</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>26.78-29.02</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>29.02-31.26</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>31.26-33.50</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>33.50-35.75</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>35.75-37.99</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0.15-1.18</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1.18-2.20</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2.20-3.23</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3.23-4.25</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4.25-5.28</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5.28-6.30</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6.30-7.32</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7.32-8.35</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.35-9.37</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.37-10.40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-07-08 23:00</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-09 01:00</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -351,7 +351,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B133</f>
+              <f>'Day 2'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -361,12 +361,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$134:$A$136</f>
+              <f>'Day 2'!$A$75:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$134:$B$136</f>
+              <f>'Day 2'!$B$75:$B$76</f>
             </numRef>
           </val>
         </ser>
@@ -445,7 +445,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B38</f>
+              <f>'Day 3'!B97</f>
             </strRef>
           </tx>
           <spPr>
@@ -455,12 +455,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$39:$A$48</f>
+              <f>'Day 3'!$A$98:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$39:$B$48</f>
+              <f>'Day 3'!$B$98:$B$107</f>
             </numRef>
           </val>
         </ser>
@@ -509,7 +509,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B50</f>
+              <f>'Day 3'!B109</f>
             </strRef>
           </tx>
           <spPr>
@@ -519,12 +519,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$51:$A$60</f>
+              <f>'Day 3'!$A$110:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$51:$B$60</f>
+              <f>'Day 3'!$B$110:$B$119</f>
             </numRef>
           </val>
         </ser>
@@ -573,7 +573,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B62</f>
+              <f>'Day 3'!B121</f>
             </strRef>
           </tx>
           <spPr>
@@ -583,12 +583,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$63:$A$72</f>
+              <f>'Day 3'!$A$122:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$63:$B$72</f>
+              <f>'Day 3'!$B$122:$B$131</f>
             </numRef>
           </val>
         </ser>
@@ -652,7 +652,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B74</f>
+              <f>'Day 3'!B133</f>
             </strRef>
           </tx>
           <spPr>
@@ -662,12 +662,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$75:$A$76</f>
+              <f>'Day 3'!$A$134:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$75:$B$76</f>
+              <f>'Day 3'!$B$134:$B$136</f>
             </numRef>
           </val>
         </ser>
@@ -1524,7 +1524,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B97</f>
+              <f>'Day 2'!B38</f>
             </strRef>
           </tx>
           <spPr>
@@ -1534,12 +1534,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$98:$A$107</f>
+              <f>'Day 2'!$A$39:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$98:$B$107</f>
+              <f>'Day 2'!$B$39:$B$48</f>
             </numRef>
           </val>
         </ser>
@@ -1588,7 +1588,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B109</f>
+              <f>'Day 2'!B50</f>
             </strRef>
           </tx>
           <spPr>
@@ -1598,12 +1598,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$110:$A$119</f>
+              <f>'Day 2'!$A$51:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$110:$B$119</f>
+              <f>'Day 2'!$B$51:$B$60</f>
             </numRef>
           </val>
         </ser>
@@ -1652,7 +1652,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B121</f>
+              <f>'Day 2'!B62</f>
             </strRef>
           </tx>
           <spPr>
@@ -1662,12 +1662,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$122:$A$131</f>
+              <f>'Day 2'!$A$63:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$122:$B$131</f>
+              <f>'Day 2'!$B$63:$B$72</f>
             </numRef>
           </val>
         </ser>
@@ -1852,6 +1852,99 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
       <row>96</row>
       <rowOff>0</rowOff>
     </from>
@@ -1919,99 +2012,6 @@
       <col>4</col>
       <colOff>0</colOff>
       <row>132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>49</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>61</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2538,41 +2538,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.56</v>
+        <v>13.16</v>
       </c>
       <c r="D3" t="n">
-        <v>26.73</v>
+        <v>24.47</v>
       </c>
       <c r="E3" t="n">
-        <v>7.93</v>
+        <v>7.35</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>29.54</v>
+        <v>31.28</v>
       </c>
       <c r="K3" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8224135058333335</v>
+        <v>0.7198232411111111</v>
       </c>
       <c r="M3" t="n">
-        <v>0.981721233888889</v>
+        <v>0.3835713072222222</v>
       </c>
     </row>
     <row r="4">
@@ -2581,41 +2581,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13.16</v>
+        <v>15.56</v>
       </c>
       <c r="D4" t="n">
-        <v>24.47</v>
+        <v>26.73</v>
       </c>
       <c r="E4" t="n">
-        <v>7.35</v>
+        <v>7.93</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>31.28</v>
+        <v>29.54</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7198232411111111</v>
+        <v>0.8224135058333335</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3835713072222222</v>
+        <v>0.981721233888889</v>
       </c>
     </row>
     <row r="5">
@@ -2739,27 +2739,27 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Package length is too long.</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -2816,37 +2816,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2856,29 +2847,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2906,16 +2906,16 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -4748,7 +4748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4811,7 +4811,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-07T17:51:04.246628</t>
+          <t>2025-07-08T01:00:10.858889</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -4820,27 +4820,27 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>17.66747003199998</v>
+        <v>12.41856945300015</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-07T20:21:59.670075</t>
+          <t>2025-07-08T01:03:19.036548</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 9)</t>
+          <t>Individual Retrieval (ID: 4)</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>20.68801498200082</v>
+        <v>16.45869020000009</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-07T17:51:01.351695</t>
+          <t>2025-07-08T01:00:07.327137</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>8.229680633000044</v>
+        <v>6.964650817999882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-07T17:51:34.855621</t>
+          <t>2025-07-08T01:00:47.945511</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4864,27 +4864,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.78339298599985</v>
+        <v>21.70974803100034</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-07T20:22:46.695316</t>
+          <t>2025-07-08T01:39:02.766662</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 8)</t>
+          <t>Individual Retrieval (ID: 2)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31.04575719599961</v>
+        <v>27.14048637100041</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-07T17:51:32.689116</t>
+          <t>2025-07-08T01:00:45.012744</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>12.91420855100023</v>
+        <v>11.350979413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-07T17:52:02.585950</t>
+          <t>2025-07-08T01:01:48.248853</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4908,27 +4908,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.77249993299984</v>
+        <v>18.86102985700018</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-07T21:36:44.355492</t>
+          <t>2025-07-08T01:39:02.766662</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 21)</t>
+          <t>Individual Retrieval (ID: 13)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>33.65897170700009</v>
+        <v>28.39170301800004</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-07T17:51:56.375469</t>
+          <t>2025-07-08T01:01:39.271806</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4937,13 +4937,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>7.974038574999668</v>
+        <v>6.386366866000117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-07T17:52:33.404435</t>
+          <t>2025-07-08T01:02:37.307104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4952,27 +4952,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.12800105299993</v>
+        <v>14.83196805099988</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-07T21:56:06.995363</t>
+          <t>2025-07-08T01:40:18.287595</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 10)</t>
+          <t>Individual Retrieval (ID: 7)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24.82888304500011</v>
+        <v>34.14798633099963</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-07T17:52:26.839232</t>
+          <t>2025-07-08T01:02:29.106026</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -4981,13 +4981,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>9.119304774999819</v>
+        <v>6.409103714000139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:06.709817</t>
+          <t>2025-07-08T01:03:33.292389</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4996,27 +4996,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.31455401599987</v>
+        <v>11.68863152300037</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-07T21:56:06.995363</t>
+          <t>2025-07-08T01:42:18.638857</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 12)</t>
+          <t>Individual Retrieval (ID: 4)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>24.67694598699745</v>
+        <v>17.54787981000027</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:01.361969</t>
+          <t>2025-07-08T01:03:29.213538</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>9.482725204999952</v>
+        <v>5.839507097000023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:42.566512</t>
+          <t>2025-07-08T01:03:57.666254</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5040,27 +5040,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13.55244102799998</v>
+        <v>14.40383244499981</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-07T21:56:06.995363</t>
+          <t>2025-07-08T01:53:30.787242</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 9)</t>
+          <t>Individual Retrieval (ID: 16)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>31.36985952600298</v>
+        <v>28.52066058000037</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:35.309264</t>
+          <t>2025-07-08T01:03:50.119492</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -5069,13 +5069,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.18071159100009</v>
+        <v>6.741964579000069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:04.617199</t>
+          <t>2025-07-08T01:12:44.519511</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5084,27 +5084,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.73903951300008</v>
+        <v>10.13480710800013</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-07T22:00:45.214561</t>
+          <t>2025-07-08T01:56:40.405934</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 11)</t>
+          <t>Individual Retrieval (ID: 8)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30.96609599200019</v>
+        <v>23.78321171100015</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:04.304537</t>
+          <t>2025-07-08T01:10:12.079667</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.491145134999897</v>
+        <v>6.995707544000197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-07T20:12:01.253695</t>
+          <t>2025-07-08T01:28:12.554963</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5128,27 +5128,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.09376366600009</v>
+        <v>10.20706017500015</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-07T22:00:45.214561</t>
+          <t>2025-07-08T01:56:40.405934</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 25)</t>
+          <t>Individual Retrieval (ID: 11)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>19.22708931600209</v>
+        <v>17.84654405199944</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:41.316843</t>
+          <t>2025-07-08T01:12:42.285948</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7.377344214000004</v>
+        <v>7.710710501999984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-07T20:13:26.579506</t>
+          <t>2025-07-08T01:28:40.104542</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5172,27 +5172,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.50905358799901</v>
+        <v>9.774676502999682</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-07T22:00:45.214561</t>
+          <t>2025-07-08T01:57:40.153366</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 23)</t>
+          <t>Individual Retrieval (ID: 6)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30.85383990800256</v>
+        <v>16.68674274000023</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:06.371687</t>
+          <t>2025-07-08T01:13:06.873637</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5201,13 +5201,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5.975922769000135</v>
+        <v>6.946668349999982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:32.422913</t>
+          <t>2025-07-08T01:29:09.959701</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5216,27 +5216,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.26057171699904</v>
+        <v>12.87488474499969</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-07T22:00:45.214561</t>
+          <t>2025-07-08T01:58:17.390873</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 20)</t>
+          <t>Individual Retrieval (ID: 1)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25.22617425299904</v>
+        <v>23.69894297200062</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:24.965520</t>
+          <t>2025-07-08T01:28:12.260460</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5245,13 +5245,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6.126032918999954</v>
+        <v>8.279387563000455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:31.708586</t>
+          <t>2025-07-08T01:29:41.503705</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5260,27 +5260,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12.58946112000012</v>
+        <v>14.74499825000021</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-07T22:02:29.828219</t>
+          <t>2025-07-08T02:00:16.410345</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 28)</t>
+          <t>Individual Retrieval (ID: 5)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.27637025899821</v>
+        <v>33.69723665699985</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-07T17:58:28.737846</t>
+          <t>2025-07-08T01:28:38.184976</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7.095316783999806</v>
+        <v>6.134766172000127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:59.022068</t>
+          <t>2025-07-08T01:30:44.827461</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5304,27 +5304,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15.76860348500122</v>
+        <v>12.59164920900002</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-07T22:02:29.828219</t>
+          <t>2025-07-08T02:02:03.623368</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 31)</t>
+          <t>Individual Retrieval (ID: 14)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>32.222182401998</v>
+        <v>25.70386194500043</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:06.490194</t>
+          <t>2025-07-08T01:29:07.677758</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.318892298999799</v>
+        <v>8.776781970999764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-07T20:27:05.299406</t>
+          <t>2025-07-08T01:31:16.614471</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5348,27 +5348,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.35967909499959</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:04:23.607880</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 24)</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>16.29315193900038</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24</v>
+        <v>8.958330050999393</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:32.848347</t>
+          <t>2025-07-08T01:29:33.999219</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5377,13 +5361,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.272883712000294</v>
+        <v>5.479258532000131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-07T20:27:48.349045</t>
+          <t>2025-07-08T01:32:23.889389</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5392,27 +5376,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.44037809200017</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:04:23.607880</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 30)</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>21.90787603499848</v>
-      </c>
-      <c r="G15" t="n">
-        <v>30</v>
+        <v>13.68260729600024</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-08T01:30:40.156086</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5421,13 +5389,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>10.72084570400011</v>
+        <v>7.757680982000238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-07T20:28:43.083127</t>
+          <t>2025-07-08T01:32:56.199002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5436,27 +5404,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17.59599543100012</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:05:33.127226</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 15)</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>26.43821210199894</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15</v>
+        <v>15.58324941299998</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:05.711651</t>
+          <t>2025-07-08T01:31:14.459612</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5465,13 +5417,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.602910526999949</v>
+        <v>6.695047440000053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-07T20:30:37.928538</t>
+          <t>2025-07-08T01:33:24.516411</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5480,27 +5432,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17.58032469099999</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:06:54.248846</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 6)</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>31.49342754000099</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
+        <v>11.48682696699962</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:41.634287</t>
+          <t>2025-07-08T01:31:55.562218</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5509,13 +5445,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>6.580440927999916</v>
+        <v>9.349939626000378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-07T20:31:13.171045</t>
+          <t>2025-07-08T01:43:22.222557</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5524,27 +5460,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.47202378600014</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:14:47.765241</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 16)</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>31.7430661340004</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16</v>
+        <v>9.837152260000039</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:10.621610</t>
+          <t>2025-07-08T01:32:20.169022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5553,42 +5473,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6.69653442300023</v>
+        <v>6.427758468999855</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:32:34.624804</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>20.84831491600016</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:15:44.862108</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 13)</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>33.23212791400147</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13</v>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:32.236033</t>
+          <t>2025-07-08T01:32:48.750606</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -5597,42 +5488,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>7.071184787999755</v>
+        <v>6.556630342999597</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:33:05.575393</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14.58256067999901</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:15:44.862108</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 14)</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>22.69181101100185</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14</v>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-07T20:12:01.251252</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -5641,42 +5503,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>10.56414242500068</v>
+        <v>9.348954451000282</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:39:26.423360</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>18.75999036900066</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:18:56.806631</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 18)</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>19.6398290319994</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18</v>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-07T20:13:18.434270</t>
+          <t>2025-07-08T01:43:20.830363</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5685,365 +5518,162 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.220035006999751</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:40:34.709183</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>17.68336054599968</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:18:56.806631</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 29)</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>18.11131235499852</v>
-      </c>
-      <c r="G22" t="n">
-        <v>29</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:23:44.373559</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>6.278396850999343</v>
-      </c>
-    </row>
+        <v>6.77231205300086</v>
+      </c>
+    </row>
+    <row r="22"/>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:41:05.726337</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>14.24476980299914</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:18:56.806631</t>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 2)</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>38.26233680699806</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:24:09.435168</t>
+          <t>Time (s)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>6.347279622001224</v>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:42:49.643726</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>10.47986001600111</v>
+          <t>13.16</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-07-07T22:18:56.806631</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 5)</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>26.88960601700092</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5</v>
+          <t>24.47</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:39.210811</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>15.53937051200046</v>
+          <t>7.35</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:43:31.469190</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>14.44047054699877</v>
+          <t>8.96</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-07-07T22:31:42.657433</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 22)</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24.87656144300126</v>
-      </c>
-      <c r="G25" t="n">
-        <v>22</v>
+          <t>16.46</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:18.304200</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>30.12905363700156</v>
+          <t>5.48</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:44:18.057426</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>14.50446738699975</v>
+          <t>21.71</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-07-07T22:31:42.657433</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 8)</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>31.16117135399691</v>
-      </c>
-      <c r="G26" t="n">
-        <v>8</v>
+          <t>34.15</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:29.241532</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>6.710644097000113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:44:42.610886</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>12.6503273620001</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:32:53.357446</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 27)</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>33.53631805899931</v>
-      </c>
-      <c r="G27" t="n">
-        <v>27</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:25:51.873737</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>6.863947986999847</v>
-      </c>
-    </row>
+          <t>11.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:45:08.083849</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>14.07090809900001</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:34:51.526693</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 17)</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>19.36932680900281</v>
-      </c>
-      <c r="G28" t="n">
-        <v>17</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:26:58.117529</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>6.488622081000358</v>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-07T20:46:00.471011</t>
+          <t>2025-07-08T01:13:10.554253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>17.92194108299918</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:34:51.526693</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 26)</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>17.93027554799846</v>
-      </c>
-      <c r="G29" t="n">
-        <v>26</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:27:40.532709</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>7.000000726000508</v>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-07T20:46:49.789537</t>
+          <t>2025-07-08T01:13:10.572025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6051,99 +5681,50 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>18.6909228250006</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:34:51.526693</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 32)</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>32.56267615199977</v>
-      </c>
-      <c r="G30" t="n">
-        <v>32</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:28:35.256984</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>6.290267608999784</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-07T20:47:30.578098</t>
+          <t>2025-07-08T01:21:37.898638</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>17.74475083099969</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:30:29.905975</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>5.887769596998623</v>
+          <t>Vision Init Service</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:24.586453</t>
+          <t>2025-07-08T01:32:08.791967</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>21.47094829399975</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:31:03.875462</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>5.650815741999395</v>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:01.039943</t>
+          <t>2025-07-08T01:32:08.809127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6151,55 +5732,33 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>12.82721316800053</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:32:22.888056</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>7.329623222000009</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 277 mm</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:44.579927</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>9.370428393000111</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:32:59.361797</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>6.782805582000947</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-07T20:51:21.571745</t>
+          <t>2025-07-08T01:40:48.987836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6207,1405 +5766,402 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>10.28614700600156</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:39:17.271112</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>6.085372293999171</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 403 mm</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:40:28.037368</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>7.455442231999768</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:41:00.020547</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>7.01819500000056</v>
-      </c>
-    </row>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-08T01:40:56.515946</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 404 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="37"/>
     <row r="38">
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:41:31.608901</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>7.044207163000465</v>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:42:49.221380</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>8.417750570000862</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>8.96-10.23</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:43:26.219315</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>7.417676393000875</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10.23-11.51</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:44:13.126019</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>8.078220472001703</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>11.51-12.78</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:44:36.476819</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>6.408298532000117</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12.78-14.06</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:45:07.070913</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>9.519743813998502</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14.06-15.33</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:45:53.363984</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>7.321187820998603</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15.33-16.61</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:46:45.131372</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>10.50983613400058</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16.61-17.88</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:47:22.820113</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>6.563831375999143</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17.88-19.16</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:48:16.318484</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>9.671211946000767</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>19.16-20.43</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:48:55.786657</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>7.459972787999504</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:49:44.183667</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>8.844760150999718</v>
-      </c>
-    </row>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20.43-21.71</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49"/>
     <row r="50">
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:50:09.648990</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>6.665908984999987</v>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:51:20.106347</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>6.566689418999886</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>16.46-18.23</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2025-07-07T21:29:45.978602</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1323295019992656</v>
-      </c>
-    </row>
-    <row r="53"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18.23-20.00</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20.00-21.77</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="54">
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>21.77-23.53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>23.53-25.30</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>25.30-27.07</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>30.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="58"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>27.07-28.84</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>28.84-30.61</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>30.61-32.38</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:20.633754</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 447 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:54:04.304537</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
+          <t>32.38-34.15</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61"/>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:54:06.370378</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:13.860722</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 409 mm</t>
-        </is>
+          <t>5.48-6.07</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:18.597301</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 406 mm</t>
-        </is>
+          <t>6.07-6.65</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:43.702674</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
+          <t>6.65-7.24</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:10.734764</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
+          <t>7.24-7.83</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:29.067155</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
+          <t>7.83-8.42</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.030613</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
-        </is>
+          <t>8.42-9.00</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.051266</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
+          <t>9.00-9.59</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:36.125880</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
+          <t>9.59-10.18</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
+          <t>10.18-10.76</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.874522</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-07-07T18:03:09.896068</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
+          <t>10.76-11.35</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73"/>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-07-07T18:07:45.696819</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 8</t>
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.718017</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
+          <t>2025-07-08 01:00</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.255685</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-07-07T18:08:14.287395</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2025-07-07T18:08:35.394486</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2025-07-07T18:08:35.418117</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:23:54.984629</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 200 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:24:11.557410</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 210 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:25:00.905263</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:41:37.929023</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 21</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:41:37.954032</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:42:09.232090</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 424 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:42:14.735939</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 423 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:49:22.678706</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Package height is too high. Measured 205 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:49:25.426897</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Package height is too high. Measured 205 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:50:13.227524</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 32</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:50:13.240163</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2025-07-07T21:29:45.978602</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>No contours found</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:20:17.031515</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:20:17.040077</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 3</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:25:39.778239</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:25:39.792261</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 7</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>9.37-10.58</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>10.58-11.79</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>11.79-13.00</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>13.00-14.21</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
+          <t>2025-07-08 02:00</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>14.21-15.42</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>15.42-16.63</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>16.63-17.84</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>17.84-19.05</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>19.05-20.26</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>20.26-21.47</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108"/>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>16.29-18.49</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>18.49-20.69</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>20.69-22.88</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>22.88-25.08</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>25.08-27.28</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>27.28-29.47</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>29.47-31.67</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>31.67-33.87</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>33.87-36.07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>36.07-38.26</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120"/>
-    <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>0.13-3.13</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>3.13-6.13</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>6.13-9.13</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>9.13-12.13</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>12.13-15.13</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>15.13-18.13</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>18.13-21.13</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>21.13-24.13</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>24.13-27.13</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>27.13-30.13</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132"/>
-    <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2025-07-07 20:00</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2025-07-07 21:00</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2025-07-07 22:00</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137"/>
+    <row r="77"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -7618,7 +6174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7681,7 +6237,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:10.858889</t>
+          <t>2025-07-07T17:51:04.246628</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -7690,27 +6246,27 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>12.41856945300015</v>
+        <v>17.66747003199998</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:19.036548</t>
+          <t>2025-07-07T20:21:59.670075</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 4)</t>
+          <t>Individual Retrieval (ID: 9)</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>16.45869020000009</v>
+        <v>20.68801498200082</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:07.327137</t>
+          <t>2025-07-07T17:51:01.351695</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -7719,13 +6275,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6.964650817999882</v>
+        <v>8.229680633000044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:47.945511</t>
+          <t>2025-07-07T17:51:34.855621</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7734,27 +6290,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.70974803100034</v>
+        <v>16.78339298599985</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-08T01:39:02.766662</t>
+          <t>2025-07-07T20:22:46.695316</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 2)</t>
+          <t>Individual Retrieval (ID: 8)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27.14048637100041</v>
+        <v>31.04575719599961</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:45.012744</t>
+          <t>2025-07-07T17:51:32.689116</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7763,13 +6319,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11.350979413</v>
+        <v>12.91420855100023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-08T01:01:48.248853</t>
+          <t>2025-07-07T17:52:02.585950</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7778,27 +6334,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.86102985700018</v>
+        <v>15.77249993299984</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-08T01:39:02.766662</t>
+          <t>2025-07-07T21:36:44.355492</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 13)</t>
+          <t>Individual Retrieval (ID: 21)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28.39170301800004</v>
+        <v>33.65897170700009</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-08T01:01:39.271806</t>
+          <t>2025-07-07T17:51:56.375469</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -7807,13 +6363,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6.386366866000117</v>
+        <v>7.974038574999668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-08T01:02:37.307104</t>
+          <t>2025-07-07T17:52:33.404435</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7822,27 +6378,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.83196805099988</v>
+        <v>19.12800105299993</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:18.287595</t>
+          <t>2025-07-07T21:56:06.995363</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 7)</t>
+          <t>Individual Retrieval (ID: 10)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>34.14798633099963</v>
+        <v>24.82888304500011</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-08T01:02:29.106026</t>
+          <t>2025-07-07T17:52:26.839232</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -7851,13 +6407,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.409103714000139</v>
+        <v>9.119304774999819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:33.292389</t>
+          <t>2025-07-07T17:53:06.709817</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7866,27 +6422,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.68863152300037</v>
+        <v>18.31455401599987</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-08T01:42:18.638857</t>
+          <t>2025-07-07T21:56:06.995363</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 4)</t>
+          <t>Individual Retrieval (ID: 12)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17.54787981000027</v>
+        <v>24.67694598699745</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:29.213538</t>
+          <t>2025-07-07T17:53:01.361969</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -7895,13 +6451,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5.839507097000023</v>
+        <v>9.482725204999952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:57.666254</t>
+          <t>2025-07-07T17:53:42.566512</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7910,27 +6466,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.40383244499981</v>
+        <v>13.55244102799998</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-08T01:53:30.787242</t>
+          <t>2025-07-07T21:56:06.995363</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 16)</t>
+          <t>Individual Retrieval (ID: 9)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28.52066058000037</v>
+        <v>31.36985952600298</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:50.119492</t>
+          <t>2025-07-07T17:53:35.309264</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -7939,13 +6495,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.741964579000069</v>
+        <v>6.18071159100009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-08T01:12:44.519511</t>
+          <t>2025-07-07T18:01:04.617199</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7954,27 +6510,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.13480710800013</v>
+        <v>11.73903951300008</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-08T01:56:40.405934</t>
+          <t>2025-07-07T22:00:45.214561</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 8)</t>
+          <t>Individual Retrieval (ID: 11)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23.78321171100015</v>
+        <v>30.96609599200019</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-08T01:10:12.079667</t>
+          <t>2025-07-07T17:54:04.304537</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -7983,13 +6539,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6.995707544000197</v>
+        <v>7.491145134999897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:12.554963</t>
+          <t>2025-07-07T20:12:01.253695</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7998,27 +6554,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.20706017500015</v>
+        <v>12.09376366600009</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-08T01:56:40.405934</t>
+          <t>2025-07-07T22:00:45.214561</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 11)</t>
+          <t>Individual Retrieval (ID: 25)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17.84654405199944</v>
+        <v>19.22708931600209</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-08T01:12:42.285948</t>
+          <t>2025-07-07T17:54:41.316843</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -8027,13 +6583,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7.710710501999984</v>
+        <v>7.377344214000004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:40.104542</t>
+          <t>2025-07-07T20:13:26.579506</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8042,27 +6598,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.774676502999682</v>
+        <v>14.50905358799901</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-08T01:57:40.153366</t>
+          <t>2025-07-07T22:00:45.214561</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 6)</t>
+          <t>Individual Retrieval (ID: 23)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16.68674274000023</v>
+        <v>30.85383990800256</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:06.873637</t>
+          <t>2025-07-07T17:55:06.371687</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -8071,13 +6627,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.946668349999982</v>
+        <v>5.975922769000135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:09.959701</t>
+          <t>2025-07-07T20:24:32.422913</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8086,27 +6642,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.87488474499969</v>
+        <v>12.26057171699904</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-08T01:58:17.390873</t>
+          <t>2025-07-07T22:00:45.214561</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 1)</t>
+          <t>Individual Retrieval (ID: 20)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.69894297200062</v>
+        <v>25.22617425299904</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:12.260460</t>
+          <t>2025-07-07T17:55:24.965520</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -8115,13 +6671,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.279387563000455</v>
+        <v>6.126032918999954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:41.503705</t>
+          <t>2025-07-07T20:25:31.708586</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8130,27 +6686,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.74499825000021</v>
+        <v>12.58946112000012</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-08T02:00:16.410345</t>
+          <t>2025-07-07T22:02:29.828219</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 5)</t>
+          <t>Individual Retrieval (ID: 28)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>33.69723665699985</v>
+        <v>24.27637025899821</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:38.184976</t>
+          <t>2025-07-07T17:58:28.737846</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -8159,13 +6715,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>6.134766172000127</v>
+        <v>7.095316783999806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-08T01:30:44.827461</t>
+          <t>2025-07-07T20:25:59.022068</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8174,27 +6730,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.59164920900002</v>
+        <v>15.76860348500122</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-08T02:02:03.623368</t>
+          <t>2025-07-07T22:02:29.828219</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 14)</t>
+          <t>Individual Retrieval (ID: 31)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.70386194500043</v>
+        <v>32.222182401998</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:07.677758</t>
+          <t>2025-07-07T18:00:06.490194</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -8203,13 +6759,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8.776781970999764</v>
+        <v>7.318892298999799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-08T01:31:16.614471</t>
+          <t>2025-07-07T20:27:05.299406</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8218,11 +6774,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.958330050999393</v>
+        <v>15.35967909499959</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:04:23.607880</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>16.29315193900038</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:33.999219</t>
+          <t>2025-07-07T18:00:32.848347</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -8231,13 +6803,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>5.479258532000131</v>
+        <v>6.272883712000294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:23.889389</t>
+          <t>2025-07-07T20:27:48.349045</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8246,11 +6818,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13.68260729600024</v>
+        <v>21.44037809200017</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:04:23.607880</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 30)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>21.90787603499848</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-08T01:30:40.156086</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -8259,13 +6847,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.757680982000238</v>
+        <v>10.72084570400011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:56.199002</t>
+          <t>2025-07-07T20:28:43.083127</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8274,11 +6862,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.58324941299998</v>
+        <v>17.59599543100012</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:05:33.127226</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>26.43821210199894</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-08T01:31:14.459612</t>
+          <t>2025-07-07T18:03:05.711651</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -8287,13 +6891,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.695047440000053</v>
+        <v>6.602910526999949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:24.516411</t>
+          <t>2025-07-07T20:30:37.928538</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8302,11 +6906,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.48682696699962</v>
+        <v>17.58032469099999</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:06:54.248846</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>31.49342754000099</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-08T01:31:55.562218</t>
+          <t>2025-07-07T18:07:41.634287</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -8315,13 +6935,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9.349939626000378</v>
+        <v>6.580440927999916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-08T01:43:22.222557</t>
+          <t>2025-07-07T20:31:13.171045</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8330,11 +6950,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.837152260000039</v>
+        <v>16.47202378600014</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:14:47.765241</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>31.7430661340004</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:20.169022</t>
+          <t>2025-07-07T18:08:10.621610</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -8343,13 +6979,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6.427758468999855</v>
+        <v>6.69653442300023</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:32:34.624804</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>20.84831491600016</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:15:44.862108</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>33.23212791400147</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13</v>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:48.750606</t>
+          <t>2025-07-07T18:08:32.236033</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -8358,13 +7023,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>6.556630342999597</v>
+        <v>7.071184787999755</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:33:05.575393</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14.58256067999901</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:15:44.862108</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>22.69181101100185</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14</v>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-07T20:12:01.251252</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -8373,13 +7067,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>9.348954451000282</v>
+        <v>10.56414242500068</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:39:26.423360</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>18.75999036900066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:18:56.806631</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 18)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>19.6398290319994</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-08T01:43:20.830363</t>
+          <t>2025-07-07T20:13:18.434270</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -8388,162 +7111,365 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.77231205300086</v>
-      </c>
-    </row>
-    <row r="22"/>
+        <v>6.220035006999751</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:40:34.709183</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>17.68336054599968</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:18:56.806631</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 29)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>18.11131235499852</v>
+      </c>
+      <c r="G22" t="n">
+        <v>29</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:23:44.373559</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6.278396850999343</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:41:05.726337</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14.24476980299914</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:18:56.806631</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>38.26233680699806</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:24:09.435168</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
-        </is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6.347279622001224</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:42:49.643726</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13.16</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10.47986001600111</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>2025-07-07T22:18:56.806631</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.47</t>
-        </is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>26.88960601700092</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>2025-07-07T20:24:39.210811</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>15.53937051200046</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:43:31.469190</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.96</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>14.44047054699877</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>2025-07-07T22:31:42.657433</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16.46</t>
-        </is>
+          <t>Individual Retrieval (ID: 22)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>24.87656144300126</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>2025-07-07T20:25:18.304200</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>30.12905363700156</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:44:18.057426</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21.71</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>14.50446738699975</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maximum</t>
+          <t>2025-07-07T22:31:42.657433</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>34.15</t>
-        </is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>31.16117135399691</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Maximum</t>
+          <t>2025-07-07T20:25:29.241532</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="27"/>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6.710644097000113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:44:42.610886</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>12.6503273620001</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:32:53.357446</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 27)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>33.53631805899931</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:25:51.873737</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6.863947986999847</v>
+      </c>
+    </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:45:08.083849</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.07090809900001</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:34:51.526693</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 17)</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>19.36932680900281</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:26:58.117529</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6.488622081000358</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.554253</t>
+          <t>2025-07-07T20:46:00.471011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>17.92194108299918</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:34:51.526693</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>17.93027554799846</v>
+      </c>
+      <c r="G29" t="n">
+        <v>26</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:27:40.532709</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>7.000000726000508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.572025</t>
+          <t>2025-07-07T20:46:49.789537</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8551,50 +7477,99 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
+      <c r="C30" t="n">
+        <v>18.6909228250006</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:34:51.526693</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 32)</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>32.56267615199977</v>
+      </c>
+      <c r="G30" t="n">
+        <v>32</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:28:35.256984</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6.290267608999784</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T01:21:37.898638</t>
+          <t>2025-07-07T20:47:30.578098</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vision Init Service</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>17.74475083099969</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:30:29.905975</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5.887769596998623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.791967</t>
+          <t>2025-07-07T20:48:24.586453</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>21.47094829399975</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:31:03.875462</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>5.650815741999395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.809127</t>
+          <t>2025-07-07T20:49:01.039943</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8602,33 +7577,55 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 277 mm</t>
-        </is>
+      <c r="C33" t="n">
+        <v>12.82721316800053</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:32:22.888056</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>7.329623222000009</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-07T20:49:44.579927</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9.370428393000111</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:32:59.361797</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6.782805582000947</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:48.987836</t>
+          <t>2025-07-07T20:51:21.571745</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8636,402 +7633,1405 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 403 mm</t>
-        </is>
+      <c r="C35" t="n">
+        <v>10.28614700600156</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:39:17.271112</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>6.085372293999171</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:40:56.515946</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 404 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="37"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:40:28.037368</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>7.455442231999768</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:41:00.020547</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.01819500000056</v>
+      </c>
+    </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:41:31.608901</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>7.044207163000465</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>8.96-10.23</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:42:49.221380</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>8.417750570000862</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>10.23-11.51</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:43:26.219315</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7.417676393000875</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>11.51-12.78</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:44:13.126019</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>8.078220472001703</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>12.78-14.06</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:44:36.476819</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>6.408298532000117</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>14.06-15.33</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:45:07.070913</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>9.519743813998502</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>15.33-16.61</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:45:53.363984</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>7.321187820998603</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>16.61-17.88</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:46:45.131372</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>10.50983613400058</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>17.88-19.16</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:47:22.820113</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>6.563831375999143</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>19.16-20.43</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:48:16.318484</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>9.671211946000767</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20.43-21.71</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:48:55.786657</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>7.459972787999504</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:49:44.183667</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>8.844760150999718</v>
+      </c>
+    </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:50:09.648990</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>6.665908984999987</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>16.46-18.23</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:51:20.106347</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>6.566689418999886</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>18.23-20.00</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>20.00-21.77</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-07-07T21:29:45.978602</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1323295019992656</v>
+      </c>
+    </row>
+    <row r="53"/>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>21.77-23.53</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>23.53-25.30</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>25.30-27.07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>27.07-28.84</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>28.84-30.61</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="58"/>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>30.61-32.38</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32.38-34.15</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61"/>
+          <t>2025-07-07T17:53:20.633754</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 447 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:54:04.304537</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:54:06.370378</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5.48-6.07</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
+          <t>2025-07-07T17:54:13.860722</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 409 mm</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.07-6.65</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5</v>
+          <t>2025-07-07T17:54:18.597301</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 406 mm</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6.65-7.24</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>6</v>
+          <t>2025-07-07T17:54:43.702674</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.24-7.83</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
+          <t>2025-07-07T17:55:10.734764</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7.83-8.42</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
+          <t>2025-07-07T17:55:29.067155</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8.42-9.00</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
+          <t>2025-07-07T18:00:10.030613</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9.00-9.59</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
+          <t>2025-07-07T18:00:10.051266</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9.59-10.18</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
+          <t>2025-07-07T18:00:36.125880</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.18-10.76</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
+          <t>2025-07-07T18:01:05.673187</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10.76-11.35</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73"/>
+          <t>2025-07-07T18:03:09.874522</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-07T18:03:09.896068</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-07T18:07:45.696819</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-08 01:00</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>10</v>
+          <t>2025-07-07T18:07:45.718017</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-08 02:00</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
+          <t>2025-07-07T18:08:14.255685</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-07-07T18:08:14.287395</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-07-07T18:08:35.394486</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-07-07T18:08:35.418117</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:23:54.984629</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 200 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:24:11.557410</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 210 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:25:00.905263</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:41:37.929023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:41:37.954032</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:42:09.232090</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 424 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:42:14.735939</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 423 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:49:22.678706</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 205 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:49:25.426897</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 205 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:50:13.227524</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:50:13.240163</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-07-07T21:29:45.978602</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No contours found</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:20:17.031515</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:20:17.040077</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:25:39.778239</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:25:39.792261</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>9.37-10.58</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10.58-11.79</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>11.79-13.00</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>13.00-14.21</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="77"/>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>14.21-15.42</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>15.42-16.63</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>16.63-17.84</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>17.84-19.05</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19.05-20.26</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20.26-21.47</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>16.29-18.49</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>18.49-20.69</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20.69-22.88</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>22.88-25.08</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>25.08-27.28</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>27.28-29.47</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>29.47-31.67</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>31.67-33.87</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>33.87-36.07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>36.07-38.26</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120"/>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0.13-3.13</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3.13-6.13</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>6.13-9.13</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>9.13-12.13</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>12.13-15.13</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>15.13-18.13</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>18.13-21.13</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>21.13-24.13</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>24.13-27.13</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>27.13-30.13</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132"/>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-07 20:00</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-07-07 21:00</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:00</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -351,7 +351,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B74</f>
+              <f>'Day 2'!B110</f>
             </strRef>
           </tx>
           <spPr>
@@ -361,12 +361,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$75:$A$76</f>
+              <f>'Day 2'!$A$111:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$75:$B$76</f>
+              <f>'Day 2'!$B$111:$B$113</f>
             </numRef>
           </val>
         </ser>
@@ -746,7 +746,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B74</f>
+              <f>'Day 4'!B38</f>
             </strRef>
           </tx>
           <spPr>
@@ -756,12 +756,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$75:$A$84</f>
+              <f>'Day 4'!$A$39:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$75:$B$84</f>
+              <f>'Day 4'!$B$39:$B$48</f>
             </numRef>
           </val>
         </ser>
@@ -810,7 +810,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B86</f>
+              <f>'Day 4'!B50</f>
             </strRef>
           </tx>
           <spPr>
@@ -820,12 +820,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$87:$A$96</f>
+              <f>'Day 4'!$A$51:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$87:$B$96</f>
+              <f>'Day 4'!$B$51:$B$60</f>
             </numRef>
           </val>
         </ser>
@@ -874,7 +874,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B98</f>
+              <f>'Day 4'!B62</f>
             </strRef>
           </tx>
           <spPr>
@@ -884,12 +884,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$99:$A$108</f>
+              <f>'Day 4'!$A$63:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$99:$B$108</f>
+              <f>'Day 4'!$B$63:$B$72</f>
             </numRef>
           </val>
         </ser>
@@ -953,7 +953,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B110</f>
+              <f>'Day 4'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -963,12 +963,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$111:$A$113</f>
+              <f>'Day 4'!$A$75:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$111:$B$113</f>
+              <f>'Day 4'!$B$75:$B$76</f>
             </numRef>
           </val>
         </ser>
@@ -1524,7 +1524,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B38</f>
+              <f>'Day 2'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -1534,12 +1534,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$39:$A$48</f>
+              <f>'Day 2'!$A$75:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$39:$B$48</f>
+              <f>'Day 2'!$B$75:$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -1588,7 +1588,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B50</f>
+              <f>'Day 2'!B86</f>
             </strRef>
           </tx>
           <spPr>
@@ -1598,12 +1598,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$51:$A$60</f>
+              <f>'Day 2'!$A$87:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$51:$B$60</f>
+              <f>'Day 2'!$B$87:$B$96</f>
             </numRef>
           </val>
         </ser>
@@ -1652,7 +1652,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B62</f>
+              <f>'Day 2'!B98</f>
             </strRef>
           </tx>
           <spPr>
@@ -1662,12 +1662,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$63:$A$72</f>
+              <f>'Day 2'!$A$99:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$63:$B$72</f>
+              <f>'Day 2'!$B$99:$B$108</f>
             </numRef>
           </val>
         </ser>
@@ -1852,7 +1852,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1874,7 +1874,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>49</row>
+      <row>85</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1896,7 +1896,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>61</row>
+      <row>97</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1918,7 +1918,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>109</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2038,7 +2038,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2060,7 +2060,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>85</row>
+      <row>49</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2082,7 +2082,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>97</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2104,7 +2104,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>109</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2542,37 +2542,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13.16</v>
+        <v>15.04</v>
       </c>
       <c r="D3" t="n">
-        <v>24.47</v>
+        <v>25.15</v>
       </c>
       <c r="E3" t="n">
-        <v>7.35</v>
+        <v>6.73</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
+        <v>44</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>92.95999999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.7198232411111111</v>
+        <v>0.8232046736111107</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3835713072222222</v>
+        <v>0.2797005152777778</v>
       </c>
     </row>
     <row r="4">
@@ -2628,37 +2628,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.04</v>
+        <v>13.16</v>
       </c>
       <c r="D5" t="n">
-        <v>25.15</v>
+        <v>24.47</v>
       </c>
       <c r="E5" t="n">
-        <v>6.73</v>
+        <v>7.35</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>92.95999999999999</v>
+        <v>31.28</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8232046736111107</v>
+        <v>0.7198232411111111</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2797005152777778</v>
+        <v>0.3835713072222222</v>
       </c>
     </row>
   </sheetData>
@@ -2739,37 +2739,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Package length is too long.</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Error message not found</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Package length is too long.</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
         </is>
       </c>
     </row>
@@ -2819,18 +2819,21 @@
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -2839,6 +2842,15 @@
       </c>
       <c r="N3" t="n">
         <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2868,16 +2880,16 @@
       <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2890,34 +2902,22 @@
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
@@ -4748,7 +4748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4811,7 +4811,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:10.858889</t>
+          <t>2025-07-08T22:48:28.689791</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -4820,27 +4820,27 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>12.41856945300015</v>
+        <v>9.739755708000303</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:19.036548</t>
+          <t>2025-07-08T23:50:08.726271</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 4)</t>
+          <t>Individual Retrieval (ID: 27)</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>16.45869020000009</v>
+        <v>24.89038071800314</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:07.327137</t>
+          <t>2025-07-08T22:48:26.002397</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6.964650817999882</v>
+        <v>6.926302025996847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:47.945511</t>
+          <t>2025-07-08T22:52:40.129724</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4864,27 +4864,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.70974803100034</v>
+        <v>12.22106634699958</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-08T01:39:02.766662</t>
+          <t>2025-07-08T23:50:08.726271</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 2)</t>
+          <t>Individual Retrieval (ID: 19)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27.14048637100041</v>
+        <v>28.60336724799708</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-08T01:00:45.012744</t>
+          <t>2025-07-08T22:52:36.877685</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11.350979413</v>
+        <v>7.405810242998996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-08T01:01:48.248853</t>
+          <t>2025-07-08T22:53:14.619920</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4908,27 +4908,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.86102985700018</v>
+        <v>14.76278409599763</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-08T01:39:02.766662</t>
+          <t>2025-07-09T00:44:22.546976</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 13)</t>
+          <t>Individual Retrieval (ID: 12)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28.39170301800004</v>
+        <v>25.59200767200002</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-08T01:01:39.271806</t>
+          <t>2025-07-08T22:53:08.503846</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4937,13 +4937,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6.386366866000117</v>
+        <v>7.149856347001332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-08T01:02:37.307104</t>
+          <t>2025-07-08T22:54:00.165943</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4952,27 +4952,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.83196805099988</v>
+        <v>16.64273647500158</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:18.287595</t>
+          <t>2025-07-09T00:44:22.546976</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 7)</t>
+          <t>Individual Retrieval (ID: 35)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>34.14798633099963</v>
+        <v>18.74283120600001</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-08T01:02:29.106026</t>
+          <t>2025-07-08T22:53:51.746637</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -4981,13 +4981,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.409103714000139</v>
+        <v>6.760863604999031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:33.292389</t>
+          <t>2025-07-08T22:54:51.120320</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4996,11 +4996,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.68863152300037</v>
+        <v>23.05658748399946</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-08T01:42:18.638857</t>
+          <t>2025-07-09T00:47:43.737777</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5009,14 +5009,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17.54787981000027</v>
+        <v>32.11041911900003</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:29.213538</t>
+          <t>2025-07-08T22:54:42.577184</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5.839507097000023</v>
+        <v>7.368505602000369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:57.666254</t>
+          <t>2025-07-08T22:56:30.098936</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5040,27 +5040,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.40383244499981</v>
+        <v>18.9554138229978</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-08T01:53:30.787242</t>
+          <t>2025-07-09T00:47:43.737777</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 16)</t>
+          <t>Individual Retrieval (ID: 32)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28.52066058000037</v>
+        <v>15.56475010399998</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-08T01:03:50.119492</t>
+          <t>2025-07-08T22:56:20.901999</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -5069,13 +5069,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.741964579000069</v>
+        <v>6.23434560899841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-08T01:12:44.519511</t>
+          <t>2025-07-08T23:13:04.044103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5084,27 +5084,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.13480710800013</v>
+        <v>9.254658166999434</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-08T01:56:40.405934</t>
+          <t>2025-07-09T00:47:43.737777</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 8)</t>
+          <t>Individual Retrieval (ID: 36)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23.78321171100015</v>
+        <v>35.30523037399996</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-08T01:10:12.079667</t>
+          <t>2025-07-08T22:56:51.535369</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6.995707544000197</v>
+        <v>9.225246816000436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:12.554963</t>
+          <t>2025-07-08T23:13:31.569603</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5128,27 +5128,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.20706017500015</v>
+        <v>12.97762150299968</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-08T01:56:40.405934</t>
+          <t>2025-07-09T00:47:43.737777</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 11)</t>
+          <t>Individual Retrieval (ID: 3)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17.84654405199944</v>
+        <v>25.04282548599997</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-08T01:12:42.285948</t>
+          <t>2025-07-08T23:13:02.833150</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7.710710501999984</v>
+        <v>7.862596336999559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:40.104542</t>
+          <t>2025-07-08T23:14:18.808490</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5172,27 +5172,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.774676502999682</v>
+        <v>14.23317721300191</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-08T01:57:40.153366</t>
+          <t>2025-07-09T00:47:43.737777</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 6)</t>
+          <t>Individual Retrieval (ID: 24)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16.68674274000023</v>
+        <v>22.31566797599999</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:06.873637</t>
+          <t>2025-07-08T23:13:27.038784</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5201,13 +5201,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.946668349999982</v>
+        <v>6.690923350000958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:09.959701</t>
+          <t>2025-07-08T23:16:17.698058</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5216,27 +5216,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.87488474499969</v>
+        <v>13.04225058299926</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-08T01:58:17.390873</t>
+          <t>2025-07-09T00:50:18.044829</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 1)</t>
+          <t>Individual Retrieval (ID: 6)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.69894297200062</v>
+        <v>24.246449095</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:12.260460</t>
+          <t>2025-07-08T23:14:15.137647</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5245,13 +5245,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.279387563000455</v>
+        <v>6.768257601997902</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:41.503705</t>
+          <t>2025-07-08T23:17:26.707028</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5260,27 +5260,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.74499825000021</v>
+        <v>19.01534114300011</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-08T02:00:16.410345</t>
+          <t>2025-07-09T00:50:18.044829</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 5)</t>
+          <t>Individual Retrieval (ID: 1)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>33.69723665699985</v>
+        <v>31.50091320000001</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-08T01:28:38.184976</t>
+          <t>2025-07-08T23:16:11.156932</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>6.134766172000127</v>
+        <v>6.377986020997923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-08T01:30:44.827461</t>
+          <t>2025-07-08T23:18:04.202887</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5304,27 +5304,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.59164920900002</v>
+        <v>13.10294801599957</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-08T02:02:03.623368</t>
+          <t>2025-07-09T00:53:09.575278</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 14)</t>
+          <t>Individual Retrieval (ID: 5)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.70386194500043</v>
+        <v>25.51722777400005</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:07.677758</t>
+          <t>2025-07-08T23:16:49.823491</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8.776781970999764</v>
+        <v>7.915042188000371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-08T01:31:16.614471</t>
+          <t>2025-07-08T23:18:34.966062</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5348,11 +5348,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.958330050999393</v>
+        <v>16.75854314900062</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>20.30912766799997</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-08T01:29:33.999219</t>
+          <t>2025-07-08T23:17:19.846311</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5361,13 +5377,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>5.479258532000131</v>
+        <v>6.624801676000061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:23.889389</t>
+          <t>2025-07-08T23:19:56.528242</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5376,11 +5392,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13.68260729600024</v>
+        <v>15.07485731100314</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>22.10389929199994</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-08T01:30:40.156086</t>
+          <t>2025-07-08T23:17:57.047889</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5389,13 +5421,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.757680982000238</v>
+        <v>5.820372376998421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:56.199002</t>
+          <t>2025-07-08T23:20:40.389670</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5404,11 +5436,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.58324941299998</v>
+        <v>18.86117539599945</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>19.31567681599995</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-08T01:31:14.459612</t>
+          <t>2025-07-08T23:18:27.555767</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5417,13 +5465,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.695047440000053</v>
+        <v>5.817229492000479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:24.516411</t>
+          <t>2025-07-08T23:22:19.657973</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5432,11 +5480,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.48682696699962</v>
+        <v>12.68264764600099</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>31.2704850670001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-08T01:31:55.562218</t>
+          <t>2025-07-08T23:19:49.128990</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5445,13 +5509,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9.349939626000378</v>
+        <v>6.013141718001862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-08T01:43:22.222557</t>
+          <t>2025-07-08T23:22:49.749577</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5460,11 +5524,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.837152260000039</v>
+        <v>9.223377932998119</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:54:14.897822</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 28)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>25.20978284599994</v>
+      </c>
+      <c r="G18" t="n">
+        <v>28</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:20.169022</t>
+          <t>2025-07-08T23:20:33.492396</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5473,13 +5553,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6.427758468999855</v>
+        <v>8.454442474998359</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:36.994186</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11.0098028809989</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:54:14.897822</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 34)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>19.79026448000002</v>
+      </c>
+      <c r="G19" t="n">
+        <v>34</v>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:48.750606</t>
+          <t>2025-07-08T23:22:12.818347</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -5488,13 +5597,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>6.556630342999597</v>
+        <v>5.707087474998843</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:06.914321</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15.22750738899776</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>34.69862186099999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T23:22:46.707645</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -5503,13 +5641,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>9.348954451000282</v>
+        <v>6.082853595002234</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:43.190367</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11.83240232900062</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 31)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>16.14772895400006</v>
+      </c>
+      <c r="G21" t="n">
+        <v>31</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-08T01:43:20.830363</t>
+          <t>2025-07-08T23:23:33.814680</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5518,162 +5685,333 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.77231205300086</v>
-      </c>
-    </row>
-    <row r="22"/>
+        <v>5.842845523999131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:13.359043</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12.74872948400298</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>37.98819528800004</v>
+      </c>
+      <c r="G22" t="n">
+        <v>26</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:59.361414</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>5.987875787999656</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:54.201304</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>19.02213804799976</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>Individual Retrieval (ID: 33)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>21.90726079299998</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:38.087652</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
-        </is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6.598010349000106</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:34.001276</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13.16</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>18.50043175099927</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>2025-07-09T01:01:09.468831</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.47</t>
-        </is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>25.71080897299998</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>2025-07-08T23:25:10.315612</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.282159440001124</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:43.782502</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.96</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13.30749840700082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>2025-07-09T01:01:09.468831</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16.46</t>
-        </is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>19.09752114800017</v>
+      </c>
+      <c r="G25" t="n">
+        <v>21</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>2025-07-08T23:25:44.753682</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>6.072943404997204</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:20.154728</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21.71</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>17.94780154299951</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maximum</t>
+          <t>2025-07-09T01:01:09.468831</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>34.15</t>
-        </is>
+          <t>Individual Retrieval (ID: 22)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>20.13124113599997</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Maximum</t>
+          <t>2025-07-08T23:26:25.510004</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="27"/>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6.554649730001984</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:03.014644</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>20.23042048500065</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>30.89984609900011</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:36.633534</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6.049241011998674</v>
+      </c>
+    </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:36.018999</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.15438628999982</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:11.995146</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6.303271404998668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.554253</t>
+          <t>2025-07-08T23:30:07.567358</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>14.06064980800147</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:50.105511</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>5.668358299000829</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.572025</t>
+          <t>2025-07-08T23:30:37.525788</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5681,50 +6019,83 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
+      <c r="C30" t="n">
+        <v>11.65894129399749</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:29.601333</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6.183931113999279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T01:21:37.898638</t>
+          <t>2025-07-08T23:31:04.920495</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vision Init Service</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12.2581570830007</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:02.376937</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>7.12968110699876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.791967</t>
+          <t>2025-07-08T23:31:51.259423</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15.94989597600215</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:32.122926</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6.134777331000805</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.809127</t>
+          <t>2025-07-08T23:32:31.617178</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5732,33 +6103,55 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 277 mm</t>
-        </is>
+      <c r="C33" t="n">
+        <v>16.91584824900201</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:00.989213</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6.479192823000631</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T23:35:54.661968</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>16.36474248000013</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:45.450156</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6.534823109999707</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:48.987836</t>
+          <t>2025-07-08T23:36:37.000132</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5766,16 +6159,27 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 403 mm</t>
-        </is>
+      <c r="C35" t="n">
+        <v>21.52797504000046</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:32:27.670087</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>9.558821201000683</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:56.515946</t>
+          <t>2025-07-08T23:37:15.702678</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5783,385 +6187,1041 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 404 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="37"/>
+      <c r="C36" t="n">
+        <v>17.71235919900209</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:33:15.600967</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>9.023647314999835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:52.226616</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>14.37758300999849</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:35:46.943498</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.161070899001061</v>
+      </c>
+    </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:11:00.635840</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>11.97499336200053</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:36:28.548819</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>6.500482330997329</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>8.96-10.23</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:07.896621</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>6.344792412997776</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>10.23-11.51</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:46.502192</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7.236187489997974</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>11.51-12.78</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:38.486038</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>6.856922298000427</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>12.78-14.06</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:11:00.554425</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>10.39790224299941</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>14.06-15.33</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:08.391051</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>7.020958000000974</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>15.33-16.61</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>16.61-17.88</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1523438369986252</v>
+      </c>
+    </row>
+    <row r="45"/>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>17.88-19.16</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>19.16-20.43</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20.43-21.71</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49"/>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>16.46-18.23</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4</v>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18.23-20.00</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
+          <t>2025-07-08T22:56:53.043192</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20.00-21.77</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
+          <t>2025-07-08T22:56:53.065961</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21.77-23.53</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
+          <t>2025-07-08T23:16:59.150607</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 11</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>23.53-25.30</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
+          <t>2025-07-08T23:16:59.174089</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25.30-27.07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
+          <t>2025-07-08T23:26:59.288288</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 204 mm</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27.07-28.84</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3</v>
+          <t>2025-07-08T23:27:06.637060</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 414 mm</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>28.84-30.61</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
+          <t>2025-07-08T23:42:46.228905</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 37</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.61-32.38</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
+          <t>2025-07-08T23:42:46.248970</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32.38-34.15</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61"/>
+          <t>2025-07-09T00:16:43.556644</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 410 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:16.528185</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 38</t>
+        </is>
+      </c>
+    </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:16.552050</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5.48-6.07</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No contours found</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.07-6.65</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5</v>
+          <t>2025-07-09T00:57:29.132885</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6.65-7.24</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>6</v>
+          <t>2025-07-09T00:57:29.138871</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.24-7.83</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
+          <t>2025-07-09T00:57:29.145963</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7.83-8.42</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
+          <t>2025-07-09T00:58:22.572326</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8.42-9.00</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
+          <t>2025-07-09T00:58:22.579425</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 9</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9.00-9.59</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
+          <t>2025-07-09T01:04:06.729963</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9.59-10.18</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
+          <t>2025-07-09T01:04:06.741982</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.18-10.76</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
+          <t>2025-07-09T01:14:06.484565</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10.76-11.35</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
+          <t>2025-07-09T01:14:06.501028</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 18</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
       </c>
     </row>
     <row r="73"/>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Time Bins (s)</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Packages Retrieved</t>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-08 01:00</t>
+          <t>9.22-10.61</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-08 02:00</t>
+          <t>10.61-11.99</t>
         </is>
       </c>
       <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>11.99-13.37</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>13.37-14.76</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>14.76-16.14</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.14-17.52</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17.52-18.91</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18.91-20.29</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20.29-21.67</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21.67-23.06</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15.56-17.81</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="77"/>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17.81-20.05</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20.05-22.29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>22.29-24.53</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>24.53-26.78</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>26.78-29.02</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>29.02-31.26</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>31.26-33.50</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>33.50-35.75</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>35.75-37.99</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0.15-1.18</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1.18-2.20</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2.20-3.23</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3.23-4.25</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4.25-5.28</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5.28-6.30</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6.30-7.32</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7.32-8.35</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.35-9.37</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.37-10.40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-07-08 23:00</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-09 01:00</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -9044,7 +10104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9107,7 +10167,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T22:48:28.689791</t>
+          <t>2025-07-08T01:00:10.858889</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -9116,27 +10176,27 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>9.739755708000303</v>
+        <v>12.41856945300015</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T23:50:08.726271</t>
+          <t>2025-07-08T01:03:19.036548</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 27)</t>
+          <t>Individual Retrieval (ID: 4)</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>24.89038071800314</v>
+        <v>16.45869020000009</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-08T22:48:26.002397</t>
+          <t>2025-07-08T01:00:07.327137</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -9145,13 +10205,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6.926302025996847</v>
+        <v>6.964650817999882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-08T22:52:40.129724</t>
+          <t>2025-07-08T01:00:47.945511</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9160,27 +10220,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.22106634699958</v>
+        <v>21.70974803100034</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-08T23:50:08.726271</t>
+          <t>2025-07-08T01:39:02.766662</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 19)</t>
+          <t>Individual Retrieval (ID: 2)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28.60336724799708</v>
+        <v>27.14048637100041</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-08T22:52:36.877685</t>
+          <t>2025-07-08T01:00:45.012744</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -9189,13 +10249,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>7.405810242998996</v>
+        <v>11.350979413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-08T22:53:14.619920</t>
+          <t>2025-07-08T01:01:48.248853</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9204,27 +10264,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14.76278409599763</v>
+        <v>18.86102985700018</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-09T00:44:22.546976</t>
+          <t>2025-07-08T01:39:02.766662</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 12)</t>
+          <t>Individual Retrieval (ID: 13)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25.59200767200002</v>
+        <v>28.39170301800004</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-08T22:53:08.503846</t>
+          <t>2025-07-08T01:01:39.271806</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -9233,13 +10293,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>7.149856347001332</v>
+        <v>6.386366866000117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-08T22:54:00.165943</t>
+          <t>2025-07-08T01:02:37.307104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9248,27 +10308,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.64273647500158</v>
+        <v>14.83196805099988</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-09T00:44:22.546976</t>
+          <t>2025-07-08T01:40:18.287595</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 35)</t>
+          <t>Individual Retrieval (ID: 7)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18.74283120600001</v>
+        <v>34.14798633099963</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-08T22:53:51.746637</t>
+          <t>2025-07-08T01:02:29.106026</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -9277,13 +10337,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.760863604999031</v>
+        <v>6.409103714000139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-08T22:54:51.120320</t>
+          <t>2025-07-08T01:03:33.292389</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9292,11 +10352,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.05658748399946</v>
+        <v>11.68863152300037</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-09T00:47:43.737777</t>
+          <t>2025-07-08T01:42:18.638857</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9305,14 +10365,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>32.11041911900003</v>
+        <v>17.54787981000027</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-08T22:54:42.577184</t>
+          <t>2025-07-08T01:03:29.213538</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -9321,13 +10381,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>7.368505602000369</v>
+        <v>5.839507097000023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:30.098936</t>
+          <t>2025-07-08T01:03:57.666254</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9336,27 +10396,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.9554138229978</v>
+        <v>14.40383244499981</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-09T00:47:43.737777</t>
+          <t>2025-07-08T01:53:30.787242</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 32)</t>
+          <t>Individual Retrieval (ID: 16)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15.56475010399998</v>
+        <v>28.52066058000037</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:20.901999</t>
+          <t>2025-07-08T01:03:50.119492</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -9365,13 +10425,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.23434560899841</v>
+        <v>6.741964579000069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-08T23:13:04.044103</t>
+          <t>2025-07-08T01:12:44.519511</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9380,27 +10440,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.254658166999434</v>
+        <v>10.13480710800013</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-09T00:47:43.737777</t>
+          <t>2025-07-08T01:56:40.405934</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 36)</t>
+          <t>Individual Retrieval (ID: 8)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>35.30523037399996</v>
+        <v>23.78321171100015</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:51.535369</t>
+          <t>2025-07-08T01:10:12.079667</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -9409,13 +10469,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>9.225246816000436</v>
+        <v>6.995707544000197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-08T23:13:31.569603</t>
+          <t>2025-07-08T01:28:12.554963</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9424,27 +10484,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.97762150299968</v>
+        <v>10.20706017500015</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-09T00:47:43.737777</t>
+          <t>2025-07-08T01:56:40.405934</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 3)</t>
+          <t>Individual Retrieval (ID: 11)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25.04282548599997</v>
+        <v>17.84654405199944</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-08T23:13:02.833150</t>
+          <t>2025-07-08T01:12:42.285948</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -9453,13 +10513,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7.862596336999559</v>
+        <v>7.710710501999984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-08T23:14:18.808490</t>
+          <t>2025-07-08T01:28:40.104542</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9468,27 +10528,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.23317721300191</v>
+        <v>9.774676502999682</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-09T00:47:43.737777</t>
+          <t>2025-07-08T01:57:40.153366</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 24)</t>
+          <t>Individual Retrieval (ID: 6)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>22.31566797599999</v>
+        <v>16.68674274000023</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-08T23:13:27.038784</t>
+          <t>2025-07-08T01:13:06.873637</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -9497,13 +10557,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.690923350000958</v>
+        <v>6.946668349999982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:17.698058</t>
+          <t>2025-07-08T01:29:09.959701</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9512,27 +10572,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13.04225058299926</v>
+        <v>12.87488474499969</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-09T00:50:18.044829</t>
+          <t>2025-07-08T01:58:17.390873</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 6)</t>
+          <t>Individual Retrieval (ID: 1)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>24.246449095</v>
+        <v>23.69894297200062</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-08T23:14:15.137647</t>
+          <t>2025-07-08T01:28:12.260460</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -9541,13 +10601,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6.768257601997902</v>
+        <v>8.279387563000455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-08T23:17:26.707028</t>
+          <t>2025-07-08T01:29:41.503705</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9556,27 +10616,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.01534114300011</v>
+        <v>14.74499825000021</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-09T00:50:18.044829</t>
+          <t>2025-07-08T02:00:16.410345</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 1)</t>
+          <t>Individual Retrieval (ID: 5)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31.50091320000001</v>
+        <v>33.69723665699985</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:11.156932</t>
+          <t>2025-07-08T01:28:38.184976</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -9585,13 +10645,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>6.377986020997923</v>
+        <v>6.134766172000127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-08T23:18:04.202887</t>
+          <t>2025-07-08T01:30:44.827461</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9600,27 +10660,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.10294801599957</v>
+        <v>12.59164920900002</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-09T00:53:09.575278</t>
+          <t>2025-07-08T02:02:03.623368</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 5)</t>
+          <t>Individual Retrieval (ID: 14)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.51722777400005</v>
+        <v>25.70386194500043</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:49.823491</t>
+          <t>2025-07-08T01:29:07.677758</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -9629,13 +10689,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.915042188000371</v>
+        <v>8.776781970999764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-08T23:18:34.966062</t>
+          <t>2025-07-08T01:31:16.614471</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9644,27 +10704,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.75854314900062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 14)</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>20.30912766799997</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
+        <v>8.958330050999393</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-08T23:17:19.846311</t>
+          <t>2025-07-08T01:29:33.999219</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -9673,13 +10717,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.624801676000061</v>
+        <v>5.479258532000131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-08T23:19:56.528242</t>
+          <t>2025-07-08T01:32:23.889389</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9688,27 +10732,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.07485731100314</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 15)</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>22.10389929199994</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15</v>
+        <v>13.68260729600024</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-08T23:17:57.047889</t>
+          <t>2025-07-08T01:30:40.156086</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -9717,13 +10745,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>5.820372376998421</v>
+        <v>7.757680982000238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-08T23:20:40.389670</t>
+          <t>2025-07-08T01:32:56.199002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9732,27 +10760,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.86117539599945</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 23)</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>19.31567681599995</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23</v>
+        <v>15.58324941299998</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-08T23:18:27.555767</t>
+          <t>2025-07-08T01:31:14.459612</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -9761,13 +10773,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>5.817229492000479</v>
+        <v>6.695047440000053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-08T23:22:19.657973</t>
+          <t>2025-07-08T01:33:24.516411</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9776,27 +10788,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.68264764600099</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 16)</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>31.2704850670001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16</v>
+        <v>11.48682696699962</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-08T23:19:49.128990</t>
+          <t>2025-07-08T01:31:55.562218</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -9805,13 +10801,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>6.013141718001862</v>
+        <v>9.349939626000378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-08T23:22:49.749577</t>
+          <t>2025-07-08T01:43:22.222557</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9820,27 +10816,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.223377932998119</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:54:14.897822</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 28)</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>25.20978284599994</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28</v>
+        <v>9.837152260000039</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-08T23:20:33.492396</t>
+          <t>2025-07-08T01:32:20.169022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -9849,42 +10829,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>8.454442474998359</v>
+        <v>6.427758468999855</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:23:36.994186</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>11.0098028809989</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:54:14.897822</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 34)</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>19.79026448000002</v>
-      </c>
-      <c r="G19" t="n">
-        <v>34</v>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-08T23:22:12.818347</t>
+          <t>2025-07-08T01:32:48.750606</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -9893,42 +10844,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5.707087474998843</v>
+        <v>6.556630342999597</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:24:06.914321</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>15.22750738899776</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 25)</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>34.69862186099999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25</v>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-08T23:22:46.707645</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -9937,42 +10859,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>6.082853595002234</v>
+        <v>9.348954451000282</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:24:43.190367</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>11.83240232900062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 31)</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>16.14772895400006</v>
-      </c>
-      <c r="G21" t="n">
-        <v>31</v>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-08T23:23:33.814680</t>
+          <t>2025-07-08T01:43:20.830363</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -9981,333 +10874,162 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>5.842845523999131</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:13.359043</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>12.74872948400298</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 26)</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>37.98819528800004</v>
-      </c>
-      <c r="G22" t="n">
-        <v>26</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:23:59.361414</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>5.987875787999656</v>
-      </c>
-    </row>
+        <v>6.77231205300086</v>
+      </c>
+    </row>
+    <row r="22"/>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:54.201304</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>19.02213804799976</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 33)</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>21.90726079299998</v>
-      </c>
-      <c r="G23" t="n">
-        <v>33</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:24:38.087652</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>6.598010349000106</v>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:26:34.001276</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>18.50043175099927</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 11)</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>25.71080897299998</v>
-      </c>
-      <c r="G24" t="n">
-        <v>11</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:10.315612</t>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>6.282159440001124</v>
+          <t>7.35</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:27:43.782502</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>13.30749840700082</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 21)</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>19.09752114800017</v>
-      </c>
-      <c r="G25" t="n">
-        <v>21</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:44.753682</t>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>6.072943404997204</v>
+          <t>5.48</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:28:20.154728</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>17.94780154299951</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 22)</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>20.13124113599997</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:26:25.510004</t>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>6.554649730001984</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:29:03.014644</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>20.23042048500065</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 7)</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>30.89984609900011</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:27:36.633534</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>6.049241011998674</v>
-      </c>
-    </row>
+          <t>11.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:29:36.018999</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>14.15438628999982</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:28:11.995146</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>6.303271404998668</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T23:30:07.567358</t>
+          <t>2025-07-08T01:13:10.554253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>14.06064980800147</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:28:50.105511</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>5.668358299000829</v>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T23:30:37.525788</t>
+          <t>2025-07-08T01:13:10.572025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -10315,83 +11037,50 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>11.65894129399749</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:29:29.601333</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>6.183931113999279</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T23:31:04.920495</t>
+          <t>2025-07-08T01:21:37.898638</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>12.2581570830007</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:30:02.376937</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>7.12968110699876</v>
+          <t>Vision Init Service</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T23:31:51.259423</t>
+          <t>2025-07-08T01:32:08.791967</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>15.94989597600215</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:30:32.122926</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>6.134777331000805</v>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T23:32:31.617178</t>
+          <t>2025-07-08T01:32:08.809127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -10399,55 +11088,33 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>16.91584824900201</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:31:00.989213</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>6.479192823000631</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 277 mm</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T23:35:54.661968</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>16.36474248000013</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:31:45.450156</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>6.534823109999707</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-08T23:36:37.000132</t>
+          <t>2025-07-08T01:40:48.987836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -10455,27 +11122,16 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>21.52797504000046</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:32:27.670087</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>9.558821201000683</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 403 mm</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-08T23:37:15.702678</t>
+          <t>2025-07-08T01:40:56.515946</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -10483,1041 +11139,385 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>17.71235919900209</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:33:15.600967</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>9.023647314999835</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:52.226616</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>14.37758300999849</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:35:46.943498</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>7.161070899001061</v>
-      </c>
-    </row>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 404 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="37"/>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:11:00.635840</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>11.97499336200053</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:36:28.548819</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>6.500482330997329</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:07.896621</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>6.344792412997776</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>8.96-10.23</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:46.502192</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>7.236187489997974</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10.23-11.51</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:42:38.486038</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>6.856922298000427</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>11.51-12.78</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:11:00.554425</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>10.39790224299941</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12.78-14.06</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:17:08.391051</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>7.020958000000974</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14.06-15.33</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:22:12.580287</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1523438369986252</v>
-      </c>
-    </row>
-    <row r="45"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15.33-16.61</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16.61-17.88</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="46">
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17.88-19.16</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>19.16-20.43</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>37.99</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>10.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="50"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20.43-21.71</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>16.46-18.23</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.043192</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
+          <t>18.23-20.00</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.065961</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
+          <t>20.00-21.77</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.150607</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 11</t>
-        </is>
+          <t>21.77-23.53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.174089</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
+          <t>23.53-25.30</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-08T23:26:59.288288</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Package height is too high. Measured 204 mm</t>
-        </is>
+          <t>25.30-27.07</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-08T23:27:06.637060</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 414 mm</t>
-        </is>
+          <t>27.07-28.84</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.228905</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 37</t>
-        </is>
+          <t>28.84-30.61</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.248970</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
+          <t>30.61-32.38</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T00:16:43.556644</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 410 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:17:16.528185</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 38</t>
-        </is>
-      </c>
-    </row>
+          <t>32.38-34.15</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61"/>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:17:16.552050</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T00:22:12.580287</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>No contours found</t>
-        </is>
+          <t>5.48-6.07</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.132885</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
+          <t>6.07-6.65</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.138871</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
+          <t>6.65-7.24</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.145963</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 8</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
+          <t>7.24-7.83</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.572326</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
+          <t>7.83-8.42</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.579425</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 9</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
+          <t>8.42-9.00</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.729963</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
+          <t>9.00-9.59</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.741982</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 2</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
+          <t>9.59-10.18</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-09T01:14:06.484565</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
+          <t>10.18-10.76</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-09T01:14:06.501028</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 18</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
+          <t>10.76-11.35</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73"/>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Time Bins (s)</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Packages Retrieved</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9.22-10.61</t>
+          <t>2025-07-08 01:00</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.61-11.99</t>
+          <t>2025-07-08 02:00</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>11.99-13.37</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>13.37-14.76</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>14.76-16.14</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>16.14-17.52</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>17.52-18.91</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>18.91-20.29</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20.29-21.67</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>21.67-23.06</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85"/>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>15.56-17.81</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>17.81-20.05</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>20.05-22.29</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>22.29-24.53</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>24.53-26.78</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>26.78-29.02</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>29.02-31.26</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>31.26-33.50</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>33.50-35.75</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>35.75-37.99</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97"/>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0.15-1.18</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1.18-2.20</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2.20-3.23</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>3.23-4.25</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>4.25-5.28</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>5.28-6.30</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>6.30-7.32</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>7.32-8.35</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>8.35-9.37</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>9.37-10.40</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109"/>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2025-07-08 23:00</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-07-09 00:00</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-09 01:00</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114"/>
+    <row r="77"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -351,7 +351,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B110</f>
+              <f>'Day 2'!B133</f>
             </strRef>
           </tx>
           <spPr>
@@ -361,12 +361,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$111:$A$113</f>
+              <f>'Day 2'!$A$134:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$111:$B$113</f>
+              <f>'Day 2'!$B$134:$B$136</f>
             </numRef>
           </val>
         </ser>
@@ -445,7 +445,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B97</f>
+              <f>'Day 3'!B38</f>
             </strRef>
           </tx>
           <spPr>
@@ -455,12 +455,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$98:$A$107</f>
+              <f>'Day 3'!$A$39:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$98:$B$107</f>
+              <f>'Day 3'!$B$39:$B$48</f>
             </numRef>
           </val>
         </ser>
@@ -509,7 +509,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B109</f>
+              <f>'Day 3'!B50</f>
             </strRef>
           </tx>
           <spPr>
@@ -519,12 +519,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$110:$A$119</f>
+              <f>'Day 3'!$A$51:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$110:$B$119</f>
+              <f>'Day 3'!$B$51:$B$60</f>
             </numRef>
           </val>
         </ser>
@@ -573,7 +573,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B121</f>
+              <f>'Day 3'!B62</f>
             </strRef>
           </tx>
           <spPr>
@@ -583,12 +583,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$122:$A$131</f>
+              <f>'Day 3'!$A$63:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$122:$B$131</f>
+              <f>'Day 3'!$B$63:$B$72</f>
             </numRef>
           </val>
         </ser>
@@ -652,7 +652,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B133</f>
+              <f>'Day 3'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -662,12 +662,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$134:$A$136</f>
+              <f>'Day 3'!$A$75:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$134:$B$136</f>
+              <f>'Day 3'!$B$75:$B$76</f>
             </numRef>
           </val>
         </ser>
@@ -746,7 +746,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B38</f>
+              <f>'Day 4'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -756,12 +756,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$39:$A$48</f>
+              <f>'Day 4'!$A$75:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$39:$B$48</f>
+              <f>'Day 4'!$B$75:$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -810,7 +810,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B50</f>
+              <f>'Day 4'!B86</f>
             </strRef>
           </tx>
           <spPr>
@@ -820,12 +820,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$51:$A$60</f>
+              <f>'Day 4'!$A$87:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$51:$B$60</f>
+              <f>'Day 4'!$B$87:$B$96</f>
             </numRef>
           </val>
         </ser>
@@ -874,7 +874,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B62</f>
+              <f>'Day 4'!B98</f>
             </strRef>
           </tx>
           <spPr>
@@ -884,12 +884,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$63:$A$72</f>
+              <f>'Day 4'!$A$99:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$63:$B$72</f>
+              <f>'Day 4'!$B$99:$B$108</f>
             </numRef>
           </val>
         </ser>
@@ -953,7 +953,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B74</f>
+              <f>'Day 4'!B110</f>
             </strRef>
           </tx>
           <spPr>
@@ -963,12 +963,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$75:$A$76</f>
+              <f>'Day 4'!$A$111:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$75:$B$76</f>
+              <f>'Day 4'!$B$111:$B$113</f>
             </numRef>
           </val>
         </ser>
@@ -1524,7 +1524,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B74</f>
+              <f>'Day 2'!B97</f>
             </strRef>
           </tx>
           <spPr>
@@ -1534,12 +1534,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$75:$A$84</f>
+              <f>'Day 2'!$A$98:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$75:$B$84</f>
+              <f>'Day 2'!$B$98:$B$107</f>
             </numRef>
           </val>
         </ser>
@@ -1588,7 +1588,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B86</f>
+              <f>'Day 2'!B109</f>
             </strRef>
           </tx>
           <spPr>
@@ -1598,12 +1598,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$87:$A$96</f>
+              <f>'Day 2'!$A$110:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$87:$B$96</f>
+              <f>'Day 2'!$B$110:$B$119</f>
             </numRef>
           </val>
         </ser>
@@ -1652,7 +1652,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B98</f>
+              <f>'Day 2'!B121</f>
             </strRef>
           </tx>
           <spPr>
@@ -1662,12 +1662,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$99:$A$108</f>
+              <f>'Day 2'!$A$122:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$99:$B$108</f>
+              <f>'Day 2'!$B$122:$B$131</f>
             </numRef>
           </val>
         </ser>
@@ -1852,99 +1852,6 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>85</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>97</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>109</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
       <row>96</row>
       <rowOff>0</rowOff>
     </from>
@@ -2032,7 +1939,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -2105,6 +2012,99 @@
       <col>4</col>
       <colOff>0</colOff>
       <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>97</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>109</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2538,41 +2538,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.04</v>
+        <v>15.56</v>
       </c>
       <c r="D3" t="n">
-        <v>25.15</v>
+        <v>26.73</v>
       </c>
       <c r="E3" t="n">
-        <v>6.73</v>
+        <v>7.93</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>92.95999999999999</v>
+        <v>29.54</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8232046736111107</v>
+        <v>0.8224135058333335</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2797005152777778</v>
+        <v>0.981721233888889</v>
       </c>
     </row>
     <row r="4">
@@ -2581,41 +2581,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.56</v>
+        <v>13.16</v>
       </c>
       <c r="D4" t="n">
-        <v>26.73</v>
+        <v>24.47</v>
       </c>
       <c r="E4" t="n">
-        <v>7.93</v>
+        <v>7.35</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>29.54</v>
+        <v>31.28</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8224135058333335</v>
+        <v>0.7198232411111111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.981721233888889</v>
+        <v>0.3835713072222222</v>
       </c>
     </row>
     <row r="5">
@@ -2628,37 +2628,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13.16</v>
+        <v>15.04</v>
       </c>
       <c r="D5" t="n">
-        <v>24.47</v>
+        <v>25.15</v>
       </c>
       <c r="E5" t="n">
-        <v>7.35</v>
+        <v>6.73</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
+        <v>44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92.95999999999999</v>
+      </c>
+      <c r="K5" t="n">
         <v>21</v>
       </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.7198232411111111</v>
+        <v>0.8232046736111107</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3835713072222222</v>
+        <v>0.2797005152777778</v>
       </c>
     </row>
   </sheetData>
@@ -2739,37 +2739,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Package length is too long.</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Failed to pick and raise</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Package length is too long.</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
@@ -2816,41 +2816,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
-        </is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2859,38 +2856,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2902,22 +2890,34 @@
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
@@ -4748,2492 +4748,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Package ID</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:48:28.689791</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>9.739755708000303</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:50:08.726271</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 27)</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>24.89038071800314</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:48:26.002397</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>6.926302025996847</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:52:40.129724</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12.22106634699958</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:50:08.726271</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 19)</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>28.60336724799708</v>
-      </c>
-      <c r="G3" t="n">
-        <v>19</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:52:36.877685</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>7.405810242998996</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:53:14.619920</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14.76278409599763</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:44:22.546976</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 12)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>25.59200767200002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:53:08.503846</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>7.149856347001332</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:54:00.165943</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16.64273647500158</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:44:22.546976</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 35)</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>18.74283120600001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>35</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:53:51.746637</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>6.760863604999031</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:54:51.120320</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23.05658748399946</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:47:43.737777</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 4)</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>32.11041911900003</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:54:42.577184</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>7.368505602000369</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:30.098936</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>18.9554138229978</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:47:43.737777</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 32)</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>15.56475010399998</v>
-      </c>
-      <c r="G7" t="n">
-        <v>32</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:20.901999</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>6.23434560899841</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:13:04.044103</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9.254658166999434</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:47:43.737777</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 36)</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>35.30523037399996</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:51.535369</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>9.225246816000436</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:13:31.569603</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12.97762150299968</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:47:43.737777</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 3)</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>25.04282548599997</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:13:02.833150</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>7.862596336999559</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:14:18.808490</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>14.23317721300191</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:47:43.737777</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 24)</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>22.31566797599999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:13:27.038784</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>6.690923350000958</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:16:17.698058</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>13.04225058299926</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:50:18.044829</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 6)</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>24.246449095</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:14:15.137647</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>6.768257601997902</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:17:26.707028</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>19.01534114300011</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:50:18.044829</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 1)</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>31.50091320000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:16:11.156932</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>6.377986020997923</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:18:04.202887</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>13.10294801599957</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 5)</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>25.51722777400005</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:16:49.823491</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>7.915042188000371</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:18:34.966062</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>16.75854314900062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 14)</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>20.30912766799997</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:17:19.846311</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>6.624801676000061</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:19:56.528242</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>15.07485731100314</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 15)</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>22.10389929199994</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:17:57.047889</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>5.820372376998421</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:20:40.389670</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>18.86117539599945</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 23)</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>19.31567681599995</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:18:27.555767</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>5.817229492000479</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:22:19.657973</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>12.68264764600099</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:53:09.575278</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 16)</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>31.2704850670001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:19:49.128990</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>6.013141718001862</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:22:49.749577</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>9.223377932998119</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:54:14.897822</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 28)</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>25.20978284599994</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:20:33.492396</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>8.454442474998359</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:23:36.994186</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>11.0098028809989</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:54:14.897822</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 34)</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>19.79026448000002</v>
-      </c>
-      <c r="G19" t="n">
-        <v>34</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:22:12.818347</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>5.707087474998843</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:24:06.914321</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>15.22750738899776</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 25)</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>34.69862186099999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:22:46.707645</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>6.082853595002234</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:24:43.190367</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>11.83240232900062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 31)</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>16.14772895400006</v>
-      </c>
-      <c r="G21" t="n">
-        <v>31</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:23:33.814680</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>5.842845523999131</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:13.359043</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>12.74872948400298</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 26)</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>37.98819528800004</v>
-      </c>
-      <c r="G22" t="n">
-        <v>26</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:23:59.361414</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>5.987875787999656</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:54.201304</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>19.02213804799976</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:56:33.240542</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 33)</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>21.90726079299998</v>
-      </c>
-      <c r="G23" t="n">
-        <v>33</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:24:38.087652</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>6.598010349000106</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:26:34.001276</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>18.50043175099927</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 11)</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>25.71080897299998</v>
-      </c>
-      <c r="G24" t="n">
-        <v>11</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:10.315612</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>6.282159440001124</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:27:43.782502</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>13.30749840700082</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 21)</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>19.09752114800017</v>
-      </c>
-      <c r="G25" t="n">
-        <v>21</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:25:44.753682</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>6.072943404997204</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:28:20.154728</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>17.94780154299951</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 22)</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>20.13124113599997</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:26:25.510004</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>6.554649730001984</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:29:03.014644</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>20.23042048500065</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:01:09.468831</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 7)</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>30.89984609900011</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:27:36.633534</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>6.049241011998674</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:29:36.018999</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>14.15438628999982</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:28:11.995146</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>6.303271404998668</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:30:07.567358</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>14.06064980800147</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:28:50.105511</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>5.668358299000829</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:30:37.525788</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>11.65894129399749</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:29:29.601333</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>6.183931113999279</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:31:04.920495</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>12.2581570830007</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:30:02.376937</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>7.12968110699876</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:31:51.259423</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>15.94989597600215</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:30:32.122926</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>6.134777331000805</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:32:31.617178</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>16.91584824900201</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:31:00.989213</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>6.479192823000631</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:35:54.661968</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>16.36474248000013</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:31:45.450156</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>6.534823109999707</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:36:37.000132</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>21.52797504000046</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:32:27.670087</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>9.558821201000683</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:15.702678</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>17.71235919900209</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:33:15.600967</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>9.023647314999835</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:52.226616</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>14.37758300999849</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:35:46.943498</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>7.161070899001061</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:11:00.635840</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>11.97499336200053</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:36:28.548819</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>6.500482330997329</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:07.896621</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>6.344792412997776</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:37:46.502192</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>7.236187489997974</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:42:38.486038</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>6.856922298000427</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:11:00.554425</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>10.39790224299941</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:17:08.391051</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>7.020958000000974</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:22:12.580287</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1523438369986252</v>
-      </c>
-    </row>
-    <row r="45"/>
-    <row r="46">
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>37.99</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>10.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="50"/>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:53.043192</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:53.065961</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:16:59.150607</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:16:59.174089</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:26:59.288288</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Package height is too high. Measured 204 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:27:06.637060</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 414 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:42:46.228905</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 37</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-07-08T23:42:46.248970</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:16:43.556644</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 410 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:17:16.528185</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 38</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:17:16.552050</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:22:12.580287</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>No contours found</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:57:29.132885</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:57:29.138871</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:57:29.145963</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 8</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:58:22.572326</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:58:22.579425</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 9</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:04:06.729963</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:04:06.741982</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 2</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:14:06.484565</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:14:06.501028</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 18</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="73"/>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>9.22-10.61</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>10.61-11.99</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>11.99-13.37</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>13.37-14.76</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>14.76-16.14</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>16.14-17.52</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>17.52-18.91</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>18.91-20.29</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20.29-21.67</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>21.67-23.06</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85"/>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>15.56-17.81</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>17.81-20.05</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>20.05-22.29</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>22.29-24.53</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>24.53-26.78</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>26.78-29.02</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>29.02-31.26</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>31.26-33.50</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>33.50-35.75</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>35.75-37.99</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97"/>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0.15-1.18</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1.18-2.20</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2.20-3.23</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>3.23-4.25</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>4.25-5.28</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>5.28-6.30</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>6.30-7.32</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>7.32-8.35</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>8.35-9.37</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>9.37-10.40</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109"/>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2025-07-08 23:00</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-07-09 00:00</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-09 01:00</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10098,7 +7612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10113,52 +7627,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -10879,24 +8393,24 @@
     </row>
     <row r="22"/>
     <row r="23">
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -10906,7 +8420,7 @@
           <t>13.16</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -10916,7 +8430,7 @@
           <t>24.47</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -10928,7 +8442,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -10938,7 +8452,7 @@
           <t>8.96</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -10948,7 +8462,7 @@
           <t>16.46</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -10960,7 +8474,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -10970,7 +8484,7 @@
           <t>21.71</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -10980,7 +8494,7 @@
           <t>34.15</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -10993,17 +8507,17 @@
     </row>
     <row r="27"/>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -11147,12 +8661,12 @@
     </row>
     <row r="37"/>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -11260,12 +8774,12 @@
     </row>
     <row r="49"/>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -11373,12 +8887,12 @@
     </row>
     <row r="61"/>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -11486,12 +9000,12 @@
     </row>
     <row r="73"/>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -11522,4 +9036,2490 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:48:28.689791</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>9.739755708000303</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:50:08.726271</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 27)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>24.89038071800314</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:48:26.002397</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>6.926302025996847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:52:40.129724</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12.22106634699958</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:50:08.726271</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 19)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>28.60336724799708</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:52:36.877685</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7.405810242998996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:53:14.619920</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14.76278409599763</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:44:22.546976</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25.59200767200002</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:53:08.503846</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>7.149856347001332</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:54:00.165943</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16.64273647500158</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:44:22.546976</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 35)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>18.74283120600001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:53:51.746637</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>6.760863604999031</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:54:51.120320</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23.05658748399946</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 4)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>32.11041911900003</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:54:42.577184</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>7.368505602000369</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:30.098936</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18.9554138229978</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 32)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>15.56475010399998</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:20.901999</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>6.23434560899841</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:04.044103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9.254658166999434</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 36)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>35.30523037399996</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:51.535369</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>9.225246816000436</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:31.569603</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12.97762150299968</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>25.04282548599997</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:02.833150</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>7.862596336999559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:14:18.808490</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14.23317721300191</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:47:43.737777</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>22.31566797599999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:13:27.038784</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>6.690923350000958</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:17.698058</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13.04225058299926</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:50:18.044829</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>24.246449095</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:14:15.137647</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6.768257601997902</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:17:26.707028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>19.01534114300011</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:50:18.044829</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>31.50091320000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:11.156932</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6.377986020997923</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:18:04.202887</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13.10294801599957</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>25.51722777400005</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:49.823491</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7.915042188000371</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:18:34.966062</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16.75854314900062</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>20.30912766799997</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:17:19.846311</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6.624801676000061</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:19:56.528242</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15.07485731100314</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>22.10389929199994</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:17:57.047889</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5.820372376998421</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:20:40.389670</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>18.86117539599945</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>19.31567681599995</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:18:27.555767</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>5.817229492000479</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:19.657973</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12.68264764600099</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:53:09.575278</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>31.2704850670001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:19:49.128990</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>6.013141718001862</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:49.749577</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9.223377932998119</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:54:14.897822</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 28)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>25.20978284599994</v>
+      </c>
+      <c r="G18" t="n">
+        <v>28</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:20:33.492396</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>8.454442474998359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:36.994186</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11.0098028809989</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:54:14.897822</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 34)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>19.79026448000002</v>
+      </c>
+      <c r="G19" t="n">
+        <v>34</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:12.818347</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>5.707087474998843</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:06.914321</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15.22750738899776</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>34.69862186099999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:22:46.707645</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6.082853595002234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:43.190367</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11.83240232900062</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 31)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>16.14772895400006</v>
+      </c>
+      <c r="G21" t="n">
+        <v>31</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:33.814680</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>5.842845523999131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:13.359043</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12.74872948400298</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>37.98819528800004</v>
+      </c>
+      <c r="G22" t="n">
+        <v>26</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:23:59.361414</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>5.987875787999656</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:54.201304</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>19.02213804799976</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:56:33.240542</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 33)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>21.90726079299998</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:24:38.087652</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6.598010349000106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:34.001276</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>18.50043175099927</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>25.71080897299998</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:10.315612</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.282159440001124</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:43.782502</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13.30749840700082</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>19.09752114800017</v>
+      </c>
+      <c r="G25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:25:44.753682</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>6.072943404997204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:20.154728</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>17.94780154299951</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 22)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>20.13124113599997</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:25.510004</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6.554649730001984</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:03.014644</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>20.23042048500065</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:01:09.468831</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>30.89984609900011</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:36.633534</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6.049241011998674</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:36.018999</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.15438628999982</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:11.995146</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6.303271404998668</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:07.567358</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>14.06064980800147</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:28:50.105511</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>5.668358299000829</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:37.525788</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>11.65894129399749</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:29:29.601333</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6.183931113999279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:04.920495</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12.2581570830007</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:02.376937</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>7.12968110699876</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:51.259423</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15.94989597600215</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:30:32.122926</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6.134777331000805</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:32:31.617178</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>16.91584824900201</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:00.989213</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6.479192823000631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:35:54.661968</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>16.36474248000013</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:31:45.450156</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6.534823109999707</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:36:37.000132</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>21.52797504000046</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:32:27.670087</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>9.558821201000683</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:15.702678</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>17.71235919900209</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:33:15.600967</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>9.023647314999835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:52.226616</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>14.37758300999849</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:35:46.943498</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.161070899001061</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:11:00.635840</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>11.97499336200053</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:36:28.548819</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>6.500482330997329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:07.896621</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>6.344792412997776</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:37:46.502192</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7.236187489997974</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:38.486038</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>6.856922298000427</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:11:00.554425</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>10.39790224299941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:08.391051</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>7.020958000000974</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1523438369986252</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:53.043192</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:53.065961</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:59.150607</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:16:59.174089</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:26:59.288288</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 204 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:27:06.637060</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 414 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:46.228905</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-08T23:42:46.248970</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:16:43.556644</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 410 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:16.528185</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:17:16.552050</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No contours found</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:57:29.132885</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:57:29.138871</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:57:29.145963</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:58:22.572326</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:58:22.579425</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 9</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:04:06.729963</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:04:06.741982</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:14:06.484565</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-09T01:14:06.501028</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 18</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>9.22-10.61</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10.61-11.99</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>11.99-13.37</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>13.37-14.76</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>14.76-16.14</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.14-17.52</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17.52-18.91</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18.91-20.29</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20.29-21.67</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21.67-23.06</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15.56-17.81</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17.81-20.05</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20.05-22.29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>22.29-24.53</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>24.53-26.78</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>26.78-29.02</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>29.02-31.26</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>31.26-33.50</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>33.50-35.75</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>35.75-37.99</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0.15-1.18</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1.18-2.20</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2.20-3.23</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3.23-4.25</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4.25-5.28</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5.28-6.30</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6.30-7.32</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7.32-8.35</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.35-9.37</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.37-10.40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-07-08 23:00</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-09 01:00</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Day 2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Day 3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Day 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Day 5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -186,12 +187,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$5</f>
+              <f>'Master Summary'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$5</f>
+              <f>'Master Summary'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -218,12 +219,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$5</f>
+              <f>'Master Summary'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$5</f>
+              <f>'Master Summary'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -250,12 +251,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$5</f>
+              <f>'Master Summary'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$5</f>
+              <f>'Master Summary'!$E$2:$E$6</f>
             </numRef>
           </val>
         </ser>
@@ -1035,6 +1036,70 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 5'!B75</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 5'!$A$76:$A$85</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 5'!$B$76:$B$85</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1079,12 +1144,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$5</f>
+              <f>'Master Summary'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$5</f>
+              <f>'Master Summary'!$J$2:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -1116,7 +1181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$5</f>
+              <f>'Master Summary'!$K$2:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -1205,6 +1270,243 @@
     <legend>
       <legendPos val="r"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 5'!B87</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 5'!$A$88:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 5'!$B$88:$B$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 5'!B99</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 5'!$A$100:$A$109</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 5'!$B$100:$B$109</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 5'!B111</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 5'!$A$112:$A$114</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 5'!$B$112:$B$114</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1710,7 +2012,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1732,7 +2034,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2125,6 +2427,99 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>86</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2414,7 +2809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,6 +3054,49 @@
       </c>
       <c r="M5" t="n">
         <v>0.2797005152777778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7140406888888891</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7758506075000001</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2772,6 +3210,16 @@
           <t>Failed to pick and raise</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to find packages with IDs: [X]</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2922,6 +3370,49 @@
       </c>
       <c r="R5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9053,52 +9544,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -10648,24 +11139,24 @@
     </row>
     <row r="45"/>
     <row r="46">
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -10675,7 +11166,7 @@
           <t>15.04</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -10685,7 +11176,7 @@
           <t>25.15</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -10697,7 +11188,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -10707,7 +11198,7 @@
           <t>9.22</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -10717,7 +11208,7 @@
           <t>15.56</t>
         </is>
       </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -10729,7 +11220,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -10739,7 +11230,7 @@
           <t>23.06</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -10749,7 +11240,7 @@
           <t>37.99</t>
         </is>
       </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -10762,17 +11253,17 @@
     </row>
     <row r="50"/>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -11137,12 +11628,12 @@
     </row>
     <row r="73"/>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -11250,12 +11741,12 @@
     </row>
     <row r="85"/>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B86" s="1" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -11363,12 +11854,12 @@
     </row>
     <row r="97"/>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B98" s="1" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -11476,12 +11967,12 @@
     </row>
     <row r="109"/>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B110" s="1" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -11522,4 +12013,2497 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:00:23.881885</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>10.31653603899997</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:52:03.631473</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>27.98937887700004</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:00:23.121547</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>9.405105400000025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:22.644883</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12.844262254</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:52:03.631473</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>18.08887379199996</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:18.072921</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>8.157038041999954</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:47.470773</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9.834047141000042</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:55:44.296723</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23.54727898700003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:47.037100</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>9.247409285999993</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:03:06.839028</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12.01649419600005</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:58:08.734588</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>32.01135078800053</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:03:03.638161</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>6.897099805999915</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:03:44.498745</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15.33017479699993</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:58:08.734588</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>32.77284770299957</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:03:37.617454</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>6.614939216000039</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:04:35.903116</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14.92194235099998</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:59:10.513957</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>27.11092348599959</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:04:28.762056</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>6.161488025999915</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:05:51.305490</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14.80966519399999</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-09T18:00:12.422584</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>23.47054978399956</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:05:45.443970</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>7.119074510999781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:06:51.824195</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14.28557416100011</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:03:35.720809</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 4)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>29.09976904599989</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:06:45.293099</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>6.159382433000019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:07:31.314849</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15.48240047699983</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:07:28.007002</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>24.51250604400047</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:07:24.072217</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>6.417692975000136</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:27:06.553309</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20.73392708099982</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:12:56.448087</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>24.95451355200021</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:08:06.371557</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1080534509999325</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:30:32.672788</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>13.12091660999977</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:12:56.448087</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>30.02236789700055</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:26:59.647686</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6.451890132000244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:31:07.543978</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16.05095809200066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:14:37.093266</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 19)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>24.42882732700036</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:30:30.101595</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>8.816499478999503</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:31:46.729156</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>17.94641303800017</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:14:37.093266</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>36.19164207799986</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:31:01.738214</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>8.540726980000727</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:32:27.537991</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20.56321398599994</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:14:37.093266</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>25.41339611600051</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:31:37.819749</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>7.299677785000313</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:33:18.637330</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>25.7929218700001</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:18:09.189021</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 17)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>23.76677668100001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:32:20.341560</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>11.75148576600077</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:33:55.321304</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16.62895203100015</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:20:06.181633</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>31.09475319400008</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:33:07.793293</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>7.708521808000114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:34:33.378316</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>16.69303597800081</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:20:06.181633</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>22.24986878300024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:33:49.288918</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>9.006529381000291</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:35:11.320238</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>14.20121001000007</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:22:23.400353</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>31.73017048200018</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:34:30.067643</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>11.63869443600015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:35:36.659589</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10.04445122899961</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:22:23.400353</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>27.51738054499947</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:35:05.386697</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>8.106902147000255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:36:05.824446</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10.70958015799988</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:22:23.400353</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>17.82745720999992</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:35:35.226695</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>8.520435885000552</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:36:31.723505</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10.81042264499956</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:26:44.935612</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>26.06856092599992</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:36:07.336123</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>12.07209446199977</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:37:03.480749</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>15.64828218299954</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:28:01.722603</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>23.45742417600013</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:36:29.537481</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>8.480712200000198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:37:41.568775</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19.93703968200043</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:29:56.057016</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 10)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>30.42259148599987</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:36:57.813144</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.521772070000225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:38:38.847701</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>15.09483054300017</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:31:50.204802</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>27.66220764100035</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:37:32.893677</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>9.810703275999913</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:39:06.680216</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16.08665306400053</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:32:35.149130</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>26.00436577399887</v>
+      </c>
+      <c r="G26" t="n">
+        <v>21</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:38:33.987930</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>8.629125122000005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:41:01.983415</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>17.74713734099987</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:33:48.306727</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>28.95819014299923</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:38:59.265073</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6.954240297000069</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:41:59.809814</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15.86082442799943</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:38:27.284214</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 20)</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>28.07570936999946</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:39:29.977912</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>7.272197137000148</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:42:38.312829</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18.52679474199977</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:41:59.991885</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>18.21678022199922</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:40:17.407669</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>6.873431026000617</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:43:14.038222</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>16.91407942499973</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:40:55.082577</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>7.356497611000123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:43:48.315982</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14.85157977299968</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:41:52.569669</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>6.921981114000118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:45:06.857992</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15.41171263100023</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:42:31.549409</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>8.263683973000298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:45:47.677996</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>16.40907521200006</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:43:08.035381</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>9.204706790000273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:46:40.547844</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>21.12880615800077</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:43:40.411913</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6.803173390999291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:45:03.272091</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>10.16644128699954</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:45:40.087592</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>7.225754842000242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:46:28.717921</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.40263581399995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:27.405597</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>10.9151503310004</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:48.251831</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>7.771012766999775</v>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:47.037100</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:04:12.589235</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 438 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:05:01.688080</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 411 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:08:06.371557</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No contours found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:45:36.009750</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Failed to find packages with IDs: [10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-09T18:02:26.276053</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-09T18:02:26.277270</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-09T18:02:26.285881</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-09T18:03:36.485227</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-09T18:03:36.491422</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:36:07.336123</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:37:32.893677</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:39:40.083563</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 192 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:40:28.663328</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:40:28.673805</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 285 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:52:36.900737</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 215 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:32.092396</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:32.103587</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:56.326403</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:56.350654</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:14:57.673519</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed to find packages with IDs: [9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:36:10.061029</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:36:10.068756</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:36:10.076362</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 22</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:41:01.897946</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:41:01.900418</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:41:01.993078</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 18</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>9.83-11.43</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>11.43-13.03</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>13.03-14.62</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>14.62-16.22</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.22-17.81</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17.81-19.41</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>19.41-21.01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>21.01-22.60</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>22.60-24.20</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>24.20-25.79</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17.83-19.66</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>19.66-21.50</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>21.50-23.34</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>23.34-25.17</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>25.17-27.01</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>27.01-28.85</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>28.85-30.68</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>30.68-32.52</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>32.52-34.36</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>34.36-36.19</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98"/>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0.11-1.30</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1.30-2.50</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2.50-3.70</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3.70-4.89</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4.89-6.09</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6.09-7.29</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7.29-8.48</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.48-9.68</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.68-10.88</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10.88-12.07</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-09 17:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-09 18:00</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-07-09 21:00</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -3111,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3132,92 +3132,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high.</t>
+          <t>Uncategorized Error</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Failed to extract address (Network Error)</t>
+          <t>Vision: Address Extraction Failed</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>No contour(s) found</t>
+          <t>Vision: Sag Height Not Found</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sag height was not found.</t>
+          <t>Gripper: Vacuum Failure</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Failed to extract address (Server Error)</t>
+          <t>Vision: Package Dimension Error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID X</t>
+          <t>Vision: No Contours Found</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Motion: Waypoint Execution Failed</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Package height is too high.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Package length is too long.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to find packages with IDs: [X]</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
+          <t>Vision: Package Not Found</t>
         </is>
       </c>
     </row>
@@ -3231,30 +3186,18 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
       <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,33 +3211,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
       <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3308,24 +3239,18 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
+      <c r="G4" t="n">
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,37 +3263,22 @@
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,37 +3292,28 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -3111,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3142,37 +3142,42 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Vision: Sag Height Not Found</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Gripper: Vacuum Failure</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Vision: Package Dimension Error</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: No Contours Found</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Motion: Waypoint Execution Failed</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Motion: Pick/Place Execution Failed</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Vision: Package Not Found</t>
+          <t>Unknown: No Error Message</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
         </is>
       </c>
     </row>
@@ -3186,18 +3191,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3211,22 +3222,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
+      <c r="J3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3239,18 +3253,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,23 +3280,26 @@
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3292,28 +3312,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
       </c>
       <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -328,6 +328,198 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 3'!B37</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 3'!$A$38:$A$47</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 3'!$B$38:$B$47</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 3'!B49</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 3'!$A$50:$A$59</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 3'!$B$50:$B$59</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 3'!B61</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 3'!$A$62:$A$71</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 3'!$B$62:$B$71</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
     <title>
       <tx>
         <rich>
@@ -352,7 +544,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B133</f>
+              <f>'Day 3'!B73</f>
             </strRef>
           </tx>
           <spPr>
@@ -362,12 +554,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$134:$A$136</f>
+              <f>'Day 3'!$A$74:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$134:$B$136</f>
+              <f>'Day 3'!$B$74:$B$75</f>
             </numRef>
           </val>
         </ser>
@@ -434,7 +626,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -446,7 +638,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B38</f>
+              <f>'Day 4'!B73</f>
             </strRef>
           </tx>
           <spPr>
@@ -456,12 +648,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$39:$A$48</f>
+              <f>'Day 4'!$A$74:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$39:$B$48</f>
+              <f>'Day 4'!$B$74:$B$83</f>
             </numRef>
           </val>
         </ser>
@@ -498,7 +690,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -510,7 +702,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B50</f>
+              <f>'Day 4'!B85</f>
             </strRef>
           </tx>
           <spPr>
@@ -520,12 +712,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$51:$A$60</f>
+              <f>'Day 4'!$A$86:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$51:$B$60</f>
+              <f>'Day 4'!$B$86:$B$95</f>
             </numRef>
           </val>
         </ser>
@@ -562,7 +754,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -574,7 +766,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B62</f>
+              <f>'Day 4'!B97</f>
             </strRef>
           </tx>
           <spPr>
@@ -584,12 +776,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$63:$A$72</f>
+              <f>'Day 4'!$A$98:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$63:$B$72</f>
+              <f>'Day 4'!$B$98:$B$107</f>
             </numRef>
           </val>
         </ser>
@@ -626,7 +818,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -653,7 +845,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B74</f>
+              <f>'Day 4'!B109</f>
             </strRef>
           </tx>
           <spPr>
@@ -663,12 +855,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$75:$A$76</f>
+              <f>'Day 4'!$A$110:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$75:$B$76</f>
+              <f>'Day 4'!$B$110:$B$112</f>
             </numRef>
           </val>
         </ser>
@@ -735,7 +927,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -747,7 +939,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B74</f>
+              <f>'Day 5'!B71</f>
             </strRef>
           </tx>
           <spPr>
@@ -757,12 +949,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$75:$A$84</f>
+              <f>'Day 5'!$A$72:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$75:$B$84</f>
+              <f>'Day 5'!$B$72:$B$81</f>
             </numRef>
           </val>
         </ser>
@@ -799,243 +991,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 4'!B86</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 4'!$A$87:$A$96</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 4'!$B$87:$B$96</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 4'!B98</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 4'!$A$99:$A$108</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 4'!$B$99:$B$108</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hourly Package Retrieval Throughput</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 4'!B110</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 4'!$A$111:$A$113</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 4'!$B$111:$B$113</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Hour of Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Packages Retrieved</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1048,7 +1003,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B75</f>
+              <f>'Day 5'!B83</f>
             </strRef>
           </tx>
           <spPr>
@@ -1058,12 +1013,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$76:$A$85</f>
+              <f>'Day 5'!$A$84:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$76:$B$85</f>
+              <f>'Day 5'!$B$84:$B$93</f>
             </numRef>
           </val>
         </ser>
@@ -1288,7 +1243,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B87</f>
+              <f>'Day 5'!B95</f>
             </strRef>
           </tx>
           <spPr>
@@ -1298,12 +1253,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$88:$A$97</f>
+              <f>'Day 5'!$A$96:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$88:$B$97</f>
+              <f>'Day 5'!$B$96:$B$105</f>
             </numRef>
           </val>
         </ser>
@@ -1343,70 +1298,6 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 5'!B99</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 5'!$A$100:$A$109</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 5'!$B$100:$B$109</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <title>
       <tx>
         <rich>
@@ -1431,7 +1322,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B111</f>
+              <f>'Day 5'!B107</f>
             </strRef>
           </tx>
           <spPr>
@@ -1441,12 +1332,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$112:$A$114</f>
+              <f>'Day 5'!$A$108:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$112:$B$114</f>
+              <f>'Day 5'!$B$108:$B$110</f>
             </numRef>
           </val>
         </ser>
@@ -1525,7 +1416,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B63</f>
+              <f>'Day 1'!B59</f>
             </strRef>
           </tx>
           <spPr>
@@ -1535,12 +1426,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$64:$A$73</f>
+              <f>'Day 1'!$A$60:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$64:$B$73</f>
+              <f>'Day 1'!$B$60:$B$69</f>
             </numRef>
           </val>
         </ser>
@@ -1589,7 +1480,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B75</f>
+              <f>'Day 1'!B71</f>
             </strRef>
           </tx>
           <spPr>
@@ -1599,12 +1490,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$76:$A$85</f>
+              <f>'Day 1'!$A$72:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$76:$B$85</f>
+              <f>'Day 1'!$B$72:$B$81</f>
             </numRef>
           </val>
         </ser>
@@ -1644,70 +1535,6 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 1'!B87</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 1'!$A$88:$A$97</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 1'!$B$88:$B$97</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <title>
       <tx>
         <rich>
@@ -1732,7 +1559,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B99</f>
+              <f>'Day 1'!B83</f>
             </strRef>
           </tx>
           <spPr>
@@ -1742,12 +1569,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$100</f>
+              <f>'Day 1'!$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$100</f>
+              <f>'Day 1'!$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -1814,6 +1641,70 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 2'!B94</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 2'!$A$95:$A$104</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 2'!$B$95:$B$104</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1826,7 +1717,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B97</f>
+              <f>'Day 2'!B106</f>
             </strRef>
           </tx>
           <spPr>
@@ -1836,12 +1727,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$98:$A$107</f>
+              <f>'Day 2'!$A$107:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$98:$B$107</f>
+              <f>'Day 2'!$B$107:$B$116</f>
             </numRef>
           </val>
         </ser>
@@ -1890,7 +1781,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B109</f>
+              <f>'Day 2'!B118</f>
             </strRef>
           </tx>
           <spPr>
@@ -1900,12 +1791,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$110:$A$119</f>
+              <f>'Day 2'!$A$119:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$110:$B$119</f>
+              <f>'Day 2'!$B$119:$B$128</f>
             </numRef>
           </val>
         </ser>
@@ -1945,6 +1836,21 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
     <plotArea>
       <barChart>
         <barDir val="col"/>
@@ -1954,7 +1860,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B121</f>
+              <f>'Day 2'!B130</f>
             </strRef>
           </tx>
           <spPr>
@@ -1964,12 +1870,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$122:$A$131</f>
+              <f>'Day 2'!$A$131:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$122:$B$131</f>
+              <f>'Day 2'!$B$131:$B$133</f>
             </numRef>
           </val>
         </ser>
@@ -1983,6 +1889,21 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -1995,6 +1916,21 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -2061,7 +1997,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>58</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2083,7 +2019,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>74</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2105,7 +2041,78 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>93</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>117</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2127,100 +2134,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>98</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>96</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>120</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>132</row>
+      <row>129</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2247,7 +2161,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2269,7 +2183,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>49</row>
+      <row>48</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2291,7 +2205,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>61</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2313,7 +2227,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>72</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2340,7 +2254,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>72</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2362,7 +2276,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>85</row>
+      <row>84</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2384,7 +2298,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>97</row>
+      <row>96</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2406,7 +2320,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>109</row>
+      <row>108</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2433,7 +2347,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>74</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2455,7 +2369,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>82</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2477,7 +2391,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>98</row>
+      <row>94</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2499,7 +2413,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>110</row>
+      <row>106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2900,7 +2814,7 @@
         <v>33.49</v>
       </c>
       <c r="E2" t="n">
-        <v>20.36</v>
+        <v/>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -2943,7 +2857,7 @@
         <v>26.73</v>
       </c>
       <c r="E3" t="n">
-        <v>7.93</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
@@ -2986,7 +2900,7 @@
         <v>24.47</v>
       </c>
       <c r="E4" t="n">
-        <v>7.35</v>
+        <v>7.24</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -3029,7 +2943,7 @@
         <v>25.15</v>
       </c>
       <c r="E5" t="n">
-        <v>6.73</v>
+        <v>6.88</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
@@ -3072,7 +2986,7 @@
         <v>26.52</v>
       </c>
       <c r="E6" t="n">
-        <v>7.97</v>
+        <v>7.99</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -3347,7 +3261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,21 +3305,6 @@
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3437,19 +3336,6 @@
       <c r="G2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:20.256411</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>25.45775632799996</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3481,19 +3367,6 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:29.195530</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>7.825434046000737</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3525,19 +3398,6 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:02:13.838250</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>25.97068918999867</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3569,19 +3429,6 @@
       <c r="G5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:02:39.708783</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>17.31372129900046</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3613,19 +3460,6 @@
       <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:03:19.043178</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>29.26283795299969</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3657,19 +3491,6 @@
       <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:03:45.298176</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>23.00239465800041</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3701,19 +3522,6 @@
       <c r="G8" t="n">
         <v>8</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:04:20.105888</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>26.14362267699835</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3745,19 +3553,6 @@
       <c r="G9" t="n">
         <v>11</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:05:22.689968</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>23.83769998499702</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3789,19 +3584,6 @@
       <c r="G10" t="n">
         <v>12</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:05:47.215603</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>15.4775147979999</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3817,19 +3599,6 @@
       <c r="C11" t="n">
         <v>17.09584704299778</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:06:34.470484</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>23.18112631599797</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3845,19 +3614,6 @@
       <c r="C12" t="n">
         <v>17.57112371599942</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:07:05.496402</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>22.63011557400023</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3873,19 +3629,6 @@
       <c r="C13" t="n">
         <v>17.95931244299936</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:07:45.915439</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>22.62298024700067</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3901,19 +3644,6 @@
       <c r="C14" t="n">
         <v>19.13264779399833</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:09:17.400815</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>22.05420880300153</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3929,19 +3659,6 @@
       <c r="C15" t="n">
         <v>19.03255571999762</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:09:48.168392</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>16.44586178700047</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3957,19 +3674,6 @@
       <c r="C16" t="n">
         <v>13.03475232900018</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:10:30.301397</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>11.49830916399878</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3985,19 +3689,6 @@
       <c r="C17" t="n">
         <v>17.85630472499906</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:11:11.928653</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>11.0140851890028</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4013,19 +3704,6 @@
       <c r="C18" t="n">
         <v>16.50813590300095</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:12:11.422764</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>22.49193067099986</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4041,19 +3719,6 @@
       <c r="C19" t="n">
         <v>19.91787753099925</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:12:46.561878</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>22.14876318700044</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4069,233 +3734,213 @@
       <c r="C20" t="n">
         <v>11.70008817900089</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:13:09.288170</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>13.05020356800014</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:14:29.267844</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>25.37964505200216</v>
-      </c>
-    </row>
+    </row>
+    <row r="21"/>
     <row r="22">
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:15:08.138037</t>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>14.29664806599976</v>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:15.441481</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>23.68733280299784</v>
+          <t>Average</t>
+        </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:56.442388</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>23.47725808500036</v>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26">
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
+          <t>Minimum</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>33.49</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20.36</t>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:04.068974</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>16.64</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>7.83</t>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 209 mm</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:20.256411</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22.29</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>29.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="30"/>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:29.195530</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:33.762790</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:04.068974</t>
+          <t>2025-07-03T01:02:13.838250</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 209 mm</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:20.256411</t>
+          <t>2025-07-03T01:02:39.708783</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4305,14 +3950,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:29.195530</t>
+          <t>2025-07-03T01:03:19.043178</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4322,65 +3967,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No contour found</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:33.762790</t>
+          <t>2025-07-03T01:03:45.298176</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:13.838250</t>
+          <t>2025-07-03T01:04:12.244721</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to find placement for package with ID 5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:39.708783</t>
+          <t>2025-07-03T01:04:12.280598</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:19.043178</t>
+          <t>2025-07-03T01:04:20.105888</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4397,7 +4042,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:45.298176</t>
+          <t>2025-07-03T01:05:22.689968</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4414,41 +4059,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.244721</t>
+          <t>2025-07-03T01:05:47.215603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 5</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.280598</t>
+          <t>2025-07-03T01:06:34.470484</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:20.105888</t>
+          <t>2025-07-03T01:07:05.496402</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4458,14 +4103,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:22.689968</t>
+          <t>2025-07-03T01:07:45.915439</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4482,7 +4127,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:47.215603</t>
+          <t>2025-07-03T01:09:17.400815</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4492,14 +4137,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-03T01:06:34.470484</t>
+          <t>2025-07-03T01:09:48.168392</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4509,14 +4154,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:05.496402</t>
+          <t>2025-07-03T01:10:30.301397</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4526,14 +4171,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:45.915439</t>
+          <t>2025-07-03T01:11:11.928653</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4543,14 +4188,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:17.400815</t>
+          <t>2025-07-03T01:12:11.422764</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4567,7 +4212,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:48.168392</t>
+          <t>2025-07-03T01:12:46.561878</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4577,14 +4222,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-03T01:10:30.301397</t>
+          <t>2025-07-03T01:13:09.288170</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4601,41 +4246,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-03T01:11:11.928653</t>
+          <t>2025-07-03T01:13:14.701142</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:11.422764</t>
+          <t>2025-07-03T01:13:14.713890</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:46.561878</t>
+          <t>2025-07-03T01:14:29.267844</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4652,7 +4297,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:09.288170</t>
+          <t>2025-07-03T01:15:08.138037</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4669,41 +4314,41 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.701142</t>
+          <t>2025-07-03T01:15:36.387544</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.713890</t>
+          <t>2025-07-03T01:16:15.441481</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-03T01:14:29.267844</t>
+          <t>2025-07-03T01:16:56.442388</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4717,131 +4362,103 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:15:08.138037</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to extract address: Internal Server Error</t>
-        </is>
-      </c>
-    </row>
+    <row r="58"/>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:15:36.387544</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Package height is too high. Measured 208 mm</t>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:15.441481</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
-        </is>
+          <t>10.66-11.82</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:56.442388</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62"/>
+          <t>11.82-12.98</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12.98-14.15</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>14.15-15.31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10.66-11.82</t>
+          <t>15.31-16.47</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11.82-12.98</t>
+          <t>16.47-17.64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12.98-14.15</t>
+          <t>17.64-18.80</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14.15-15.31</t>
+          <t>18.80-19.96</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>15.31-16.47</t>
+          <t>19.96-21.12</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4851,100 +4468,100 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16.47-17.64</t>
+          <t>21.12-22.29</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>17.64-18.80</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>18.80-19.96</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>4</v>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>19.96-21.12</t>
+          <t>16.64-24.19</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>21.12-22.29</t>
+          <t>24.19-31.74</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>31.74-39.29</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>39.29-46.84</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>16.64-24.19</t>
+          <t>46.84-54.39</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>24.19-31.74</t>
+          <t>54.39-61.94</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>31.74-39.29</t>
+          <t>61.94-69.49</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>39.29-46.84</t>
+          <t>69.49-77.04</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4954,7 +4571,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46.84-54.39</t>
+          <t>77.04-84.59</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4964,190 +4581,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>54.39-61.94</t>
+          <t>84.59-92.14</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>61.94-69.49</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82"/>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>69.49-77.04</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>77.04-84.59</t>
+          <t>2025-07-03 02:00</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84.59-92.14</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86"/>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>7.83-9.97</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>9.97-12.11</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>12.11-14.26</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>14.26-16.40</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>16.40-18.54</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>18.54-20.69</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>20.69-22.83</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>22.83-24.98</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>24.98-27.12</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>27.12-29.26</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98"/>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2025-07-03 02:00</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="101"/>
+    <row r="85"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -5160,7 +4624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5516,7 +4980,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:04.304537</t>
+          <t>2025-07-07T17:54:41.316843</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5525,7 +4989,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.491145134999897</v>
+        <v>7.377344214000004</v>
       </c>
     </row>
     <row r="9">
@@ -5560,7 +5024,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:41.316843</t>
+          <t>2025-07-07T17:55:06.371687</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5569,7 +5033,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7.377344214000004</v>
+        <v>5.975922769000135</v>
       </c>
     </row>
     <row r="10">
@@ -5604,7 +5068,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:06.371687</t>
+          <t>2025-07-07T17:55:24.965520</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5613,7 +5077,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5.975922769000135</v>
+        <v>6.126032918999954</v>
       </c>
     </row>
     <row r="11">
@@ -5648,7 +5112,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:24.965520</t>
+          <t>2025-07-07T17:58:28.737846</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5657,7 +5121,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6.126032918999954</v>
+        <v>7.095316783999806</v>
       </c>
     </row>
     <row r="12">
@@ -5692,7 +5156,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-07T17:58:28.737846</t>
+          <t>2025-07-07T18:00:06.490194</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5701,7 +5165,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7.095316783999806</v>
+        <v>7.318892298999799</v>
       </c>
     </row>
     <row r="13">
@@ -5736,7 +5200,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:06.490194</t>
+          <t>2025-07-07T18:00:32.848347</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5745,7 +5209,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.318892298999799</v>
+        <v>6.272883712000294</v>
       </c>
     </row>
     <row r="14">
@@ -5780,7 +5244,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:32.848347</t>
+          <t>2025-07-07T18:03:05.711651</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5789,7 +5253,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.272883712000294</v>
+        <v>6.602910526999949</v>
       </c>
     </row>
     <row r="15">
@@ -5824,7 +5288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-07T18:07:41.634287</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5833,7 +5297,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>10.72084570400011</v>
+        <v>6.580440927999916</v>
       </c>
     </row>
     <row r="16">
@@ -5868,7 +5332,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:05.711651</t>
+          <t>2025-07-07T18:08:10.621610</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5877,7 +5341,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.602910526999949</v>
+        <v>6.69653442300023</v>
       </c>
     </row>
     <row r="17">
@@ -5912,7 +5376,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:41.634287</t>
+          <t>2025-07-07T18:08:32.236033</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5921,7 +5385,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>6.580440927999916</v>
+        <v>7.071184787999755</v>
       </c>
     </row>
     <row r="18">
@@ -5956,7 +5420,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:10.621610</t>
+          <t>2025-07-07T20:12:01.251252</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5965,7 +5429,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6.69653442300023</v>
+        <v>10.56414242500068</v>
       </c>
     </row>
     <row r="19">
@@ -6000,7 +5464,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:32.236033</t>
+          <t>2025-07-07T20:13:18.434270</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -6009,7 +5473,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>7.071184787999755</v>
+        <v>6.220035006999751</v>
       </c>
     </row>
     <row r="20">
@@ -6044,7 +5508,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-07T20:12:01.251252</t>
+          <t>2025-07-07T20:23:44.373559</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -6053,7 +5517,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>10.56414242500068</v>
+        <v>6.278396850999343</v>
       </c>
     </row>
     <row r="21">
@@ -6088,7 +5552,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-07T20:13:18.434270</t>
+          <t>2025-07-07T20:24:09.435168</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -6097,7 +5561,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.220035006999751</v>
+        <v>6.347279622001224</v>
       </c>
     </row>
     <row r="22">
@@ -6132,7 +5596,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:44.373559</t>
+          <t>2025-07-07T20:24:39.210811</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -6141,7 +5605,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>6.278396850999343</v>
+        <v>15.53937051200046</v>
       </c>
     </row>
     <row r="23">
@@ -6176,7 +5640,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:09.435168</t>
+          <t>2025-07-07T20:25:18.304200</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -6185,7 +5649,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>6.347279622001224</v>
+        <v>30.12905363700156</v>
       </c>
     </row>
     <row r="24">
@@ -6220,7 +5684,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:39.210811</t>
+          <t>2025-07-07T20:25:29.241532</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -6229,7 +5693,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>15.53937051200046</v>
+        <v>6.710644097000113</v>
       </c>
     </row>
     <row r="25">
@@ -6264,7 +5728,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:18.304200</t>
+          <t>2025-07-07T20:25:51.873737</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -6273,7 +5737,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>30.12905363700156</v>
+        <v>6.863947986999847</v>
       </c>
     </row>
     <row r="26">
@@ -6308,7 +5772,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:29.241532</t>
+          <t>2025-07-07T20:26:58.117529</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -6317,7 +5781,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6.710644097000113</v>
+        <v>6.488622081000358</v>
       </c>
     </row>
     <row r="27">
@@ -6352,7 +5816,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:51.873737</t>
+          <t>2025-07-07T20:27:40.532709</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -6361,7 +5825,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>6.863947986999847</v>
+        <v>7.000000726000508</v>
       </c>
     </row>
     <row r="28">
@@ -6396,7 +5860,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-07T20:26:58.117529</t>
+          <t>2025-07-07T20:28:35.256984</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -6405,7 +5869,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>6.488622081000358</v>
+        <v>6.290267608999784</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +5904,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-07T20:27:40.532709</t>
+          <t>2025-07-07T20:30:29.905975</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -6449,7 +5913,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>7.000000726000508</v>
+        <v>5.887769596998623</v>
       </c>
     </row>
     <row r="30">
@@ -6484,7 +5948,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-07T20:28:35.256984</t>
+          <t>2025-07-07T20:31:03.875462</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -6493,7 +5957,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>6.290267608999784</v>
+        <v>5.650815741999395</v>
       </c>
     </row>
     <row r="31">
@@ -6512,7 +5976,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-07T20:30:29.905975</t>
+          <t>2025-07-07T20:32:22.888056</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -6521,7 +5985,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5.887769596998623</v>
+        <v>7.329623222000009</v>
       </c>
     </row>
     <row r="32">
@@ -6540,7 +6004,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-07T20:31:03.875462</t>
+          <t>2025-07-07T20:32:59.361797</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -6549,7 +6013,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5.650815741999395</v>
+        <v>6.782805582000947</v>
       </c>
     </row>
     <row r="33">
@@ -6568,7 +6032,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:22.888056</t>
+          <t>2025-07-07T20:39:17.271112</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6577,7 +6041,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>7.329623222000009</v>
+        <v>6.085372293999171</v>
       </c>
     </row>
     <row r="34">
@@ -6596,7 +6060,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:59.361797</t>
+          <t>2025-07-07T20:40:28.037368</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6605,7 +6069,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6.782805582000947</v>
+        <v>7.455442231999768</v>
       </c>
     </row>
     <row r="35">
@@ -6624,7 +6088,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-07T20:39:17.271112</t>
+          <t>2025-07-07T20:41:00.020547</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6633,13 +6097,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>6.085372293999171</v>
+        <v>7.01819500000056</v>
       </c>
     </row>
     <row r="36">
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-07-07T20:40:28.037368</t>
+          <t>2025-07-07T20:41:31.608901</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6648,13 +6112,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7.455442231999768</v>
+        <v>7.044207163000465</v>
       </c>
     </row>
     <row r="37">
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:00.020547</t>
+          <t>2025-07-07T20:42:49.221380</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6663,13 +6127,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7.01819500000056</v>
+        <v>8.417750570000862</v>
       </c>
     </row>
     <row r="38">
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:31.608901</t>
+          <t>2025-07-07T20:43:26.219315</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6678,13 +6142,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7.044207163000465</v>
+        <v>7.417676393000875</v>
       </c>
     </row>
     <row r="39">
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:49.221380</t>
+          <t>2025-07-07T20:44:13.126019</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6693,13 +6157,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8.417750570000862</v>
+        <v>8.078220472001703</v>
       </c>
     </row>
     <row r="40">
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-07-07T20:43:26.219315</t>
+          <t>2025-07-07T20:44:36.476819</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6708,13 +6172,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7.417676393000875</v>
+        <v>6.408298532000117</v>
       </c>
     </row>
     <row r="41">
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:13.126019</t>
+          <t>2025-07-07T20:45:07.070913</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6723,13 +6187,13 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>8.078220472001703</v>
+        <v>9.519743813998502</v>
       </c>
     </row>
     <row r="42">
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:36.476819</t>
+          <t>2025-07-07T20:45:53.363984</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6738,13 +6202,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>6.408298532000117</v>
+        <v>7.321187820998603</v>
       </c>
     </row>
     <row r="43">
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:07.070913</t>
+          <t>2025-07-07T20:46:45.131372</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6753,13 +6217,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>9.519743813998502</v>
+        <v>10.50983613400058</v>
       </c>
     </row>
     <row r="44">
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:53.363984</t>
+          <t>2025-07-07T20:47:22.820113</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6768,13 +6232,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>7.321187820998603</v>
+        <v>6.563831375999143</v>
       </c>
     </row>
     <row r="45">
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-07-07T20:46:45.131372</t>
+          <t>2025-07-07T20:48:16.318484</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6783,13 +6247,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>10.50983613400058</v>
+        <v>9.671211946000767</v>
       </c>
     </row>
     <row r="46">
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-07-07T20:47:22.820113</t>
+          <t>2025-07-07T20:48:55.786657</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6798,13 +6262,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>6.563831375999143</v>
+        <v>7.459972787999504</v>
       </c>
     </row>
     <row r="47">
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:16.318484</t>
+          <t>2025-07-07T20:49:44.183667</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6813,13 +6277,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>9.671211946000767</v>
+        <v>8.844760150999718</v>
       </c>
     </row>
     <row r="48">
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:55.786657</t>
+          <t>2025-07-07T20:50:09.648990</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6828,13 +6292,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>7.459972787999504</v>
+        <v>6.665908984999987</v>
       </c>
     </row>
     <row r="49">
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:44.183667</t>
+          <t>2025-07-07T20:51:20.106347</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6843,190 +6307,196 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>8.844760150999718</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:50:09.648990</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>6.665908984999987</v>
-      </c>
-    </row>
+        <v>6.566689418999886</v>
+      </c>
+    </row>
+    <row r="50"/>
     <row r="51">
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:51:20.106347</t>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>6.566689418999886</v>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-07-07T21:29:45.978602</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1323295019992656</v>
-      </c>
-    </row>
-    <row r="53"/>
+          <t>8.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+    </row>
     <row r="54">
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-    </row>
+          <t>30.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0.13</t>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:53:20.633754</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>30.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="58"/>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 447 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:54:04.304537</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:54:06.370378</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:20.633754</t>
+          <t>2025-07-07T17:54:13.860722</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7036,31 +6506,31 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 447 mm</t>
+          <t>Package length is too long. Measured 409 mm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:04.304537</t>
+          <t>2025-07-07T17:54:18.597301</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package length is too long. Measured 406 mm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:06.370378</t>
+          <t>2025-07-07T17:54:43.702674</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7077,7 +6547,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:13.860722</t>
+          <t>2025-07-07T17:55:10.734764</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7087,14 +6557,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 409 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:18.597301</t>
+          <t>2025-07-07T17:55:29.067155</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7104,31 +6574,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 406 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:43.702674</t>
+          <t>2025-07-07T18:00:10.030613</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:10.734764</t>
+          <t>2025-07-07T18:00:10.051266</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7138,14 +6608,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:29.067155</t>
+          <t>2025-07-07T18:00:36.125880</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7162,41 +6632,41 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.030613</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 7</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.051266</t>
+          <t>2025-07-07T18:03:09.874522</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:36.125880</t>
+          <t>2025-07-07T18:03:09.896068</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7206,116 +6676,116 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-07T18:07:45.696819</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.874522</t>
+          <t>2025-07-07T18:07:45.718017</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.896068</t>
+          <t>2025-07-07T18:08:14.255685</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.696819</t>
+          <t>2025-07-07T18:08:14.287395</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.718017</t>
+          <t>2025-07-07T18:08:35.394486</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.255685</t>
+          <t>2025-07-07T18:08:35.418117</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.287395</t>
+          <t>2025-07-07T20:23:54.984629</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7325,31 +6795,31 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height when sagging is too high. Measured 200 mm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.394486</t>
+          <t>2025-07-07T20:24:11.557410</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Package height when sagging is too high. Measured 210 mm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.418117</t>
+          <t>2025-07-07T20:25:00.905263</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7359,31 +6829,31 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:54.984629</t>
+          <t>2025-07-07T20:41:37.929023</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 200 mm</t>
+          <t>Failed to find placement for package with ID 21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:11.557410</t>
+          <t>2025-07-07T20:41:37.954032</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7393,14 +6863,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 210 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:00.905263</t>
+          <t>2025-07-07T20:42:09.232090</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7410,31 +6880,31 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package length is too long. Measured 424 mm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.929023</t>
+          <t>2025-07-07T20:42:14.735939</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 21</t>
+          <t>Package length is too long. Measured 423 mm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.954032</t>
+          <t>2025-07-07T20:49:22.678706</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7444,14 +6914,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:09.232090</t>
+          <t>2025-07-07T20:49:25.426897</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7461,31 +6931,31 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 424 mm</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:14.735939</t>
+          <t>2025-07-07T20:50:13.227524</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 423 mm</t>
+          <t>Failed to find placement for package with ID 32</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:22.678706</t>
+          <t>2025-07-07T20:50:13.240163</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7495,286 +6965,265 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:25.426897</t>
+          <t>2025-07-07T21:29:45.978602</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.227524</t>
+          <t>2025-07-07T22:20:17.031515</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 32</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.240163</t>
+          <t>2025-07-07T22:20:17.040077</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Retrieve Packages Callback: 3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-07-07T21:29:45.978602</t>
+          <t>2025-07-07T22:25:39.778239</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-07-07T22:20:17.031515</t>
+          <t>2025-07-07T22:25:39.792261</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:20:17.040077</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 3</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
+    <row r="93"/>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:25:39.778239</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-07-07T22:25:39.792261</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 7</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="96"/>
+          <t>9.37-10.58</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10.58-11.79</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>11.79-13.00</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>9.37-10.58</t>
+          <t>13.00-14.21</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>10.58-11.79</t>
+          <t>14.21-15.42</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>11.79-13.00</t>
+          <t>15.42-16.63</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>13.00-14.21</t>
+          <t>16.63-17.84</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>14.21-15.42</t>
+          <t>17.84-19.05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>15.42-16.63</t>
+          <t>19.05-20.26</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>16.63-17.84</t>
+          <t>20.26-21.47</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>17.84-19.05</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105"/>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>19.05-20.26</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20.26-21.47</t>
+          <t>16.29-18.49</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="108"/>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>18.49-20.69</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20.69-22.88</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>16.29-18.49</t>
+          <t>22.88-25.08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>18.49-20.69</t>
+          <t>25.08-27.28</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7784,37 +7233,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20.69-22.88</t>
+          <t>27.28-29.47</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>22.88-25.08</t>
+          <t>29.47-31.67</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>25.08-27.28</t>
+          <t>31.67-33.87</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>27.28-29.47</t>
+          <t>33.87-36.07</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -7824,200 +7273,170 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>29.47-31.67</t>
+          <t>36.07-38.26</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>31.67-33.87</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>6</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117"/>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>33.87-36.07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>36.07-38.26</t>
+          <t>5.65-8.10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>8.10-10.55</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8</v>
+      </c>
+    </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10.55-12.99</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0.13-3.13</t>
+          <t>12.99-15.44</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3.13-6.13</t>
+          <t>15.44-17.89</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6.13-9.13</t>
+          <t>17.89-20.34</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9.13-12.13</t>
+          <t>20.34-22.79</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>12.13-15.13</t>
+          <t>22.79-25.23</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>15.13-18.13</t>
+          <t>25.23-27.68</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>18.13-21.13</t>
+          <t>27.68-30.13</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>21.13-24.13</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129"/>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>24.13-27.13</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>27.13-30.13</t>
+          <t>2025-07-07 20:00</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-07 21:00</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2025-07-07 20:00</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2025-07-07 21:00</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A133" t="inlineStr">
         <is>
           <t>2025-07-07 22:00</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B133" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="137"/>
+    <row r="134"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -8030,7 +7449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8776,7 +8195,7 @@
     <row r="20">
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T01:43:20.830363</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -8785,262 +8204,264 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>9.348954451000282</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:43:20.830363</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
         <v>6.77231205300086</v>
       </c>
     </row>
-    <row r="22"/>
+    <row r="21"/>
+    <row r="22">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>7.24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.47</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>21.71</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>34.15</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
           <t>11.35</t>
         </is>
       </c>
     </row>
-    <row r="27"/>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-08T01:13:10.554253</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.554253</t>
+          <t>2025-07-08T01:13:10.572025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 7</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.572025</t>
+          <t>2025-07-08T01:21:37.898638</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Vision Init Service</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T01:21:37.898638</t>
+          <t>2025-07-08T01:32:08.791967</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vision Init Service</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.791967</t>
+          <t>2025-07-08T01:32:08.809127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height when sagging is too high. Measured 277 mm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.809127</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 277 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T01:40:48.987836</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package length is too long. Measured 403 mm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:48.987836</t>
+          <t>2025-07-08T01:40:56.515946</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -9050,167 +8471,160 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 403 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:40:56.515946</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>Package length is too long. Measured 404 mm</t>
         </is>
       </c>
     </row>
-    <row r="37"/>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>8.96-10.23</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8.96-10.23</t>
+          <t>10.23-11.51</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.23-11.51</t>
+          <t>11.51-12.78</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11.51-12.78</t>
+          <t>12.78-14.06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12.78-14.06</t>
+          <t>14.06-15.33</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14.06-15.33</t>
+          <t>15.33-16.61</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15.33-16.61</t>
+          <t>16.61-17.88</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16.61-17.88</t>
+          <t>17.88-19.16</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17.88-19.16</t>
+          <t>19.16-20.43</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19.16-20.43</t>
+          <t>20.43-21.71</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20.43-21.71</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49"/>
+    <row r="48"/>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>16.46-18.23</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16.46-18.23</t>
+          <t>18.23-20.00</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18.23-20.00</t>
+          <t>20.00-21.77</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -9220,7 +8634,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20.00-21.77</t>
+          <t>21.77-23.53</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -9230,47 +8644,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21.77-23.53</t>
+          <t>23.53-25.30</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>23.53-25.30</t>
+          <t>25.30-27.07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25.30-27.07</t>
+          <t>27.07-28.84</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27.07-28.84</t>
+          <t>28.84-30.61</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>28.84-30.61</t>
+          <t>30.61-32.38</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -9280,80 +8694,80 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.61-32.38</t>
+          <t>32.38-34.15</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>32.38-34.15</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="61"/>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5.48-6.07</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5.48-6.07</t>
+          <t>6.07-6.65</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.07-6.65</t>
+          <t>6.65-7.24</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6.65-7.24</t>
+          <t>7.24-7.83</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.24-7.83</t>
+          <t>7.83-8.42</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7.83-8.42</t>
+          <t>8.42-9.00</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -9363,7 +8777,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8.42-9.00</t>
+          <t>9.00-9.59</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -9373,17 +8787,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9.00-9.59</t>
+          <t>9.59-10.18</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9.59-10.18</t>
+          <t>10.18-10.76</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -9393,57 +8807,47 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.18-10.76</t>
+          <t>10.76-11.35</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>10.76-11.35</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73"/>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-08 01:00</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-08 01:00</t>
+          <t>2025-07-08 02:00</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025-07-08 02:00</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="77"/>
+    <row r="76"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -9456,7 +8860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11043,208 +10447,210 @@
         <v>7.020958000000974</v>
       </c>
     </row>
-    <row r="44">
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:22:12.580287</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1523438369986252</v>
-      </c>
-    </row>
-    <row r="45"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
     <row r="46">
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>6.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>5.67</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>37.99</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>37.99</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
           <t>10.40</t>
         </is>
       </c>
     </row>
-    <row r="50"/>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:53.043192</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.043192</t>
+          <t>2025-07-08T22:56:53.065961</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+          <t>Failed to pick and raise</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.065961</t>
+          <t>2025-07-08T23:16:59.150607</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to pick and raise</t>
+          <t>Failed to find placement for package with ID 11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.150607</t>
+          <t>2025-07-08T23:16:59.174089</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 11</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.174089</t>
+          <t>2025-07-08T23:26:59.288288</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11254,14 +10660,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height is too high. Measured 204 mm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-08T23:26:59.288288</t>
+          <t>2025-07-08T23:27:06.637060</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11271,48 +10677,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 204 mm</t>
+          <t>Package length is too long. Measured 414 mm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-08T23:27:06.637060</t>
+          <t>2025-07-08T23:42:46.228905</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 414 mm</t>
+          <t>Failed to find placement for package with ID 37</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.228905</t>
+          <t>2025-07-08T23:42:46.248970</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 37</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.248970</t>
+          <t>2025-07-09T00:16:43.556644</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11322,278 +10728,271 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package length is too long. Measured 410 mm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T00:16:43.556644</t>
+          <t>2025-07-09T00:17:16.528185</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 410 mm</t>
+          <t>Failed to find placement for package with ID 38</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.528185</t>
+          <t>2025-07-09T00:17:16.552050</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 38</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.552050</t>
+          <t>2025-07-09T00:22:12.580287</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T00:22:12.580287</t>
+          <t>2025-07-09T00:57:29.132885</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.132885</t>
+          <t>2025-07-09T00:57:29.138871</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.138871</t>
+          <t>2025-07-09T00:57:29.145963</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.145963</t>
+          <t>2025-07-09T00:58:22.572326</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 8</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.572326</t>
+          <t>2025-07-09T00:58:22.579425</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.579425</t>
+          <t>2025-07-09T01:04:06.729963</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 9</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.729963</t>
+          <t>2025-07-09T01:04:06.741982</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.741982</t>
+          <t>2025-07-09T01:14:06.484565</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 2</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-09T01:14:06.484565</t>
+          <t>2025-07-09T01:14:06.501028</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:14:06.501028</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 18</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="73"/>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>9.22-10.61</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9.22-10.61</t>
+          <t>10.61-11.99</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.61-11.99</t>
+          <t>11.99-13.37</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11.99-13.37</t>
+          <t>13.37-14.76</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13.37-14.76</t>
+          <t>14.76-16.14</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -11603,7 +11002,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>14.76-16.14</t>
+          <t>16.14-17.52</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -11613,7 +11012,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>16.14-17.52</t>
+          <t>17.52-18.91</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -11623,7 +11022,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17.52-18.91</t>
+          <t>18.91-20.29</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -11633,60 +11032,60 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>18.91-20.29</t>
+          <t>20.29-21.67</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20.29-21.67</t>
+          <t>21.67-23.06</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>21.67-23.06</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85"/>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15.56-17.81</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>15.56-17.81</t>
+          <t>17.81-20.05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>17.81-20.05</t>
+          <t>20.05-22.29</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -11696,37 +11095,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20.05-22.29</t>
+          <t>22.29-24.53</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>22.29-24.53</t>
+          <t>24.53-26.78</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>24.53-26.78</t>
+          <t>26.78-29.02</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>26.78-29.02</t>
+          <t>29.02-31.26</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -11736,200 +11135,190 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>29.02-31.26</t>
+          <t>31.26-33.50</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>31.26-33.50</t>
+          <t>33.50-35.75</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>33.50-35.75</t>
+          <t>35.75-37.99</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>35.75-37.99</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="97"/>
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5.67-6.14</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.15-1.18</t>
+          <t>6.14-6.61</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1.18-2.20</t>
+          <t>6.61-7.09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2.20-3.23</t>
+          <t>7.09-7.56</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3.23-4.25</t>
+          <t>7.56-8.03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4.25-5.28</t>
+          <t>8.03-8.51</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5.28-6.30</t>
+          <t>8.51-8.98</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6.30-7.32</t>
+          <t>8.98-9.45</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7.32-8.35</t>
+          <t>9.45-9.92</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8.35-9.37</t>
+          <t>9.92-10.40</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>9.37-10.40</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-07-08 23:00</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="109"/>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-07-08 23:00</t>
+          <t>2025-07-09 00:00</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-07-09 00:00</t>
+          <t>2025-07-09 01:00</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-09 01:00</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="114"/>
+    <row r="113"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -11942,7 +11331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12122,7 +11511,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-09T17:01:47.037100</t>
+          <t>2025-07-09T17:03:03.638161</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -12131,7 +11520,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>9.247409285999993</v>
+        <v>6.897099805999915</v>
       </c>
     </row>
     <row r="5">
@@ -12166,7 +11555,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:03.638161</t>
+          <t>2025-07-09T17:03:37.617454</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -12175,7 +11564,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.897099805999915</v>
+        <v>6.614939216000039</v>
       </c>
     </row>
     <row r="6">
@@ -12210,7 +11599,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:37.617454</t>
+          <t>2025-07-09T17:04:28.762056</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -12219,7 +11608,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6.614939216000039</v>
+        <v>6.161488025999915</v>
       </c>
     </row>
     <row r="7">
@@ -12254,7 +11643,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-09T17:04:28.762056</t>
+          <t>2025-07-09T17:05:45.443970</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -12263,7 +11652,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.161488025999915</v>
+        <v>7.119074510999781</v>
       </c>
     </row>
     <row r="8">
@@ -12298,7 +11687,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-09T17:05:45.443970</t>
+          <t>2025-07-09T17:06:45.293099</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -12307,7 +11696,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.119074510999781</v>
+        <v>6.159382433000019</v>
       </c>
     </row>
     <row r="9">
@@ -12342,7 +11731,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-09T17:06:45.293099</t>
+          <t>2025-07-09T17:07:24.072217</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -12351,7 +11740,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6.159382433000019</v>
+        <v>6.417692975000136</v>
       </c>
     </row>
     <row r="10">
@@ -12386,7 +11775,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-09T17:07:24.072217</t>
+          <t>2025-07-09T17:26:59.647686</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -12395,7 +11784,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.417692975000136</v>
+        <v>6.451890132000244</v>
       </c>
     </row>
     <row r="11">
@@ -12430,7 +11819,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-09T17:08:06.371557</t>
+          <t>2025-07-09T20:30:30.101595</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -12439,7 +11828,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.1080534509999325</v>
+        <v>8.816499478999503</v>
       </c>
     </row>
     <row r="12">
@@ -12474,7 +11863,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-09T17:26:59.647686</t>
+          <t>2025-07-09T20:31:01.738214</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -12483,7 +11872,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>6.451890132000244</v>
+        <v>8.540726980000727</v>
       </c>
     </row>
     <row r="13">
@@ -12518,7 +11907,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-09T20:30:30.101595</t>
+          <t>2025-07-09T20:31:37.819749</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -12527,7 +11916,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8.816499478999503</v>
+        <v>7.299677785000313</v>
       </c>
     </row>
     <row r="14">
@@ -12562,7 +11951,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:01.738214</t>
+          <t>2025-07-09T20:32:20.341560</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -12571,7 +11960,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8.540726980000727</v>
+        <v>11.75148576600077</v>
       </c>
     </row>
     <row r="15">
@@ -12606,7 +11995,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:37.819749</t>
+          <t>2025-07-09T20:33:07.793293</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -12615,7 +12004,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.299677785000313</v>
+        <v>7.708521808000114</v>
       </c>
     </row>
     <row r="16">
@@ -12650,7 +12039,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-09T20:32:20.341560</t>
+          <t>2025-07-09T20:33:49.288918</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -12659,7 +12048,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>11.75148576600077</v>
+        <v>9.006529381000291</v>
       </c>
     </row>
     <row r="17">
@@ -12694,7 +12083,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:07.793293</t>
+          <t>2025-07-09T20:34:30.067643</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -12703,7 +12092,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7.708521808000114</v>
+        <v>11.63869443600015</v>
       </c>
     </row>
     <row r="18">
@@ -12738,7 +12127,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:49.288918</t>
+          <t>2025-07-09T20:35:05.386697</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -12747,7 +12136,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>9.006529381000291</v>
+        <v>8.106902147000255</v>
       </c>
     </row>
     <row r="19">
@@ -12782,7 +12171,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-09T20:34:30.067643</t>
+          <t>2025-07-09T20:35:35.226695</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -12791,7 +12180,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>11.63869443600015</v>
+        <v>8.520435885000552</v>
       </c>
     </row>
     <row r="20">
@@ -12826,7 +12215,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:05.386697</t>
+          <t>2025-07-09T20:36:29.537481</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -12835,7 +12224,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8.106902147000255</v>
+        <v>8.480712200000198</v>
       </c>
     </row>
     <row r="21">
@@ -12870,7 +12259,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:35.226695</t>
+          <t>2025-07-09T20:36:57.813144</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -12879,7 +12268,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>8.520435885000552</v>
+        <v>6.521772070000225</v>
       </c>
     </row>
     <row r="22">
@@ -12914,7 +12303,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:07.336123</t>
+          <t>2025-07-09T20:38:33.987930</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -12923,7 +12312,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>12.07209446199977</v>
+        <v>8.629125122000005</v>
       </c>
     </row>
     <row r="23">
@@ -12958,7 +12347,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:29.537481</t>
+          <t>2025-07-09T20:38:59.265073</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -12967,7 +12356,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>8.480712200000198</v>
+        <v>6.954240297000069</v>
       </c>
     </row>
     <row r="24">
@@ -13002,7 +12391,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:57.813144</t>
+          <t>2025-07-09T20:39:29.977912</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -13011,7 +12400,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6.521772070000225</v>
+        <v>7.272197137000148</v>
       </c>
     </row>
     <row r="25">
@@ -13046,7 +12435,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-09T20:37:32.893677</t>
+          <t>2025-07-09T20:40:17.407669</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -13055,7 +12444,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>9.810703275999913</v>
+        <v>6.873431026000617</v>
       </c>
     </row>
     <row r="26">
@@ -13090,7 +12479,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:33.987930</t>
+          <t>2025-07-09T20:40:55.082577</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -13099,7 +12488,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>8.629125122000005</v>
+        <v>7.356497611000123</v>
       </c>
     </row>
     <row r="27">
@@ -13134,7 +12523,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:59.265073</t>
+          <t>2025-07-09T20:41:52.569669</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -13143,7 +12532,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>6.954240297000069</v>
+        <v>6.921981114000118</v>
       </c>
     </row>
     <row r="28">
@@ -13178,7 +12567,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:29.977912</t>
+          <t>2025-07-09T20:42:31.549409</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -13187,7 +12576,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>7.272197137000148</v>
+        <v>8.263683973000298</v>
       </c>
     </row>
     <row r="29">
@@ -13222,7 +12611,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:17.407669</t>
+          <t>2025-07-09T20:43:08.035381</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -13231,7 +12620,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>6.873431026000617</v>
+        <v>9.204706790000273</v>
       </c>
     </row>
     <row r="30">
@@ -13250,7 +12639,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:55.082577</t>
+          <t>2025-07-09T20:43:40.411913</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -13259,7 +12648,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>7.356497611000123</v>
+        <v>6.803173390999291</v>
       </c>
     </row>
     <row r="31">
@@ -13278,7 +12667,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-09T20:41:52.569669</t>
+          <t>2025-07-09T20:45:03.272091</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -13287,7 +12676,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>6.921981114000118</v>
+        <v>10.16644128699954</v>
       </c>
     </row>
     <row r="32">
@@ -13306,7 +12695,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-09T20:42:31.549409</t>
+          <t>2025-07-09T20:45:40.087592</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -13315,7 +12704,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>8.263683973000298</v>
+        <v>7.225754842000242</v>
       </c>
     </row>
     <row r="33">
@@ -13334,7 +12723,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:08.035381</t>
+          <t>2025-07-09T20:46:28.717921</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -13343,7 +12732,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>9.204706790000273</v>
+        <v>7.40263581399995</v>
       </c>
     </row>
     <row r="34">
@@ -13362,7 +12751,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:40.411913</t>
+          <t>2025-07-09T20:56:27.405597</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -13371,13 +12760,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6.803173390999291</v>
+        <v>10.9151503310004</v>
       </c>
     </row>
     <row r="35">
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-09T20:45:03.272091</t>
+          <t>2025-07-09T20:56:48.251831</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -13386,460 +12775,468 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>10.16644128699954</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:45:40.087592</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>7.225754842000242</v>
-      </c>
-    </row>
+        <v>7.771012766999775</v>
+      </c>
+    </row>
+    <row r="36"/>
     <row r="37">
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:46:28.717921</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>7.40263581399995</v>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:56:27.405597</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>10.9151503310004</v>
+          <t>7.99</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:56:48.251831</t>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>7.771012766999775</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41">
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
+          <t>6.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>7.97</t>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:47.037100</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>17.83</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0.11</t>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:04:12.589235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>36.19</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>12.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="45"/>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 438 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:05:01.688080</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 411 mm</t>
+        </is>
+      </c>
+    </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:08:06.371557</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-09T17:01:47.037100</t>
+          <t>2025-07-09T17:45:36.009750</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed to find packages with IDs: [10]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-09T17:04:12.589235</t>
+          <t>2025-07-09T18:02:26.276053</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 438 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-09T17:05:01.688080</t>
+          <t>2025-07-09T18:02:26.277270</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 411 mm</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-09T17:08:06.371557</t>
+          <t>2025-07-09T18:02:26.285881</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Retrieve Packages Callback: 4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-09T17:45:36.009750</t>
+          <t>2025-07-09T18:03:36.485227</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Find Package Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [10]</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.276053</t>
+          <t>2025-07-09T18:03:36.491422</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.277270</t>
+          <t>2025-07-09T20:36:07.336123</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.285881</t>
+          <t>2025-07-09T20:37:32.893677</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 4</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.485227</t>
+          <t>2025-07-09T20:39:40.083563</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Find Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Package height when sagging is too high. Measured 192 mm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.491422</t>
+          <t>2025-07-09T20:40:28.663328</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:07.336123</t>
+          <t>2025-07-09T20:40:28.673805</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package height when sagging is too high. Measured 285 mm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-09T20:37:32.893677</t>
+          <t>2025-07-09T20:52:36.900737</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package height is too high. Measured 215 mm</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:40.083563</t>
+          <t>2025-07-09T20:56:32.092396</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 192 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.663328</t>
+          <t>2025-07-09T20:56:32.103587</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.673805</t>
+          <t>2025-07-09T20:56:56.326403</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 285 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T20:52:36.900737</t>
+          <t>2025-07-09T20:56:56.350654</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -13849,214 +13246,186 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 215 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.092396</t>
+          <t>2025-07-09T21:14:57.673519</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find packages with IDs: [9]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.103587</t>
+          <t>2025-07-09T21:36:10.061029</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.326403</t>
+          <t>2025-07-09T21:36:10.068756</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.350654</t>
+          <t>2025-07-09T21:36:10.076362</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Retrieve Packages Callback: 22</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T21:14:57.673519</t>
+          <t>2025-07-09T21:41:01.897946</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [9]</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.061029</t>
+          <t>2025-07-09T21:41:01.900418</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.068756</t>
+          <t>2025-07-09T21:41:01.993078</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-07-09T21:36:10.076362</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 22</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
+    <row r="70"/>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-07-09T21:41:01.897946</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.900418</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
+          <t>9.83-11.43</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.993078</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 18</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="74"/>
+          <t>11.43-13.03</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>13.03-14.62</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14.62-16.22</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9.83-11.43</t>
+          <t>16.22-17.81</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14066,7 +13435,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11.43-13.03</t>
+          <t>17.81-19.41</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -14076,7 +13445,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13.03-14.62</t>
+          <t>19.41-21.01</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14086,90 +13455,90 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>14.62-16.22</t>
+          <t>21.01-22.60</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>16.22-17.81</t>
+          <t>22.60-24.20</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17.81-19.41</t>
+          <t>24.20-25.79</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>19.41-21.01</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>3</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82"/>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>21.01-22.60</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>22.60-24.20</t>
+          <t>17.83-19.66</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24.20-25.79</t>
+          <t>19.66-21.50</t>
         </is>
       </c>
       <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>21.50-23.34</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="86"/>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>23.34-25.17</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>17.83-19.66</t>
+          <t>25.17-27.01</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14179,130 +13548,130 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>19.66-21.50</t>
+          <t>27.01-28.85</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21.50-23.34</t>
+          <t>28.85-30.68</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>23.34-25.17</t>
+          <t>30.68-32.52</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>25.17-27.01</t>
+          <t>32.52-34.36</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>27.01-28.85</t>
+          <t>34.36-36.19</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>28.85-30.68</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94"/>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>30.68-32.52</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>3</v>
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>32.52-34.36</t>
+          <t>6.16-6.72</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>34.36-36.19</t>
+          <t>6.72-7.28</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7.28-7.84</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7.84-8.40</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0.11-1.30</t>
+          <t>8.40-8.96</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1.30-2.50</t>
+          <t>8.96-9.51</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2.50-3.70</t>
+          <t>9.51-10.07</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -14312,117 +13681,77 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3.70-4.89</t>
+          <t>10.07-10.63</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4.89-6.09</t>
+          <t>10.63-11.19</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6.09-7.29</t>
+          <t>11.19-11.75</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>7.29-8.48</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>9</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106"/>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>8.48-9.68</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>8</v>
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>9.68-10.88</t>
+          <t>2025-07-09 17:00</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10.88-12.07</t>
+          <t>2025-07-09 18:00</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110"/>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-07-09 17:00</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-09 18:00</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>2025-07-09 21:00</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B110" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="115"/>
+    <row r="111"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -328,198 +328,6 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 3'!B37</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 3'!$A$38:$A$47</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 3'!$B$38:$B$47</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 3'!B49</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 3'!$A$50:$A$59</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 3'!$B$50:$B$59</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 3'!B61</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 3'!$A$62:$A$71</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 3'!$B$62:$B$71</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <title>
       <tx>
         <rich>
@@ -544,7 +352,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B73</f>
+              <f>'Day 2'!B133</f>
             </strRef>
           </tx>
           <spPr>
@@ -554,12 +362,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$74:$A$75</f>
+              <f>'Day 2'!$A$134:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$74:$B$75</f>
+              <f>'Day 2'!$B$134:$B$136</f>
             </numRef>
           </val>
         </ser>
@@ -626,7 +434,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -638,7 +446,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B73</f>
+              <f>'Day 3'!B38</f>
             </strRef>
           </tx>
           <spPr>
@@ -648,12 +456,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$74:$A$83</f>
+              <f>'Day 3'!$A$39:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$74:$B$83</f>
+              <f>'Day 3'!$B$39:$B$48</f>
             </numRef>
           </val>
         </ser>
@@ -690,7 +498,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -702,7 +510,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B85</f>
+              <f>'Day 3'!B50</f>
             </strRef>
           </tx>
           <spPr>
@@ -712,12 +520,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$86:$A$95</f>
+              <f>'Day 3'!$A$51:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$86:$B$95</f>
+              <f>'Day 3'!$B$51:$B$60</f>
             </numRef>
           </val>
         </ser>
@@ -754,7 +562,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -766,7 +574,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B97</f>
+              <f>'Day 3'!B62</f>
             </strRef>
           </tx>
           <spPr>
@@ -776,12 +584,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$98:$A$107</f>
+              <f>'Day 3'!$A$63:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$98:$B$107</f>
+              <f>'Day 3'!$B$63:$B$72</f>
             </numRef>
           </val>
         </ser>
@@ -818,7 +626,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -845,7 +653,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B109</f>
+              <f>'Day 3'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -855,12 +663,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$110:$A$112</f>
+              <f>'Day 3'!$A$75:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$110:$B$112</f>
+              <f>'Day 3'!$B$75:$B$76</f>
             </numRef>
           </val>
         </ser>
@@ -927,7 +735,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -939,7 +747,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B71</f>
+              <f>'Day 4'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -949,12 +757,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$72:$A$81</f>
+              <f>'Day 4'!$A$75:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$72:$B$81</f>
+              <f>'Day 4'!$B$75:$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -991,6 +799,243 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B86</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$87:$A$96</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$87:$B$96</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B98</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$99:$A$108</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$99:$B$108</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B110</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$111:$A$113</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$111:$B$113</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1003,7 +1048,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B83</f>
+              <f>'Day 5'!B75</f>
             </strRef>
           </tx>
           <spPr>
@@ -1013,12 +1058,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$84:$A$93</f>
+              <f>'Day 5'!$A$76:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$84:$B$93</f>
+              <f>'Day 5'!$B$76:$B$85</f>
             </numRef>
           </val>
         </ser>
@@ -1243,7 +1288,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B95</f>
+              <f>'Day 5'!B87</f>
             </strRef>
           </tx>
           <spPr>
@@ -1253,12 +1298,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$96:$A$105</f>
+              <f>'Day 5'!$A$88:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$96:$B$105</f>
+              <f>'Day 5'!$B$88:$B$97</f>
             </numRef>
           </val>
         </ser>
@@ -1298,6 +1343,70 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 5'!B99</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 5'!$A$100:$A$109</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 5'!$B$100:$B$109</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
     <title>
       <tx>
         <rich>
@@ -1322,7 +1431,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B107</f>
+              <f>'Day 5'!B111</f>
             </strRef>
           </tx>
           <spPr>
@@ -1332,12 +1441,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$108:$A$110</f>
+              <f>'Day 5'!$A$112:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$108:$B$110</f>
+              <f>'Day 5'!$B$112:$B$114</f>
             </numRef>
           </val>
         </ser>
@@ -1416,7 +1525,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B59</f>
+              <f>'Day 1'!B63</f>
             </strRef>
           </tx>
           <spPr>
@@ -1426,12 +1535,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$60:$A$69</f>
+              <f>'Day 1'!$A$64:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$60:$B$69</f>
+              <f>'Day 1'!$B$64:$B$73</f>
             </numRef>
           </val>
         </ser>
@@ -1480,7 +1589,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B71</f>
+              <f>'Day 1'!B75</f>
             </strRef>
           </tx>
           <spPr>
@@ -1490,12 +1599,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$72:$A$81</f>
+              <f>'Day 1'!$A$76:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$72:$B$81</f>
+              <f>'Day 1'!$B$76:$B$85</f>
             </numRef>
           </val>
         </ser>
@@ -1535,6 +1644,70 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 1'!B87</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 1'!$A$88:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 1'!$B$88:$B$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
     <title>
       <tx>
         <rich>
@@ -1559,7 +1732,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B83</f>
+              <f>'Day 1'!B99</f>
             </strRef>
           </tx>
           <spPr>
@@ -1569,12 +1742,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$84</f>
+              <f>'Day 1'!$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$84</f>
+              <f>'Day 1'!$B$100</f>
             </numRef>
           </val>
         </ser>
@@ -1641,70 +1814,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 2'!B94</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 2'!$A$95:$A$104</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 2'!$B$95:$B$104</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1717,7 +1826,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B106</f>
+              <f>'Day 2'!B97</f>
             </strRef>
           </tx>
           <spPr>
@@ -1727,12 +1836,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$107:$A$116</f>
+              <f>'Day 2'!$A$98:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$107:$B$116</f>
+              <f>'Day 2'!$B$98:$B$107</f>
             </numRef>
           </val>
         </ser>
@@ -1781,7 +1890,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B118</f>
+              <f>'Day 2'!B109</f>
             </strRef>
           </tx>
           <spPr>
@@ -1791,12 +1900,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$119:$A$128</f>
+              <f>'Day 2'!$A$110:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$119:$B$128</f>
+              <f>'Day 2'!$B$110:$B$119</f>
             </numRef>
           </val>
         </ser>
@@ -1836,21 +1945,6 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hourly Package Retrieval Throughput</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
     <plotArea>
       <barChart>
         <barDir val="col"/>
@@ -1860,7 +1954,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B130</f>
+              <f>'Day 2'!B121</f>
             </strRef>
           </tx>
           <spPr>
@@ -1870,12 +1964,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$131:$A$133</f>
+              <f>'Day 2'!$A$122:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$131:$B$133</f>
+              <f>'Day 2'!$B$122:$B$131</f>
             </numRef>
           </val>
         </ser>
@@ -1889,21 +1983,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Hour of Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -1916,21 +1995,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Packages Retrieved</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -1997,7 +2061,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>58</row>
+      <row>62</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2019,7 +2083,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>70</row>
+      <row>74</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2041,7 +2105,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>82</row>
+      <row>86</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2059,6 +2123,28 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2068,7 +2154,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>93</row>
+      <row>96</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2090,7 +2176,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>108</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2112,7 +2198,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>117</row>
+      <row>120</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2134,7 +2220,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>129</row>
+      <row>132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2161,7 +2247,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2183,7 +2269,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>48</row>
+      <row>49</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2205,7 +2291,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2227,7 +2313,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>72</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2254,7 +2340,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>72</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2276,7 +2362,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>84</row>
+      <row>85</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2298,7 +2384,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>96</row>
+      <row>97</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2320,7 +2406,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>108</row>
+      <row>109</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2347,7 +2433,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>70</row>
+      <row>74</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2369,7 +2455,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>82</row>
+      <row>86</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2391,7 +2477,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>94</row>
+      <row>98</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2413,7 +2499,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>106</row>
+      <row>110</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2814,7 +2900,7 @@
         <v>33.49</v>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>20.36</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -2857,7 +2943,7 @@
         <v>26.73</v>
       </c>
       <c r="E3" t="n">
-        <v>8.039999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
@@ -2900,7 +2986,7 @@
         <v>24.47</v>
       </c>
       <c r="E4" t="n">
-        <v>7.24</v>
+        <v>7.35</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -2943,7 +3029,7 @@
         <v>25.15</v>
       </c>
       <c r="E5" t="n">
-        <v>6.88</v>
+        <v>6.73</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
@@ -2986,7 +3072,7 @@
         <v>26.52</v>
       </c>
       <c r="E6" t="n">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -3261,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,6 +3391,21 @@
           <t>Package ID</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3336,6 +3437,19 @@
       <c r="G2" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:20.256411</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>25.45775632799996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3367,6 +3481,19 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:29.195530</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7.825434046000737</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3398,6 +3525,19 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:02:13.838250</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>25.97068918999867</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3429,6 +3569,19 @@
       <c r="G5" t="n">
         <v>5</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:02:39.708783</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>17.31372129900046</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3460,6 +3613,19 @@
       <c r="G6" t="n">
         <v>7</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:03:19.043178</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>29.26283795299969</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3491,6 +3657,19 @@
       <c r="G7" t="n">
         <v>6</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:03:45.298176</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>23.00239465800041</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3522,6 +3701,19 @@
       <c r="G8" t="n">
         <v>8</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:04:20.105888</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>26.14362267699835</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3553,6 +3745,19 @@
       <c r="G9" t="n">
         <v>11</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:05:22.689968</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>23.83769998499702</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3584,6 +3789,19 @@
       <c r="G10" t="n">
         <v>12</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:05:47.215603</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>15.4775147979999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3599,6 +3817,19 @@
       <c r="C11" t="n">
         <v>17.09584704299778</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:06:34.470484</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>23.18112631599797</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3614,6 +3845,19 @@
       <c r="C12" t="n">
         <v>17.57112371599942</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:07:05.496402</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>22.63011557400023</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3629,6 +3873,19 @@
       <c r="C13" t="n">
         <v>17.95931244299936</v>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:07:45.915439</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>22.62298024700067</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3644,6 +3901,19 @@
       <c r="C14" t="n">
         <v>19.13264779399833</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:09:17.400815</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>22.05420880300153</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3659,6 +3929,19 @@
       <c r="C15" t="n">
         <v>19.03255571999762</v>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:09:48.168392</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>16.44586178700047</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3674,6 +3957,19 @@
       <c r="C16" t="n">
         <v>13.03475232900018</v>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:10:30.301397</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>11.49830916399878</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3689,6 +3985,19 @@
       <c r="C17" t="n">
         <v>17.85630472499906</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:11:11.928653</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>11.0140851890028</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3704,6 +4013,19 @@
       <c r="C18" t="n">
         <v>16.50813590300095</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:12:11.422764</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>22.49193067099986</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3719,6 +4041,19 @@
       <c r="C19" t="n">
         <v>19.91787753099925</v>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:12:46.561878</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>22.14876318700044</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3734,213 +4069,233 @@
       <c r="C20" t="n">
         <v>11.70008817900089</v>
       </c>
-    </row>
-    <row r="21"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:13:09.288170</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>13.05020356800014</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:14:29.267844</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>25.37964505200216</v>
+      </c>
+    </row>
     <row r="22">
-      <c r="B22" s="2" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:15:08.138037</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>14.29664806599976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:16:15.441481</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>23.68733280299784</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:16:56.442388</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>23.47725808500036</v>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>33.49</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>16.64</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>22.29</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:04.068974</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 209 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:20.256411</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:29.195530</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:33.762790</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:13.838250</t>
+          <t>2025-07-03T01:01:04.068974</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Package height when sagging is too high. Measured 209 mm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:39.708783</t>
+          <t>2025-07-03T01:01:20.256411</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3950,14 +4305,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:19.043178</t>
+          <t>2025-07-03T01:01:29.195530</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3967,65 +4322,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>No contour found</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:45.298176</t>
+          <t>2025-07-03T01:01:33.762790</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.244721</t>
+          <t>2025-07-03T01:02:13.838250</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 5</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.280598</t>
+          <t>2025-07-03T01:02:39.708783</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:20.105888</t>
+          <t>2025-07-03T01:03:19.043178</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4042,7 +4397,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:22.689968</t>
+          <t>2025-07-03T01:03:45.298176</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4059,41 +4414,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:47.215603</t>
+          <t>2025-07-03T01:04:12.244721</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to find placement for package with ID 5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-03T01:06:34.470484</t>
+          <t>2025-07-03T01:04:12.280598</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:05.496402</t>
+          <t>2025-07-03T01:04:20.105888</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4103,14 +4458,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:45.915439</t>
+          <t>2025-07-03T01:05:22.689968</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4127,7 +4482,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:17.400815</t>
+          <t>2025-07-03T01:05:47.215603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4137,14 +4492,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:48.168392</t>
+          <t>2025-07-03T01:06:34.470484</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4154,14 +4509,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-03T01:10:30.301397</t>
+          <t>2025-07-03T01:07:05.496402</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4171,14 +4526,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-03T01:11:11.928653</t>
+          <t>2025-07-03T01:07:45.915439</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4188,14 +4543,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:11.422764</t>
+          <t>2025-07-03T01:09:17.400815</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4212,7 +4567,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:46.561878</t>
+          <t>2025-07-03T01:09:48.168392</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4222,14 +4577,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:09.288170</t>
+          <t>2025-07-03T01:10:30.301397</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4246,41 +4601,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.701142</t>
+          <t>2025-07-03T01:11:11.928653</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.713890</t>
+          <t>2025-07-03T01:12:11.422764</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-03T01:14:29.267844</t>
+          <t>2025-07-03T01:12:46.561878</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4297,7 +4652,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-03T01:15:08.138037</t>
+          <t>2025-07-03T01:13:09.288170</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4314,41 +4669,41 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-03T01:15:36.387544</t>
+          <t>2025-07-03T01:13:14.701142</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 208 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:15.441481</t>
+          <t>2025-07-03T01:13:14.713890</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:56.442388</t>
+          <t>2025-07-03T01:14:29.267844</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4362,103 +4717,131 @@
         </is>
       </c>
     </row>
-    <row r="58"/>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:15:08.138037</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to extract address: Internal Server Error</t>
+        </is>
+      </c>
+    </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:15:36.387544</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.66-11.82</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3</v>
+          <t>2025-07-03T01:16:15.441481</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11.82-12.98</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>12.98-14.15</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-    </row>
+          <t>2025-07-03T01:16:56.442388</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>14.15-15.31</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15.31-16.47</t>
+          <t>10.66-11.82</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16.47-17.64</t>
+          <t>11.82-12.98</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17.64-18.80</t>
+          <t>12.98-14.15</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>18.80-19.96</t>
+          <t>14.15-15.31</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19.96-21.12</t>
+          <t>15.31-16.47</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4468,100 +4851,100 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21.12-22.29</t>
+          <t>16.47-17.64</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>17.64-18.80</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>18.80-19.96</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16.64-24.19</t>
+          <t>19.96-21.12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>24.19-31.74</t>
+          <t>21.12-22.29</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>31.74-39.29</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
         <v>2</v>
       </c>
     </row>
+    <row r="74"/>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>39.29-46.84</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>46.84-54.39</t>
+          <t>16.64-24.19</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>54.39-61.94</t>
+          <t>24.19-31.74</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>61.94-69.49</t>
+          <t>31.74-39.29</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>69.49-77.04</t>
+          <t>39.29-46.84</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4571,7 +4954,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>77.04-84.59</t>
+          <t>46.84-54.39</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4581,37 +4964,190 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>84.59-92.14</t>
+          <t>54.39-61.94</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>61.94-69.49</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>69.49-77.04</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>77.04-84.59</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84.59-92.14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7.83-9.97</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>9.97-12.11</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12.11-14.26</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>14.26-16.40</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>16.40-18.54</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>18.54-20.69</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20.69-22.83</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>22.83-24.98</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>24.98-27.12</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>27.12-29.26</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98"/>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>2025-07-03 02:00</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B100" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="85"/>
+    <row r="101"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -4624,7 +5160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4980,7 +5516,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:41.316843</t>
+          <t>2025-07-07T17:54:04.304537</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -4989,7 +5525,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.377344214000004</v>
+        <v>7.491145134999897</v>
       </c>
     </row>
     <row r="9">
@@ -5024,7 +5560,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:06.371687</t>
+          <t>2025-07-07T17:54:41.316843</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5033,7 +5569,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>5.975922769000135</v>
+        <v>7.377344214000004</v>
       </c>
     </row>
     <row r="10">
@@ -5068,7 +5604,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:24.965520</t>
+          <t>2025-07-07T17:55:06.371687</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5077,7 +5613,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.126032918999954</v>
+        <v>5.975922769000135</v>
       </c>
     </row>
     <row r="11">
@@ -5112,7 +5648,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-07T17:58:28.737846</t>
+          <t>2025-07-07T17:55:24.965520</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5121,7 +5657,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7.095316783999806</v>
+        <v>6.126032918999954</v>
       </c>
     </row>
     <row r="12">
@@ -5156,7 +5692,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:06.490194</t>
+          <t>2025-07-07T17:58:28.737846</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5165,7 +5701,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7.318892298999799</v>
+        <v>7.095316783999806</v>
       </c>
     </row>
     <row r="13">
@@ -5200,7 +5736,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:32.848347</t>
+          <t>2025-07-07T18:00:06.490194</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5209,7 +5745,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>6.272883712000294</v>
+        <v>7.318892298999799</v>
       </c>
     </row>
     <row r="14">
@@ -5244,7 +5780,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:05.711651</t>
+          <t>2025-07-07T18:00:32.848347</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5253,7 +5789,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.602910526999949</v>
+        <v>6.272883712000294</v>
       </c>
     </row>
     <row r="15">
@@ -5288,7 +5824,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:41.634287</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5297,7 +5833,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>6.580440927999916</v>
+        <v>10.72084570400011</v>
       </c>
     </row>
     <row r="16">
@@ -5332,7 +5868,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:10.621610</t>
+          <t>2025-07-07T18:03:05.711651</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5341,7 +5877,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.69653442300023</v>
+        <v>6.602910526999949</v>
       </c>
     </row>
     <row r="17">
@@ -5376,7 +5912,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:32.236033</t>
+          <t>2025-07-07T18:07:41.634287</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5385,7 +5921,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7.071184787999755</v>
+        <v>6.580440927999916</v>
       </c>
     </row>
     <row r="18">
@@ -5420,7 +5956,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-07T20:12:01.251252</t>
+          <t>2025-07-07T18:08:10.621610</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5429,7 +5965,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>10.56414242500068</v>
+        <v>6.69653442300023</v>
       </c>
     </row>
     <row r="19">
@@ -5464,7 +6000,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-07T20:13:18.434270</t>
+          <t>2025-07-07T18:08:32.236033</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -5473,7 +6009,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>6.220035006999751</v>
+        <v>7.071184787999755</v>
       </c>
     </row>
     <row r="20">
@@ -5508,7 +6044,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:44.373559</t>
+          <t>2025-07-07T20:12:01.251252</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -5517,7 +6053,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>6.278396850999343</v>
+        <v>10.56414242500068</v>
       </c>
     </row>
     <row r="21">
@@ -5552,7 +6088,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:09.435168</t>
+          <t>2025-07-07T20:13:18.434270</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5561,7 +6097,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.347279622001224</v>
+        <v>6.220035006999751</v>
       </c>
     </row>
     <row r="22">
@@ -5596,7 +6132,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:39.210811</t>
+          <t>2025-07-07T20:23:44.373559</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -5605,7 +6141,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>15.53937051200046</v>
+        <v>6.278396850999343</v>
       </c>
     </row>
     <row r="23">
@@ -5640,7 +6176,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:18.304200</t>
+          <t>2025-07-07T20:24:09.435168</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5649,7 +6185,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>30.12905363700156</v>
+        <v>6.347279622001224</v>
       </c>
     </row>
     <row r="24">
@@ -5684,7 +6220,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:29.241532</t>
+          <t>2025-07-07T20:24:39.210811</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5693,7 +6229,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6.710644097000113</v>
+        <v>15.53937051200046</v>
       </c>
     </row>
     <row r="25">
@@ -5728,7 +6264,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:51.873737</t>
+          <t>2025-07-07T20:25:18.304200</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5737,7 +6273,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>6.863947986999847</v>
+        <v>30.12905363700156</v>
       </c>
     </row>
     <row r="26">
@@ -5772,7 +6308,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-07T20:26:58.117529</t>
+          <t>2025-07-07T20:25:29.241532</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5781,7 +6317,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6.488622081000358</v>
+        <v>6.710644097000113</v>
       </c>
     </row>
     <row r="27">
@@ -5816,7 +6352,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-07T20:27:40.532709</t>
+          <t>2025-07-07T20:25:51.873737</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5825,7 +6361,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7.000000726000508</v>
+        <v>6.863947986999847</v>
       </c>
     </row>
     <row r="28">
@@ -5860,7 +6396,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-07T20:28:35.256984</t>
+          <t>2025-07-07T20:26:58.117529</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5869,7 +6405,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>6.290267608999784</v>
+        <v>6.488622081000358</v>
       </c>
     </row>
     <row r="29">
@@ -5904,7 +6440,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-07T20:30:29.905975</t>
+          <t>2025-07-07T20:27:40.532709</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5913,7 +6449,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5.887769596998623</v>
+        <v>7.000000726000508</v>
       </c>
     </row>
     <row r="30">
@@ -5948,7 +6484,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-07T20:31:03.875462</t>
+          <t>2025-07-07T20:28:35.256984</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5957,7 +6493,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5.650815741999395</v>
+        <v>6.290267608999784</v>
       </c>
     </row>
     <row r="31">
@@ -5976,7 +6512,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:22.888056</t>
+          <t>2025-07-07T20:30:29.905975</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5985,7 +6521,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>7.329623222000009</v>
+        <v>5.887769596998623</v>
       </c>
     </row>
     <row r="32">
@@ -6004,7 +6540,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:59.361797</t>
+          <t>2025-07-07T20:31:03.875462</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -6013,7 +6549,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>6.782805582000947</v>
+        <v>5.650815741999395</v>
       </c>
     </row>
     <row r="33">
@@ -6032,7 +6568,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-07T20:39:17.271112</t>
+          <t>2025-07-07T20:32:22.888056</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6041,7 +6577,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>6.085372293999171</v>
+        <v>7.329623222000009</v>
       </c>
     </row>
     <row r="34">
@@ -6060,7 +6596,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-07T20:40:28.037368</t>
+          <t>2025-07-07T20:32:59.361797</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6069,7 +6605,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>7.455442231999768</v>
+        <v>6.782805582000947</v>
       </c>
     </row>
     <row r="35">
@@ -6088,7 +6624,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:00.020547</t>
+          <t>2025-07-07T20:39:17.271112</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6097,13 +6633,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>7.01819500000056</v>
+        <v>6.085372293999171</v>
       </c>
     </row>
     <row r="36">
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:31.608901</t>
+          <t>2025-07-07T20:40:28.037368</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6112,13 +6648,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7.044207163000465</v>
+        <v>7.455442231999768</v>
       </c>
     </row>
     <row r="37">
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:49.221380</t>
+          <t>2025-07-07T20:41:00.020547</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6127,13 +6663,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>8.417750570000862</v>
+        <v>7.01819500000056</v>
       </c>
     </row>
     <row r="38">
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-07-07T20:43:26.219315</t>
+          <t>2025-07-07T20:41:31.608901</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6142,13 +6678,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7.417676393000875</v>
+        <v>7.044207163000465</v>
       </c>
     </row>
     <row r="39">
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:13.126019</t>
+          <t>2025-07-07T20:42:49.221380</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6157,13 +6693,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8.078220472001703</v>
+        <v>8.417750570000862</v>
       </c>
     </row>
     <row r="40">
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:36.476819</t>
+          <t>2025-07-07T20:43:26.219315</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6172,13 +6708,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>6.408298532000117</v>
+        <v>7.417676393000875</v>
       </c>
     </row>
     <row r="41">
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:07.070913</t>
+          <t>2025-07-07T20:44:13.126019</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6187,13 +6723,13 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>9.519743813998502</v>
+        <v>8.078220472001703</v>
       </c>
     </row>
     <row r="42">
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:53.363984</t>
+          <t>2025-07-07T20:44:36.476819</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6202,13 +6738,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7.321187820998603</v>
+        <v>6.408298532000117</v>
       </c>
     </row>
     <row r="43">
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-07-07T20:46:45.131372</t>
+          <t>2025-07-07T20:45:07.070913</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6217,13 +6753,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>10.50983613400058</v>
+        <v>9.519743813998502</v>
       </c>
     </row>
     <row r="44">
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-07-07T20:47:22.820113</t>
+          <t>2025-07-07T20:45:53.363984</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6232,13 +6768,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>6.563831375999143</v>
+        <v>7.321187820998603</v>
       </c>
     </row>
     <row r="45">
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:16.318484</t>
+          <t>2025-07-07T20:46:45.131372</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6247,13 +6783,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>9.671211946000767</v>
+        <v>10.50983613400058</v>
       </c>
     </row>
     <row r="46">
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:55.786657</t>
+          <t>2025-07-07T20:47:22.820113</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6262,13 +6798,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>7.459972787999504</v>
+        <v>6.563831375999143</v>
       </c>
     </row>
     <row r="47">
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:44.183667</t>
+          <t>2025-07-07T20:48:16.318484</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6277,13 +6813,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>8.844760150999718</v>
+        <v>9.671211946000767</v>
       </c>
     </row>
     <row r="48">
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:09.648990</t>
+          <t>2025-07-07T20:48:55.786657</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6292,211 +6828,205 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>6.665908984999987</v>
+        <v>7.459972787999504</v>
       </c>
     </row>
     <row r="49">
       <c r="I49" t="inlineStr">
         <is>
+          <t>2025-07-07T20:49:44.183667</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>8.844760150999718</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:50:09.648990</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>6.665908984999987</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="inlineStr">
+        <is>
           <t>2025-07-07T20:51:20.106347</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>6.566689418999886</v>
       </c>
     </row>
-    <row r="50"/>
-    <row r="51">
-      <c r="B51" s="2" t="inlineStr">
+    <row r="52">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-07-07T21:29:45.978602</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1323295019992656</v>
+      </c>
+    </row>
+    <row r="53"/>
+    <row r="54">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>15.56</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>26.73</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>30.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="55"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+    </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="58"/>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:53:20.633754</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 447 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:54:04.304537</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:54:06.370378</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:13.860722</t>
+          <t>2025-07-07T17:53:20.633754</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6506,31 +7036,31 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 409 mm</t>
+          <t>Package length is too long. Measured 447 mm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:18.597301</t>
+          <t>2025-07-07T17:54:04.304537</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 406 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:43.702674</t>
+          <t>2025-07-07T17:54:06.370378</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6547,7 +7077,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:10.734764</t>
+          <t>2025-07-07T17:54:13.860722</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6557,14 +7087,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package length is too long. Measured 409 mm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:29.067155</t>
+          <t>2025-07-07T17:54:18.597301</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6574,31 +7104,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package length is too long. Measured 406 mm</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.030613</t>
+          <t>2025-07-07T17:54:43.702674</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 7</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.051266</t>
+          <t>2025-07-07T17:55:10.734764</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6608,14 +7138,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:36.125880</t>
+          <t>2025-07-07T17:55:29.067155</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6632,41 +7162,41 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-07T18:00:10.030613</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.874522</t>
+          <t>2025-07-07T18:00:10.051266</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.896068</t>
+          <t>2025-07-07T18:00:36.125880</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6676,116 +7206,116 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.696819</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.718017</t>
+          <t>2025-07-07T18:03:09.874522</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.255685</t>
+          <t>2025-07-07T18:03:09.896068</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.287395</t>
+          <t>2025-07-07T18:07:45.696819</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.394486</t>
+          <t>2025-07-07T18:07:45.718017</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.418117</t>
+          <t>2025-07-07T18:08:14.255685</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:54.984629</t>
+          <t>2025-07-07T18:08:14.287395</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6795,31 +7325,31 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 200 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:11.557410</t>
+          <t>2025-07-07T18:08:35.394486</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 210 mm</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:00.905263</t>
+          <t>2025-07-07T18:08:35.418117</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6829,31 +7359,31 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.929023</t>
+          <t>2025-07-07T20:23:54.984629</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 21</t>
+          <t>Package height when sagging is too high. Measured 200 mm</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.954032</t>
+          <t>2025-07-07T20:24:11.557410</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6863,14 +7393,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height when sagging is too high. Measured 210 mm</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:09.232090</t>
+          <t>2025-07-07T20:25:00.905263</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6880,31 +7410,31 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 424 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:14.735939</t>
+          <t>2025-07-07T20:41:37.929023</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 423 mm</t>
+          <t>Failed to find placement for package with ID 21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:22.678706</t>
+          <t>2025-07-07T20:41:37.954032</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6914,14 +7444,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:25.426897</t>
+          <t>2025-07-07T20:42:09.232090</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6931,31 +7461,31 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>Package length is too long. Measured 424 mm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.227524</t>
+          <t>2025-07-07T20:42:14.735939</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 32</t>
+          <t>Package length is too long. Measured 423 mm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.240163</t>
+          <t>2025-07-07T20:49:22.678706</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6965,265 +7495,286 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-07-07T21:29:45.978602</t>
+          <t>2025-07-07T20:49:25.426897</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-07-07T22:20:17.031515</t>
+          <t>2025-07-07T20:50:13.227524</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed to find placement for package with ID 32</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-07-07T22:20:17.040077</t>
+          <t>2025-07-07T20:50:13.240163</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 3</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-07-07T22:25:39.778239</t>
+          <t>2025-07-07T21:29:45.978602</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-07-07T22:25:39.792261</t>
+          <t>2025-07-07T22:20:17.031515</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 7</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:20:17.040077</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="93"/>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:25:39.778239</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>9.37-10.58</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>10.58-11.79</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-    </row>
+          <t>2025-07-07T22:25:39.792261</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="96"/>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>11.79-13.00</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>5</v>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>13.00-14.21</t>
+          <t>9.37-10.58</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>14.21-15.42</t>
+          <t>10.58-11.79</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>15.42-16.63</t>
+          <t>11.79-13.00</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>16.63-17.84</t>
+          <t>13.00-14.21</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>17.84-19.05</t>
+          <t>14.21-15.42</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>19.05-20.26</t>
+          <t>15.42-16.63</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20.26-21.47</t>
+          <t>16.63-17.84</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>17.84-19.05</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19.05-20.26</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>16.29-18.49</t>
+          <t>20.26-21.47</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>18.49-20.69</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="108"/>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>20.69-22.88</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>3</v>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>22.88-25.08</t>
+          <t>16.29-18.49</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>25.08-27.28</t>
+          <t>18.49-20.69</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7233,37 +7784,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>27.28-29.47</t>
+          <t>20.69-22.88</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>29.47-31.67</t>
+          <t>22.88-25.08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>31.67-33.87</t>
+          <t>25.08-27.28</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>33.87-36.07</t>
+          <t>27.28-29.47</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -7273,170 +7824,200 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>36.07-38.26</t>
+          <t>29.47-31.67</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>31.67-33.87</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>33.87-36.07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5.65-8.10</t>
+          <t>36.07-38.26</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>8.10-10.55</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>8</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120"/>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>10.55-12.99</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2</v>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>12.99-15.44</t>
+          <t>0.13-3.13</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>15.44-17.89</t>
+          <t>3.13-6.13</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>17.89-20.34</t>
+          <t>6.13-9.13</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20.34-22.79</t>
+          <t>9.13-12.13</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>22.79-25.23</t>
+          <t>12.13-15.13</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>25.23-27.68</t>
+          <t>15.13-18.13</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>27.68-30.13</t>
+          <t>18.13-21.13</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>21.13-24.13</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>24.13-27.13</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>27.13-30.13</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132"/>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>2025-07-07 20:00</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B134" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>2025-07-07 21:00</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>2025-07-07 22:00</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B136" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="134"/>
+    <row r="137"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -7449,7 +8030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8195,436 +8776,441 @@
     <row r="20">
       <c r="I20" t="inlineStr">
         <is>
+          <t>2025-07-08T01:33:22.522884</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>9.348954451000282</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" t="inlineStr">
+        <is>
           <t>2025-07-08T01:43:20.830363</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6.77231205300086</v>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22">
-      <c r="B22" s="2" t="inlineStr">
+    <row r="22"/>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>7.24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>7.35</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>21.71</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>34.15</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>11.35</t>
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:13:10.554253</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.572025</t>
+          <t>2025-07-08T01:13:10.554253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T01:21:37.898638</t>
+          <t>2025-07-08T01:13:10.572025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Vision Init Service</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.791967</t>
+          <t>2025-07-08T01:21:37.898638</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Vision Init Service</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.809127</t>
+          <t>2025-07-08T01:32:08.791967</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 277 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T01:32:08.809127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package height when sagging is too high. Measured 277 mm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:48.987836</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 403 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>2025-07-08T01:40:48.987836</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 403 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2025-07-08T01:40:56.515946</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Package length is too long. Measured 404 mm</t>
         </is>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8.96-10.23</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.23-11.51</t>
+          <t>8.96-10.23</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11.51-12.78</t>
+          <t>10.23-11.51</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12.78-14.06</t>
+          <t>11.51-12.78</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14.06-15.33</t>
+          <t>12.78-14.06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15.33-16.61</t>
+          <t>14.06-15.33</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16.61-17.88</t>
+          <t>15.33-16.61</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>17.88-19.16</t>
+          <t>16.61-17.88</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19.16-20.43</t>
+          <t>17.88-19.16</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>19.16-20.43</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>20.43-21.71</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>16.46-18.23</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18.23-20.00</t>
+          <t>16.46-18.23</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20.00-21.77</t>
+          <t>18.23-20.00</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -8634,7 +9220,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21.77-23.53</t>
+          <t>20.00-21.77</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -8644,47 +9230,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>23.53-25.30</t>
+          <t>21.77-23.53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>25.30-27.07</t>
+          <t>23.53-25.30</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>27.07-28.84</t>
+          <t>25.30-27.07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>28.84-30.61</t>
+          <t>27.07-28.84</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.61-32.38</t>
+          <t>28.84-30.61</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -8694,80 +9280,80 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>30.61-32.38</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>32.38-34.15</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B60" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>5.48-6.07</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6.07-6.65</t>
+          <t>5.48-6.07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.65-7.24</t>
+          <t>6.07-6.65</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7.24-7.83</t>
+          <t>6.65-7.24</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.83-8.42</t>
+          <t>7.24-7.83</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8.42-9.00</t>
+          <t>7.83-8.42</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -8777,7 +9363,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9.00-9.59</t>
+          <t>8.42-9.00</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -8787,17 +9373,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9.59-10.18</t>
+          <t>9.00-9.59</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10.18-10.76</t>
+          <t>9.59-10.18</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -8807,47 +9393,57 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>10.18-10.76</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>10.76-11.35</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B72" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-07-08 01:00</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>2025-07-08 01:00</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>2025-07-08 02:00</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B76" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="76"/>
+    <row r="77"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -8860,7 +9456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10447,210 +11043,208 @@
         <v>7.020958000000974</v>
       </c>
     </row>
-    <row r="44"/>
-    <row r="45">
-      <c r="B45" s="2" t="inlineStr">
+    <row r="44">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1523438369986252</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>6.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>6.73</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>23.06</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>37.99</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>10.40</t>
         </is>
       </c>
     </row>
-    <row r="49"/>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:53.043192</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.065961</t>
+          <t>2025-07-08T22:56:53.043192</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise Callback</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to pick and raise</t>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.150607</t>
+          <t>2025-07-08T22:56:53.065961</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 11</t>
+          <t>Failed to pick and raise</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.174089</t>
+          <t>2025-07-08T23:16:59.150607</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 11</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-08T23:26:59.288288</t>
+          <t>2025-07-08T23:16:59.174089</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10660,14 +11254,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 204 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-08T23:27:06.637060</t>
+          <t>2025-07-08T23:26:59.288288</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10677,48 +11271,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 414 mm</t>
+          <t>Package height is too high. Measured 204 mm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.228905</t>
+          <t>2025-07-08T23:27:06.637060</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 37</t>
+          <t>Package length is too long. Measured 414 mm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.248970</t>
+          <t>2025-07-08T23:42:46.228905</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 37</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09T00:16:43.556644</t>
+          <t>2025-07-08T23:42:46.248970</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10728,271 +11322,278 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 410 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.528185</t>
+          <t>2025-07-09T00:16:43.556644</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 38</t>
+          <t>Package length is too long. Measured 410 mm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.552050</t>
+          <t>2025-07-09T00:17:16.528185</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T00:22:12.580287</t>
+          <t>2025-07-09T00:17:16.552050</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.132885</t>
+          <t>2025-07-09T00:22:12.580287</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.138871</t>
+          <t>2025-07-09T00:57:29.132885</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.145963</t>
+          <t>2025-07-09T00:57:29.138871</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 8</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.572326</t>
+          <t>2025-07-09T00:57:29.145963</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.579425</t>
+          <t>2025-07-09T00:58:22.572326</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 9</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.729963</t>
+          <t>2025-07-09T00:58:22.579425</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.741982</t>
+          <t>2025-07-09T01:04:06.729963</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 2</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-09T01:14:06.484565</t>
+          <t>2025-07-09T01:04:06.741982</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>2025-07-09T01:14:06.484565</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>2025-07-09T01:14:06.501028</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Retrieve Packages Callback: 18</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>9.22-10.61</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10.61-11.99</t>
+          <t>9.22-10.61</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>11.99-13.37</t>
+          <t>10.61-11.99</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>13.37-14.76</t>
+          <t>11.99-13.37</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>14.76-16.14</t>
+          <t>13.37-14.76</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -11002,7 +11603,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>16.14-17.52</t>
+          <t>14.76-16.14</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -11012,7 +11613,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>17.52-18.91</t>
+          <t>16.14-17.52</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -11022,7 +11623,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>18.91-20.29</t>
+          <t>17.52-18.91</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -11032,60 +11633,60 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20.29-21.67</t>
+          <t>18.91-20.29</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21.67-23.06</t>
+          <t>20.29-21.67</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84"/>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21.67-23.06</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>15.56-17.81</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>17.81-20.05</t>
+          <t>15.56-17.81</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20.05-22.29</t>
+          <t>17.81-20.05</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -11095,37 +11696,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>22.29-24.53</t>
+          <t>20.05-22.29</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24.53-26.78</t>
+          <t>22.29-24.53</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>26.78-29.02</t>
+          <t>24.53-26.78</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>29.02-31.26</t>
+          <t>26.78-29.02</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -11135,190 +11736,200 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>31.26-33.50</t>
+          <t>29.02-31.26</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>33.50-35.75</t>
+          <t>31.26-33.50</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>33.50-35.75</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>35.75-37.99</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B96" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>5.67-6.14</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6.14-6.61</t>
+          <t>0.15-1.18</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6.61-7.09</t>
+          <t>1.18-2.20</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7.09-7.56</t>
+          <t>2.20-3.23</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7.56-8.03</t>
+          <t>3.23-4.25</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8.03-8.51</t>
+          <t>4.25-5.28</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8.51-8.98</t>
+          <t>5.28-6.30</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>8.98-9.45</t>
+          <t>6.30-7.32</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9.45-9.92</t>
+          <t>7.32-8.35</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9.92-10.40</t>
+          <t>8.35-9.37</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108"/>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.37-10.40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2025-07-08 23:00</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-07-09 00:00</t>
+          <t>2025-07-08 23:00</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>2025-07-09 00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>2025-07-09 01:00</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B113" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="113"/>
+    <row r="114"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -11331,7 +11942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11511,7 +12122,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:03.638161</t>
+          <t>2025-07-09T17:01:47.037100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11520,7 +12131,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6.897099805999915</v>
+        <v>9.247409285999993</v>
       </c>
     </row>
     <row r="5">
@@ -11555,7 +12166,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:37.617454</t>
+          <t>2025-07-09T17:03:03.638161</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11564,7 +12175,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.614939216000039</v>
+        <v>6.897099805999915</v>
       </c>
     </row>
     <row r="6">
@@ -11599,7 +12210,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-09T17:04:28.762056</t>
+          <t>2025-07-09T17:03:37.617454</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11608,7 +12219,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6.161488025999915</v>
+        <v>6.614939216000039</v>
       </c>
     </row>
     <row r="7">
@@ -11643,7 +12254,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-09T17:05:45.443970</t>
+          <t>2025-07-09T17:04:28.762056</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -11652,7 +12263,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7.119074510999781</v>
+        <v>6.161488025999915</v>
       </c>
     </row>
     <row r="8">
@@ -11687,7 +12298,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-09T17:06:45.293099</t>
+          <t>2025-07-09T17:05:45.443970</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -11696,7 +12307,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6.159382433000019</v>
+        <v>7.119074510999781</v>
       </c>
     </row>
     <row r="9">
@@ -11731,7 +12342,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-09T17:07:24.072217</t>
+          <t>2025-07-09T17:06:45.293099</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -11740,7 +12351,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6.417692975000136</v>
+        <v>6.159382433000019</v>
       </c>
     </row>
     <row r="10">
@@ -11775,7 +12386,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-09T17:26:59.647686</t>
+          <t>2025-07-09T17:07:24.072217</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -11784,7 +12395,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.451890132000244</v>
+        <v>6.417692975000136</v>
       </c>
     </row>
     <row r="11">
@@ -11819,7 +12430,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-09T20:30:30.101595</t>
+          <t>2025-07-09T17:08:06.371557</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -11828,7 +12439,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.816499478999503</v>
+        <v>0.1080534509999325</v>
       </c>
     </row>
     <row r="12">
@@ -11863,7 +12474,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:01.738214</t>
+          <t>2025-07-09T17:26:59.647686</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -11872,7 +12483,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>8.540726980000727</v>
+        <v>6.451890132000244</v>
       </c>
     </row>
     <row r="13">
@@ -11907,7 +12518,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:37.819749</t>
+          <t>2025-07-09T20:30:30.101595</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -11916,7 +12527,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.299677785000313</v>
+        <v>8.816499478999503</v>
       </c>
     </row>
     <row r="14">
@@ -11951,7 +12562,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-09T20:32:20.341560</t>
+          <t>2025-07-09T20:31:01.738214</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -11960,7 +12571,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>11.75148576600077</v>
+        <v>8.540726980000727</v>
       </c>
     </row>
     <row r="15">
@@ -11995,7 +12606,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:07.793293</t>
+          <t>2025-07-09T20:31:37.819749</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -12004,7 +12615,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.708521808000114</v>
+        <v>7.299677785000313</v>
       </c>
     </row>
     <row r="16">
@@ -12039,7 +12650,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:49.288918</t>
+          <t>2025-07-09T20:32:20.341560</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -12048,7 +12659,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>9.006529381000291</v>
+        <v>11.75148576600077</v>
       </c>
     </row>
     <row r="17">
@@ -12083,7 +12694,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-09T20:34:30.067643</t>
+          <t>2025-07-09T20:33:07.793293</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -12092,7 +12703,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>11.63869443600015</v>
+        <v>7.708521808000114</v>
       </c>
     </row>
     <row r="18">
@@ -12127,7 +12738,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:05.386697</t>
+          <t>2025-07-09T20:33:49.288918</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -12136,7 +12747,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>8.106902147000255</v>
+        <v>9.006529381000291</v>
       </c>
     </row>
     <row r="19">
@@ -12171,7 +12782,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:35.226695</t>
+          <t>2025-07-09T20:34:30.067643</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -12180,7 +12791,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>8.520435885000552</v>
+        <v>11.63869443600015</v>
       </c>
     </row>
     <row r="20">
@@ -12215,7 +12826,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:29.537481</t>
+          <t>2025-07-09T20:35:05.386697</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -12224,7 +12835,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8.480712200000198</v>
+        <v>8.106902147000255</v>
       </c>
     </row>
     <row r="21">
@@ -12259,7 +12870,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:57.813144</t>
+          <t>2025-07-09T20:35:35.226695</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -12268,7 +12879,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.521772070000225</v>
+        <v>8.520435885000552</v>
       </c>
     </row>
     <row r="22">
@@ -12303,7 +12914,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:33.987930</t>
+          <t>2025-07-09T20:36:07.336123</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -12312,7 +12923,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>8.629125122000005</v>
+        <v>12.07209446199977</v>
       </c>
     </row>
     <row r="23">
@@ -12347,7 +12958,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:59.265073</t>
+          <t>2025-07-09T20:36:29.537481</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -12356,7 +12967,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>6.954240297000069</v>
+        <v>8.480712200000198</v>
       </c>
     </row>
     <row r="24">
@@ -12391,7 +13002,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:29.977912</t>
+          <t>2025-07-09T20:36:57.813144</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -12400,7 +13011,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>7.272197137000148</v>
+        <v>6.521772070000225</v>
       </c>
     </row>
     <row r="25">
@@ -12435,7 +13046,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:17.407669</t>
+          <t>2025-07-09T20:37:32.893677</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -12444,7 +13055,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>6.873431026000617</v>
+        <v>9.810703275999913</v>
       </c>
     </row>
     <row r="26">
@@ -12479,7 +13090,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:55.082577</t>
+          <t>2025-07-09T20:38:33.987930</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -12488,7 +13099,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>7.356497611000123</v>
+        <v>8.629125122000005</v>
       </c>
     </row>
     <row r="27">
@@ -12523,7 +13134,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-09T20:41:52.569669</t>
+          <t>2025-07-09T20:38:59.265073</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -12532,7 +13143,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>6.921981114000118</v>
+        <v>6.954240297000069</v>
       </c>
     </row>
     <row r="28">
@@ -12567,7 +13178,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-09T20:42:31.549409</t>
+          <t>2025-07-09T20:39:29.977912</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -12576,7 +13187,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>8.263683973000298</v>
+        <v>7.272197137000148</v>
       </c>
     </row>
     <row r="29">
@@ -12611,7 +13222,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:08.035381</t>
+          <t>2025-07-09T20:40:17.407669</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -12620,7 +13231,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>9.204706790000273</v>
+        <v>6.873431026000617</v>
       </c>
     </row>
     <row r="30">
@@ -12639,7 +13250,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:40.411913</t>
+          <t>2025-07-09T20:40:55.082577</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -12648,7 +13259,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>6.803173390999291</v>
+        <v>7.356497611000123</v>
       </c>
     </row>
     <row r="31">
@@ -12667,7 +13278,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-09T20:45:03.272091</t>
+          <t>2025-07-09T20:41:52.569669</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -12676,7 +13287,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>10.16644128699954</v>
+        <v>6.921981114000118</v>
       </c>
     </row>
     <row r="32">
@@ -12695,7 +13306,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-09T20:45:40.087592</t>
+          <t>2025-07-09T20:42:31.549409</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -12704,7 +13315,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>7.225754842000242</v>
+        <v>8.263683973000298</v>
       </c>
     </row>
     <row r="33">
@@ -12723,7 +13334,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-09T20:46:28.717921</t>
+          <t>2025-07-09T20:43:08.035381</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -12732,7 +13343,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>7.40263581399995</v>
+        <v>9.204706790000273</v>
       </c>
     </row>
     <row r="34">
@@ -12751,7 +13362,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:27.405597</t>
+          <t>2025-07-09T20:43:40.411913</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -12760,483 +13371,475 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>10.9151503310004</v>
+        <v>6.803173390999291</v>
       </c>
     </row>
     <row r="35">
       <c r="I35" t="inlineStr">
         <is>
+          <t>2025-07-09T20:45:03.272091</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>10.16644128699954</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:45:40.087592</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>7.225754842000242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:46:28.717921</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.40263581399995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:27.405597</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>10.9151503310004</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
           <t>2025-07-09T20:56:48.251831</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>7.771012766999775</v>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
+    <row r="40"/>
+    <row r="41">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J41" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>17.83</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>36.19</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>11.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:01:47.037100</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:04:12.589235</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 438 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:05:01.688080</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 411 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:08:06.371557</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-09T17:45:36.009750</t>
+          <t>2025-07-09T17:01:47.037100</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [10]</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.276053</t>
+          <t>2025-07-09T17:04:12.589235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package length is too long. Measured 438 mm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.277270</t>
+          <t>2025-07-09T17:05:01.688080</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Package length is too long. Measured 411 mm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.285881</t>
+          <t>2025-07-09T17:08:06.371557</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 4</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.485227</t>
+          <t>2025-07-09T17:45:36.009750</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Find Package Callback</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Failed to find packages with IDs: [10]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.491422</t>
+          <t>2025-07-09T18:02:26.276053</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:07.336123</t>
+          <t>2025-07-09T18:02:26.277270</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-09T20:37:32.893677</t>
+          <t>2025-07-09T18:02:26.285881</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Retrieve Packages Callback: 4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:40.083563</t>
+          <t>2025-07-09T18:03:36.485227</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Find Package Callback</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 192 mm</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.663328</t>
+          <t>2025-07-09T18:03:36.491422</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.673805</t>
+          <t>2025-07-09T20:36:07.336123</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 285 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-09T20:52:36.900737</t>
+          <t>2025-07-09T20:37:32.893677</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 215 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.092396</t>
+          <t>2025-07-09T20:39:40.083563</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height when sagging is too high. Measured 192 mm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.103587</t>
+          <t>2025-07-09T20:40:28.663328</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.326403</t>
+          <t>2025-07-09T20:40:28.673805</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height when sagging is too high. Measured 285 mm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.350654</t>
+          <t>2025-07-09T20:52:36.900737</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -13246,186 +13849,214 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package height is too high. Measured 215 mm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T21:14:57.673519</t>
+          <t>2025-07-09T20:56:32.092396</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [9]</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.061029</t>
+          <t>2025-07-09T20:56:32.103587</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.068756</t>
+          <t>2025-07-09T20:56:56.326403</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.076362</t>
+          <t>2025-07-09T20:56:56.350654</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 22</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.897946</t>
+          <t>2025-07-09T21:14:57.673519</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find packages with IDs: [9]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.900418</t>
+          <t>2025-07-09T21:36:10.061029</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.993078</t>
+          <t>2025-07-09T21:36:10.068756</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 18</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:36:10.076362</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 22</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="70"/>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:41:01.897946</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9.83-11.43</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5</v>
+          <t>2025-07-09T21:41:01.900418</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>11.43-13.03</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>13.03-14.62</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
-      </c>
-    </row>
+          <t>2025-07-09T21:41:01.993078</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 18</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>14.62-16.22</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>11</v>
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>16.22-17.81</t>
+          <t>9.83-11.43</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -13435,7 +14066,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>17.81-19.41</t>
+          <t>11.43-13.03</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -13445,7 +14076,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19.41-21.01</t>
+          <t>13.03-14.62</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -13455,90 +14086,90 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>21.01-22.60</t>
+          <t>14.62-16.22</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22.60-24.20</t>
+          <t>16.22-17.81</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24.20-25.79</t>
+          <t>17.81-19.41</t>
         </is>
       </c>
       <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>19.41-21.01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>21.01-22.60</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="82"/>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>17.83-19.66</t>
+          <t>22.60-24.20</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>19.66-21.50</t>
+          <t>24.20-25.79</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>21.50-23.34</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="86"/>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>23.34-25.17</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>7</v>
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>25.17-27.01</t>
+          <t>17.83-19.66</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -13548,130 +14179,130 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>27.01-28.85</t>
+          <t>19.66-21.50</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>28.85-30.68</t>
+          <t>21.50-23.34</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.68-32.52</t>
+          <t>23.34-25.17</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>32.52-34.36</t>
+          <t>25.17-27.01</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>34.36-36.19</t>
+          <t>27.01-28.85</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>28.85-30.68</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>30.68-32.52</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6.16-6.72</t>
+          <t>32.52-34.36</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6.72-7.28</t>
+          <t>34.36-36.19</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>7.28-7.84</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>5</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98"/>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>7.84-8.40</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>3</v>
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8.40-8.96</t>
+          <t>0.11-1.30</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8.96-9.51</t>
+          <t>1.30-2.50</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9.51-10.07</t>
+          <t>2.50-3.70</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -13681,77 +14312,117 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10.07-10.63</t>
+          <t>3.70-4.89</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10.63-11.19</t>
+          <t>4.89-6.09</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>11.19-11.75</t>
+          <t>6.09-7.29</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7.29-8.48</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>9</v>
+      </c>
+    </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.48-9.68</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-07-09 17:00</t>
+          <t>9.68-10.88</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>10.88-12.07</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-09 17:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>2025-07-09 18:00</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B113" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>2025-07-09 21:00</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B114" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="111"/>
+    <row r="115"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -328,6 +328,198 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 3'!B37</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 3'!$A$38:$A$47</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 3'!$B$38:$B$47</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 3'!B49</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 3'!$A$50:$A$59</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 3'!$B$50:$B$59</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 3'!B61</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 3'!$A$62:$A$71</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 3'!$B$62:$B$71</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
     <title>
       <tx>
         <rich>
@@ -352,7 +544,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B133</f>
+              <f>'Day 3'!B73</f>
             </strRef>
           </tx>
           <spPr>
@@ -362,12 +554,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$134:$A$136</f>
+              <f>'Day 3'!$A$74:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$134:$B$136</f>
+              <f>'Day 3'!$B$74:$B$75</f>
             </numRef>
           </val>
         </ser>
@@ -434,7 +626,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -446,7 +638,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B38</f>
+              <f>'Day 4'!B73</f>
             </strRef>
           </tx>
           <spPr>
@@ -456,12 +648,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$39:$A$48</f>
+              <f>'Day 4'!$A$74:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$39:$B$48</f>
+              <f>'Day 4'!$B$74:$B$83</f>
             </numRef>
           </val>
         </ser>
@@ -498,7 +690,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -510,7 +702,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B50</f>
+              <f>'Day 4'!B85</f>
             </strRef>
           </tx>
           <spPr>
@@ -520,12 +712,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$51:$A$60</f>
+              <f>'Day 4'!$A$86:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$51:$B$60</f>
+              <f>'Day 4'!$B$86:$B$95</f>
             </numRef>
           </val>
         </ser>
@@ -562,7 +754,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -574,7 +766,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B62</f>
+              <f>'Day 4'!B97</f>
             </strRef>
           </tx>
           <spPr>
@@ -584,12 +776,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$63:$A$72</f>
+              <f>'Day 4'!$A$98:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$63:$B$72</f>
+              <f>'Day 4'!$B$98:$B$107</f>
             </numRef>
           </val>
         </ser>
@@ -626,7 +818,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -653,7 +845,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B74</f>
+              <f>'Day 4'!B109</f>
             </strRef>
           </tx>
           <spPr>
@@ -663,12 +855,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$75:$A$76</f>
+              <f>'Day 4'!$A$110:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$75:$B$76</f>
+              <f>'Day 4'!$B$110:$B$112</f>
             </numRef>
           </val>
         </ser>
@@ -735,7 +927,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -747,7 +939,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B74</f>
+              <f>'Day 5'!B71</f>
             </strRef>
           </tx>
           <spPr>
@@ -757,12 +949,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$75:$A$84</f>
+              <f>'Day 5'!$A$72:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$75:$B$84</f>
+              <f>'Day 5'!$B$72:$B$81</f>
             </numRef>
           </val>
         </ser>
@@ -799,243 +991,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 4'!B86</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 4'!$A$87:$A$96</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 4'!$B$87:$B$96</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 4'!B98</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 4'!$A$99:$A$108</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 4'!$B$99:$B$108</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hourly Package Retrieval Throughput</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 4'!B110</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 4'!$A$111:$A$113</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 4'!$B$111:$B$113</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Hour of Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Packages Retrieved</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1048,7 +1003,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B75</f>
+              <f>'Day 5'!B83</f>
             </strRef>
           </tx>
           <spPr>
@@ -1058,12 +1013,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$76:$A$85</f>
+              <f>'Day 5'!$A$84:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$76:$B$85</f>
+              <f>'Day 5'!$B$84:$B$93</f>
             </numRef>
           </val>
         </ser>
@@ -1288,7 +1243,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B87</f>
+              <f>'Day 5'!B95</f>
             </strRef>
           </tx>
           <spPr>
@@ -1298,12 +1253,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$88:$A$97</f>
+              <f>'Day 5'!$A$96:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$88:$B$97</f>
+              <f>'Day 5'!$B$96:$B$105</f>
             </numRef>
           </val>
         </ser>
@@ -1343,70 +1298,6 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 5'!B99</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 5'!$A$100:$A$109</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 5'!$B$100:$B$109</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <title>
       <tx>
         <rich>
@@ -1431,7 +1322,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B111</f>
+              <f>'Day 5'!B107</f>
             </strRef>
           </tx>
           <spPr>
@@ -1441,12 +1332,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$112:$A$114</f>
+              <f>'Day 5'!$A$108:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$112:$B$114</f>
+              <f>'Day 5'!$B$108:$B$110</f>
             </numRef>
           </val>
         </ser>
@@ -1525,7 +1416,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B63</f>
+              <f>'Day 1'!B59</f>
             </strRef>
           </tx>
           <spPr>
@@ -1535,12 +1426,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$64:$A$73</f>
+              <f>'Day 1'!$A$60:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$64:$B$73</f>
+              <f>'Day 1'!$B$60:$B$69</f>
             </numRef>
           </val>
         </ser>
@@ -1589,7 +1480,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B75</f>
+              <f>'Day 1'!B71</f>
             </strRef>
           </tx>
           <spPr>
@@ -1599,12 +1490,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$76:$A$85</f>
+              <f>'Day 1'!$A$72:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$76:$B$85</f>
+              <f>'Day 1'!$B$72:$B$81</f>
             </numRef>
           </val>
         </ser>
@@ -1644,70 +1535,6 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 1'!B87</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 1'!$A$88:$A$97</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 1'!$B$88:$B$97</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <title>
       <tx>
         <rich>
@@ -1732,7 +1559,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B99</f>
+              <f>'Day 1'!B83</f>
             </strRef>
           </tx>
           <spPr>
@@ -1742,12 +1569,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$100</f>
+              <f>'Day 1'!$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$100</f>
+              <f>'Day 1'!$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -1814,6 +1641,70 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 2'!B94</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 2'!$A$95:$A$104</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 2'!$B$95:$B$104</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1826,7 +1717,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B97</f>
+              <f>'Day 2'!B106</f>
             </strRef>
           </tx>
           <spPr>
@@ -1836,12 +1727,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$98:$A$107</f>
+              <f>'Day 2'!$A$107:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$98:$B$107</f>
+              <f>'Day 2'!$B$107:$B$116</f>
             </numRef>
           </val>
         </ser>
@@ -1890,7 +1781,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B109</f>
+              <f>'Day 2'!B118</f>
             </strRef>
           </tx>
           <spPr>
@@ -1900,12 +1791,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$110:$A$119</f>
+              <f>'Day 2'!$A$119:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$110:$B$119</f>
+              <f>'Day 2'!$B$119:$B$128</f>
             </numRef>
           </val>
         </ser>
@@ -1945,6 +1836,21 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
     <plotArea>
       <barChart>
         <barDir val="col"/>
@@ -1954,7 +1860,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B121</f>
+              <f>'Day 2'!B130</f>
             </strRef>
           </tx>
           <spPr>
@@ -1964,12 +1870,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$122:$A$131</f>
+              <f>'Day 2'!$A$131:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$122:$B$131</f>
+              <f>'Day 2'!$B$131:$B$133</f>
             </numRef>
           </val>
         </ser>
@@ -1983,6 +1889,21 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -1995,6 +1916,21 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -2061,7 +1997,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>58</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2083,7 +2019,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>74</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2105,7 +2041,78 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>93</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>117</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2127,100 +2134,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>98</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>96</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>120</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>132</row>
+      <row>129</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2247,7 +2161,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2269,7 +2183,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>49</row>
+      <row>48</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2291,7 +2205,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>61</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2313,7 +2227,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>72</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2340,7 +2254,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>73</row>
+      <row>72</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2362,7 +2276,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>85</row>
+      <row>84</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2384,7 +2298,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>97</row>
+      <row>96</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2406,7 +2320,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>109</row>
+      <row>108</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2433,7 +2347,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>74</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2455,7 +2369,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>82</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2477,7 +2391,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>98</row>
+      <row>94</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2499,7 +2413,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>110</row>
+      <row>106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2900,7 +2814,7 @@
         <v>33.49</v>
       </c>
       <c r="E2" t="n">
-        <v>20.36</v>
+        <v/>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -2943,7 +2857,7 @@
         <v>26.73</v>
       </c>
       <c r="E3" t="n">
-        <v>7.93</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
@@ -2986,7 +2900,7 @@
         <v>24.47</v>
       </c>
       <c r="E4" t="n">
-        <v>7.35</v>
+        <v>7.24</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -3029,7 +2943,7 @@
         <v>25.15</v>
       </c>
       <c r="E5" t="n">
-        <v>6.73</v>
+        <v>6.88</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
@@ -3072,7 +2986,7 @@
         <v>26.52</v>
       </c>
       <c r="E6" t="n">
-        <v>7.97</v>
+        <v>7.99</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -3347,7 +3261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3437,19 +3351,6 @@
       <c r="G2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:20.256411</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>25.45775632799996</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3481,19 +3382,6 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:29.195530</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>7.825434046000737</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3525,19 +3413,6 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:02:13.838250</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>25.97068918999867</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3569,19 +3444,6 @@
       <c r="G5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:02:39.708783</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>17.31372129900046</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3613,19 +3475,6 @@
       <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:03:19.043178</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>29.26283795299969</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3657,19 +3506,6 @@
       <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:03:45.298176</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>23.00239465800041</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3701,19 +3537,6 @@
       <c r="G8" t="n">
         <v>8</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:04:20.105888</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>26.14362267699835</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3745,19 +3568,6 @@
       <c r="G9" t="n">
         <v>11</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:05:22.689968</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>23.83769998499702</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3789,19 +3599,6 @@
       <c r="G10" t="n">
         <v>12</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:05:47.215603</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>15.4775147979999</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3817,19 +3614,6 @@
       <c r="C11" t="n">
         <v>17.09584704299778</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:06:34.470484</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>23.18112631599797</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3845,19 +3629,6 @@
       <c r="C12" t="n">
         <v>17.57112371599942</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:07:05.496402</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>22.63011557400023</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3873,19 +3644,6 @@
       <c r="C13" t="n">
         <v>17.95931244299936</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:07:45.915439</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>22.62298024700067</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3901,19 +3659,6 @@
       <c r="C14" t="n">
         <v>19.13264779399833</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:09:17.400815</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>22.05420880300153</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3929,19 +3674,6 @@
       <c r="C15" t="n">
         <v>19.03255571999762</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:09:48.168392</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>16.44586178700047</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3957,19 +3689,6 @@
       <c r="C16" t="n">
         <v>13.03475232900018</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:10:30.301397</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>11.49830916399878</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3985,19 +3704,6 @@
       <c r="C17" t="n">
         <v>17.85630472499906</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:11:11.928653</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>11.0140851890028</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4013,19 +3719,6 @@
       <c r="C18" t="n">
         <v>16.50813590300095</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:12:11.422764</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>22.49193067099986</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4041,19 +3734,6 @@
       <c r="C19" t="n">
         <v>19.91787753099925</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:12:46.561878</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>22.14876318700044</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4069,233 +3749,213 @@
       <c r="C20" t="n">
         <v>11.70008817900089</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:13:09.288170</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>13.05020356800014</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:14:29.267844</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>25.37964505200216</v>
-      </c>
-    </row>
+    </row>
+    <row r="21"/>
     <row r="22">
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:15:08.138037</t>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>14.29664806599976</v>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:15.441481</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>23.68733280299784</v>
+          <t>Average</t>
+        </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:56.442388</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>23.47725808500036</v>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26">
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
+          <t>Minimum</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>33.49</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20.36</t>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:04.068974</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>16.64</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>7.83</t>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 209 mm</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:20.256411</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22.29</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>29.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="30"/>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:29.195530</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:33.762790</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:04.068974</t>
+          <t>2025-07-03T01:02:13.838250</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 209 mm</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:20.256411</t>
+          <t>2025-07-03T01:02:39.708783</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4305,14 +3965,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:29.195530</t>
+          <t>2025-07-03T01:03:19.043178</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4322,65 +3982,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No contour found</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-03T01:01:33.762790</t>
+          <t>2025-07-03T01:03:45.298176</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:13.838250</t>
+          <t>2025-07-03T01:04:12.244721</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to find placement for package with ID 5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:39.708783</t>
+          <t>2025-07-03T01:04:12.280598</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:19.043178</t>
+          <t>2025-07-03T01:04:20.105888</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4397,7 +4057,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:45.298176</t>
+          <t>2025-07-03T01:05:22.689968</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4414,41 +4074,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.244721</t>
+          <t>2025-07-03T01:05:47.215603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 5</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.280598</t>
+          <t>2025-07-03T01:06:34.470484</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:20.105888</t>
+          <t>2025-07-03T01:07:05.496402</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4458,14 +4118,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:22.689968</t>
+          <t>2025-07-03T01:07:45.915439</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4482,7 +4142,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:47.215603</t>
+          <t>2025-07-03T01:09:17.400815</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4492,14 +4152,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-03T01:06:34.470484</t>
+          <t>2025-07-03T01:09:48.168392</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4509,14 +4169,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:05.496402</t>
+          <t>2025-07-03T01:10:30.301397</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4526,14 +4186,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:45.915439</t>
+          <t>2025-07-03T01:11:11.928653</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4543,14 +4203,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:17.400815</t>
+          <t>2025-07-03T01:12:11.422764</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4567,7 +4227,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:48.168392</t>
+          <t>2025-07-03T01:12:46.561878</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4577,14 +4237,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-03T01:10:30.301397</t>
+          <t>2025-07-03T01:13:09.288170</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4601,41 +4261,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-03T01:11:11.928653</t>
+          <t>2025-07-03T01:13:14.701142</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:11.422764</t>
+          <t>2025-07-03T01:13:14.713890</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:46.561878</t>
+          <t>2025-07-03T01:14:29.267844</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4652,7 +4312,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:09.288170</t>
+          <t>2025-07-03T01:15:08.138037</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4669,41 +4329,41 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.701142</t>
+          <t>2025-07-03T01:15:36.387544</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.713890</t>
+          <t>2025-07-03T01:16:15.441481</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-03T01:14:29.267844</t>
+          <t>2025-07-03T01:16:56.442388</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4717,131 +4377,103 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:15:08.138037</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to extract address: Internal Server Error</t>
-        </is>
-      </c>
-    </row>
+    <row r="58"/>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:15:36.387544</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Package height is too high. Measured 208 mm</t>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:15.441481</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
-        </is>
+          <t>10.66-11.82</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:56.442388</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62"/>
+          <t>11.82-12.98</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12.98-14.15</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>14.15-15.31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10.66-11.82</t>
+          <t>15.31-16.47</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11.82-12.98</t>
+          <t>16.47-17.64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12.98-14.15</t>
+          <t>17.64-18.80</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14.15-15.31</t>
+          <t>18.80-19.96</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>15.31-16.47</t>
+          <t>19.96-21.12</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4851,100 +4483,100 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16.47-17.64</t>
+          <t>21.12-22.29</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>17.64-18.80</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>18.80-19.96</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>4</v>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>19.96-21.12</t>
+          <t>16.64-24.19</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>21.12-22.29</t>
+          <t>24.19-31.74</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>31.74-39.29</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>39.29-46.84</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>16.64-24.19</t>
+          <t>46.84-54.39</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>24.19-31.74</t>
+          <t>54.39-61.94</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>31.74-39.29</t>
+          <t>61.94-69.49</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>39.29-46.84</t>
+          <t>69.49-77.04</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4954,7 +4586,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46.84-54.39</t>
+          <t>77.04-84.59</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4964,190 +4596,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>54.39-61.94</t>
+          <t>84.59-92.14</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>61.94-69.49</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82"/>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>69.49-77.04</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>77.04-84.59</t>
+          <t>2025-07-03 02:00</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84.59-92.14</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86"/>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>7.83-9.97</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>9.97-12.11</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>12.11-14.26</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>14.26-16.40</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>16.40-18.54</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>18.54-20.69</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>20.69-22.83</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>22.83-24.98</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>24.98-27.12</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>27.12-29.26</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98"/>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2025-07-03 02:00</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="101"/>
+    <row r="85"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -5160,7 +4639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5516,7 +4995,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:04.304537</t>
+          <t>2025-07-07T17:54:41.316843</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5525,7 +5004,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.491145134999897</v>
+        <v>7.377344214000004</v>
       </c>
     </row>
     <row r="9">
@@ -5560,7 +5039,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:41.316843</t>
+          <t>2025-07-07T17:55:06.371687</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5569,7 +5048,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7.377344214000004</v>
+        <v>5.975922769000135</v>
       </c>
     </row>
     <row r="10">
@@ -5604,7 +5083,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:06.371687</t>
+          <t>2025-07-07T17:55:24.965520</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5613,7 +5092,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5.975922769000135</v>
+        <v>6.126032918999954</v>
       </c>
     </row>
     <row r="11">
@@ -5648,7 +5127,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:24.965520</t>
+          <t>2025-07-07T17:58:28.737846</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5657,7 +5136,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6.126032918999954</v>
+        <v>7.095316783999806</v>
       </c>
     </row>
     <row r="12">
@@ -5692,7 +5171,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-07T17:58:28.737846</t>
+          <t>2025-07-07T18:00:06.490194</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5701,7 +5180,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7.095316783999806</v>
+        <v>7.318892298999799</v>
       </c>
     </row>
     <row r="13">
@@ -5736,7 +5215,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:06.490194</t>
+          <t>2025-07-07T18:00:32.848347</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5745,7 +5224,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.318892298999799</v>
+        <v>6.272883712000294</v>
       </c>
     </row>
     <row r="14">
@@ -5780,7 +5259,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:32.848347</t>
+          <t>2025-07-07T18:03:05.711651</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5789,7 +5268,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.272883712000294</v>
+        <v>6.602910526999949</v>
       </c>
     </row>
     <row r="15">
@@ -5824,7 +5303,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-07T18:07:41.634287</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5833,7 +5312,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>10.72084570400011</v>
+        <v>6.580440927999916</v>
       </c>
     </row>
     <row r="16">
@@ -5868,7 +5347,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:05.711651</t>
+          <t>2025-07-07T18:08:10.621610</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5877,7 +5356,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.602910526999949</v>
+        <v>6.69653442300023</v>
       </c>
     </row>
     <row r="17">
@@ -5912,7 +5391,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:41.634287</t>
+          <t>2025-07-07T18:08:32.236033</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5921,7 +5400,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>6.580440927999916</v>
+        <v>7.071184787999755</v>
       </c>
     </row>
     <row r="18">
@@ -5956,7 +5435,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:10.621610</t>
+          <t>2025-07-07T20:12:01.251252</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5965,7 +5444,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6.69653442300023</v>
+        <v>10.56414242500068</v>
       </c>
     </row>
     <row r="19">
@@ -6000,7 +5479,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:32.236033</t>
+          <t>2025-07-07T20:13:18.434270</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -6009,7 +5488,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>7.071184787999755</v>
+        <v>6.220035006999751</v>
       </c>
     </row>
     <row r="20">
@@ -6044,7 +5523,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-07T20:12:01.251252</t>
+          <t>2025-07-07T20:23:44.373559</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -6053,7 +5532,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>10.56414242500068</v>
+        <v>6.278396850999343</v>
       </c>
     </row>
     <row r="21">
@@ -6088,7 +5567,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-07T20:13:18.434270</t>
+          <t>2025-07-07T20:24:09.435168</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -6097,7 +5576,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.220035006999751</v>
+        <v>6.347279622001224</v>
       </c>
     </row>
     <row r="22">
@@ -6132,7 +5611,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:44.373559</t>
+          <t>2025-07-07T20:24:39.210811</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -6141,7 +5620,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>6.278396850999343</v>
+        <v>15.53937051200046</v>
       </c>
     </row>
     <row r="23">
@@ -6176,7 +5655,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:09.435168</t>
+          <t>2025-07-07T20:25:18.304200</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -6185,7 +5664,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>6.347279622001224</v>
+        <v>30.12905363700156</v>
       </c>
     </row>
     <row r="24">
@@ -6220,7 +5699,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:39.210811</t>
+          <t>2025-07-07T20:25:29.241532</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -6229,7 +5708,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>15.53937051200046</v>
+        <v>6.710644097000113</v>
       </c>
     </row>
     <row r="25">
@@ -6264,7 +5743,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:18.304200</t>
+          <t>2025-07-07T20:25:51.873737</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -6273,7 +5752,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>30.12905363700156</v>
+        <v>6.863947986999847</v>
       </c>
     </row>
     <row r="26">
@@ -6308,7 +5787,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:29.241532</t>
+          <t>2025-07-07T20:26:58.117529</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -6317,7 +5796,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6.710644097000113</v>
+        <v>6.488622081000358</v>
       </c>
     </row>
     <row r="27">
@@ -6352,7 +5831,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:51.873737</t>
+          <t>2025-07-07T20:27:40.532709</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -6361,7 +5840,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>6.863947986999847</v>
+        <v>7.000000726000508</v>
       </c>
     </row>
     <row r="28">
@@ -6396,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-07T20:26:58.117529</t>
+          <t>2025-07-07T20:28:35.256984</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -6405,7 +5884,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>6.488622081000358</v>
+        <v>6.290267608999784</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +5919,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-07T20:27:40.532709</t>
+          <t>2025-07-07T20:30:29.905975</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -6449,7 +5928,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>7.000000726000508</v>
+        <v>5.887769596998623</v>
       </c>
     </row>
     <row r="30">
@@ -6484,7 +5963,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-07T20:28:35.256984</t>
+          <t>2025-07-07T20:31:03.875462</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -6493,7 +5972,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>6.290267608999784</v>
+        <v>5.650815741999395</v>
       </c>
     </row>
     <row r="31">
@@ -6512,7 +5991,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-07T20:30:29.905975</t>
+          <t>2025-07-07T20:32:22.888056</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -6521,7 +6000,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5.887769596998623</v>
+        <v>7.329623222000009</v>
       </c>
     </row>
     <row r="32">
@@ -6540,7 +6019,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-07T20:31:03.875462</t>
+          <t>2025-07-07T20:32:59.361797</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -6549,7 +6028,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5.650815741999395</v>
+        <v>6.782805582000947</v>
       </c>
     </row>
     <row r="33">
@@ -6568,7 +6047,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:22.888056</t>
+          <t>2025-07-07T20:39:17.271112</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6577,7 +6056,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>7.329623222000009</v>
+        <v>6.085372293999171</v>
       </c>
     </row>
     <row r="34">
@@ -6596,7 +6075,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:59.361797</t>
+          <t>2025-07-07T20:40:28.037368</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6605,7 +6084,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6.782805582000947</v>
+        <v>7.455442231999768</v>
       </c>
     </row>
     <row r="35">
@@ -6624,7 +6103,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-07T20:39:17.271112</t>
+          <t>2025-07-07T20:41:00.020547</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6633,13 +6112,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>6.085372293999171</v>
+        <v>7.01819500000056</v>
       </c>
     </row>
     <row r="36">
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-07-07T20:40:28.037368</t>
+          <t>2025-07-07T20:41:31.608901</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6648,13 +6127,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7.455442231999768</v>
+        <v>7.044207163000465</v>
       </c>
     </row>
     <row r="37">
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:00.020547</t>
+          <t>2025-07-07T20:42:49.221380</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6663,13 +6142,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7.01819500000056</v>
+        <v>8.417750570000862</v>
       </c>
     </row>
     <row r="38">
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:31.608901</t>
+          <t>2025-07-07T20:43:26.219315</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6678,13 +6157,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7.044207163000465</v>
+        <v>7.417676393000875</v>
       </c>
     </row>
     <row r="39">
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:49.221380</t>
+          <t>2025-07-07T20:44:13.126019</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6693,13 +6172,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8.417750570000862</v>
+        <v>8.078220472001703</v>
       </c>
     </row>
     <row r="40">
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-07-07T20:43:26.219315</t>
+          <t>2025-07-07T20:44:36.476819</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6708,13 +6187,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7.417676393000875</v>
+        <v>6.408298532000117</v>
       </c>
     </row>
     <row r="41">
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:13.126019</t>
+          <t>2025-07-07T20:45:07.070913</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6723,13 +6202,13 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>8.078220472001703</v>
+        <v>9.519743813998502</v>
       </c>
     </row>
     <row r="42">
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:36.476819</t>
+          <t>2025-07-07T20:45:53.363984</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6738,13 +6217,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>6.408298532000117</v>
+        <v>7.321187820998603</v>
       </c>
     </row>
     <row r="43">
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:07.070913</t>
+          <t>2025-07-07T20:46:45.131372</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6753,13 +6232,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>9.519743813998502</v>
+        <v>10.50983613400058</v>
       </c>
     </row>
     <row r="44">
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:53.363984</t>
+          <t>2025-07-07T20:47:22.820113</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6768,13 +6247,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>7.321187820998603</v>
+        <v>6.563831375999143</v>
       </c>
     </row>
     <row r="45">
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-07-07T20:46:45.131372</t>
+          <t>2025-07-07T20:48:16.318484</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6783,13 +6262,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>10.50983613400058</v>
+        <v>9.671211946000767</v>
       </c>
     </row>
     <row r="46">
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-07-07T20:47:22.820113</t>
+          <t>2025-07-07T20:48:55.786657</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6798,13 +6277,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>6.563831375999143</v>
+        <v>7.459972787999504</v>
       </c>
     </row>
     <row r="47">
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:16.318484</t>
+          <t>2025-07-07T20:49:44.183667</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6813,13 +6292,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>9.671211946000767</v>
+        <v>8.844760150999718</v>
       </c>
     </row>
     <row r="48">
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:55.786657</t>
+          <t>2025-07-07T20:50:09.648990</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6828,13 +6307,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>7.459972787999504</v>
+        <v>6.665908984999987</v>
       </c>
     </row>
     <row r="49">
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:44.183667</t>
+          <t>2025-07-07T20:51:20.106347</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6843,190 +6322,196 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>8.844760150999718</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:50:09.648990</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>6.665908984999987</v>
-      </c>
-    </row>
+        <v>6.566689418999886</v>
+      </c>
+    </row>
+    <row r="50"/>
     <row r="51">
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2025-07-07T20:51:20.106347</t>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>6.566689418999886</v>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-07-07T21:29:45.978602</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1323295019992656</v>
-      </c>
-    </row>
-    <row r="53"/>
+          <t>8.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+    </row>
     <row r="54">
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-    </row>
+          <t>30.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0.13</t>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:53:20.633754</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>30.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="58"/>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 447 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:54:04.304537</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-07T17:54:06.370378</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-07T17:53:20.633754</t>
+          <t>2025-07-07T17:54:13.860722</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7036,31 +6521,31 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 447 mm</t>
+          <t>Package length is too long. Measured 409 mm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:04.304537</t>
+          <t>2025-07-07T17:54:18.597301</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package length is too long. Measured 406 mm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:06.370378</t>
+          <t>2025-07-07T17:54:43.702674</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7077,7 +6562,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:13.860722</t>
+          <t>2025-07-07T17:55:10.734764</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7087,14 +6572,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 409 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:18.597301</t>
+          <t>2025-07-07T17:55:29.067155</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7104,31 +6589,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 406 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:43.702674</t>
+          <t>2025-07-07T18:00:10.030613</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:10.734764</t>
+          <t>2025-07-07T18:00:10.051266</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7138,14 +6623,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:29.067155</t>
+          <t>2025-07-07T18:00:36.125880</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7162,41 +6647,41 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.030613</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 7</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.051266</t>
+          <t>2025-07-07T18:03:09.874522</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:36.125880</t>
+          <t>2025-07-07T18:03:09.896068</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7206,116 +6691,116 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-07T18:07:45.696819</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.874522</t>
+          <t>2025-07-07T18:07:45.718017</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.896068</t>
+          <t>2025-07-07T18:08:14.255685</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.696819</t>
+          <t>2025-07-07T18:08:14.287395</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.718017</t>
+          <t>2025-07-07T18:08:35.394486</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.255685</t>
+          <t>2025-07-07T18:08:35.418117</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.287395</t>
+          <t>2025-07-07T20:23:54.984629</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7325,31 +6810,31 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height when sagging is too high. Measured 200 mm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.394486</t>
+          <t>2025-07-07T20:24:11.557410</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Package height when sagging is too high. Measured 210 mm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.418117</t>
+          <t>2025-07-07T20:25:00.905263</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7359,31 +6844,31 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:54.984629</t>
+          <t>2025-07-07T20:41:37.929023</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 200 mm</t>
+          <t>Failed to find placement for package with ID 21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:11.557410</t>
+          <t>2025-07-07T20:41:37.954032</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7393,14 +6878,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 210 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:00.905263</t>
+          <t>2025-07-07T20:42:09.232090</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7410,31 +6895,31 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package length is too long. Measured 424 mm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.929023</t>
+          <t>2025-07-07T20:42:14.735939</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 21</t>
+          <t>Package length is too long. Measured 423 mm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.954032</t>
+          <t>2025-07-07T20:49:22.678706</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7444,14 +6929,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:09.232090</t>
+          <t>2025-07-07T20:49:25.426897</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7461,31 +6946,31 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 424 mm</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:14.735939</t>
+          <t>2025-07-07T20:50:13.227524</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 423 mm</t>
+          <t>Failed to find placement for package with ID 32</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:22.678706</t>
+          <t>2025-07-07T20:50:13.240163</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7495,286 +6980,265 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:25.426897</t>
+          <t>2025-07-07T21:29:45.978602</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.227524</t>
+          <t>2025-07-07T22:20:17.031515</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 32</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.240163</t>
+          <t>2025-07-07T22:20:17.040077</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Retrieve Packages Callback: 3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-07-07T21:29:45.978602</t>
+          <t>2025-07-07T22:25:39.778239</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-07-07T22:20:17.031515</t>
+          <t>2025-07-07T22:25:39.792261</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:20:17.040077</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 3</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
+    <row r="93"/>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-07-07T22:25:39.778239</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-07-07T22:25:39.792261</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 7</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="96"/>
+          <t>9.37-10.58</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10.58-11.79</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>11.79-13.00</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>9.37-10.58</t>
+          <t>13.00-14.21</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>10.58-11.79</t>
+          <t>14.21-15.42</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>11.79-13.00</t>
+          <t>15.42-16.63</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>13.00-14.21</t>
+          <t>16.63-17.84</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>14.21-15.42</t>
+          <t>17.84-19.05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>15.42-16.63</t>
+          <t>19.05-20.26</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>16.63-17.84</t>
+          <t>20.26-21.47</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>17.84-19.05</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105"/>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>19.05-20.26</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20.26-21.47</t>
+          <t>16.29-18.49</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="108"/>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>18.49-20.69</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20.69-22.88</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>16.29-18.49</t>
+          <t>22.88-25.08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>18.49-20.69</t>
+          <t>25.08-27.28</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7784,37 +7248,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20.69-22.88</t>
+          <t>27.28-29.47</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>22.88-25.08</t>
+          <t>29.47-31.67</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>25.08-27.28</t>
+          <t>31.67-33.87</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>27.28-29.47</t>
+          <t>33.87-36.07</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -7824,200 +7288,170 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>29.47-31.67</t>
+          <t>36.07-38.26</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>31.67-33.87</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>6</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117"/>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>33.87-36.07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>36.07-38.26</t>
+          <t>5.65-8.10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>8.10-10.55</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8</v>
+      </c>
+    </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10.55-12.99</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0.13-3.13</t>
+          <t>12.99-15.44</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3.13-6.13</t>
+          <t>15.44-17.89</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6.13-9.13</t>
+          <t>17.89-20.34</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9.13-12.13</t>
+          <t>20.34-22.79</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>12.13-15.13</t>
+          <t>22.79-25.23</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>15.13-18.13</t>
+          <t>25.23-27.68</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>18.13-21.13</t>
+          <t>27.68-30.13</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>21.13-24.13</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129"/>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>24.13-27.13</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>27.13-30.13</t>
+          <t>2025-07-07 20:00</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-07 21:00</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2025-07-07 20:00</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2025-07-07 21:00</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A133" t="inlineStr">
         <is>
           <t>2025-07-07 22:00</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B133" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="137"/>
+    <row r="134"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -8030,7 +7464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8776,7 +8210,7 @@
     <row r="20">
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T01:43:20.830363</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -8785,262 +8219,264 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>9.348954451000282</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:43:20.830363</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
         <v>6.77231205300086</v>
       </c>
     </row>
-    <row r="22"/>
+    <row r="21"/>
+    <row r="22">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>7.24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.47</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>21.71</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>34.15</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
           <t>11.35</t>
         </is>
       </c>
     </row>
-    <row r="27"/>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-08T01:13:10.554253</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.554253</t>
+          <t>2025-07-08T01:13:10.572025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 7</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.572025</t>
+          <t>2025-07-08T01:21:37.898638</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Vision Init Service</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T01:21:37.898638</t>
+          <t>2025-07-08T01:32:08.791967</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vision Init Service</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.791967</t>
+          <t>2025-07-08T01:32:08.809127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height when sagging is too high. Measured 277 mm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.809127</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 277 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T01:40:48.987836</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package length is too long. Measured 403 mm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:48.987836</t>
+          <t>2025-07-08T01:40:56.515946</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -9050,167 +8486,160 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 403 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:40:56.515946</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>Package length is too long. Measured 404 mm</t>
         </is>
       </c>
     </row>
-    <row r="37"/>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>8.96-10.23</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8.96-10.23</t>
+          <t>10.23-11.51</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.23-11.51</t>
+          <t>11.51-12.78</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11.51-12.78</t>
+          <t>12.78-14.06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12.78-14.06</t>
+          <t>14.06-15.33</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14.06-15.33</t>
+          <t>15.33-16.61</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15.33-16.61</t>
+          <t>16.61-17.88</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16.61-17.88</t>
+          <t>17.88-19.16</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17.88-19.16</t>
+          <t>19.16-20.43</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19.16-20.43</t>
+          <t>20.43-21.71</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20.43-21.71</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49"/>
+    <row r="48"/>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>16.46-18.23</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16.46-18.23</t>
+          <t>18.23-20.00</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18.23-20.00</t>
+          <t>20.00-21.77</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -9220,7 +8649,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20.00-21.77</t>
+          <t>21.77-23.53</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -9230,47 +8659,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21.77-23.53</t>
+          <t>23.53-25.30</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>23.53-25.30</t>
+          <t>25.30-27.07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25.30-27.07</t>
+          <t>27.07-28.84</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27.07-28.84</t>
+          <t>28.84-30.61</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>28.84-30.61</t>
+          <t>30.61-32.38</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -9280,80 +8709,80 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.61-32.38</t>
+          <t>32.38-34.15</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>32.38-34.15</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="61"/>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5.48-6.07</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5.48-6.07</t>
+          <t>6.07-6.65</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.07-6.65</t>
+          <t>6.65-7.24</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6.65-7.24</t>
+          <t>7.24-7.83</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.24-7.83</t>
+          <t>7.83-8.42</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7.83-8.42</t>
+          <t>8.42-9.00</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -9363,7 +8792,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8.42-9.00</t>
+          <t>9.00-9.59</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -9373,17 +8802,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9.00-9.59</t>
+          <t>9.59-10.18</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9.59-10.18</t>
+          <t>10.18-10.76</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -9393,57 +8822,47 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.18-10.76</t>
+          <t>10.76-11.35</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>10.76-11.35</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73"/>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-08 01:00</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-08 01:00</t>
+          <t>2025-07-08 02:00</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025-07-08 02:00</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="77"/>
+    <row r="76"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -9456,7 +8875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11043,208 +10462,210 @@
         <v>7.020958000000974</v>
       </c>
     </row>
-    <row r="44">
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-07-09T00:22:12.580287</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1523438369986252</v>
-      </c>
-    </row>
-    <row r="45"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
     <row r="46">
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Time (s)</t>
+          <t>6.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>5.67</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>37.99</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>37.99</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
           <t>10.40</t>
         </is>
       </c>
     </row>
-    <row r="50"/>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-08T22:56:53.043192</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.043192</t>
+          <t>2025-07-08T22:56:53.065961</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+          <t>Failed to pick and raise</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.065961</t>
+          <t>2025-07-08T23:16:59.150607</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to pick and raise</t>
+          <t>Failed to find placement for package with ID 11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.150607</t>
+          <t>2025-07-08T23:16:59.174089</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 11</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.174089</t>
+          <t>2025-07-08T23:26:59.288288</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -11254,14 +10675,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height is too high. Measured 204 mm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-08T23:26:59.288288</t>
+          <t>2025-07-08T23:27:06.637060</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11271,48 +10692,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 204 mm</t>
+          <t>Package length is too long. Measured 414 mm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-08T23:27:06.637060</t>
+          <t>2025-07-08T23:42:46.228905</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 414 mm</t>
+          <t>Failed to find placement for package with ID 37</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.228905</t>
+          <t>2025-07-08T23:42:46.248970</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 37</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.248970</t>
+          <t>2025-07-09T00:16:43.556644</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11322,278 +10743,271 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package length is too long. Measured 410 mm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T00:16:43.556644</t>
+          <t>2025-07-09T00:17:16.528185</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 410 mm</t>
+          <t>Failed to find placement for package with ID 38</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.528185</t>
+          <t>2025-07-09T00:17:16.552050</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 38</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.552050</t>
+          <t>2025-07-09T00:22:12.580287</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T00:22:12.580287</t>
+          <t>2025-07-09T00:57:29.132885</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.132885</t>
+          <t>2025-07-09T00:57:29.138871</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.138871</t>
+          <t>2025-07-09T00:57:29.145963</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.145963</t>
+          <t>2025-07-09T00:58:22.572326</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 8</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.572326</t>
+          <t>2025-07-09T00:58:22.579425</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.579425</t>
+          <t>2025-07-09T01:04:06.729963</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 9</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.729963</t>
+          <t>2025-07-09T01:04:06.741982</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.741982</t>
+          <t>2025-07-09T01:14:06.484565</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 2</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-09T01:14:06.484565</t>
+          <t>2025-07-09T01:14:06.501028</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-07-09T01:14:06.501028</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 18</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="73"/>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>9.22-10.61</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9.22-10.61</t>
+          <t>10.61-11.99</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.61-11.99</t>
+          <t>11.99-13.37</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11.99-13.37</t>
+          <t>13.37-14.76</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13.37-14.76</t>
+          <t>14.76-16.14</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -11603,7 +11017,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>14.76-16.14</t>
+          <t>16.14-17.52</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -11613,7 +11027,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>16.14-17.52</t>
+          <t>17.52-18.91</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -11623,7 +11037,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17.52-18.91</t>
+          <t>18.91-20.29</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -11633,60 +11047,60 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>18.91-20.29</t>
+          <t>20.29-21.67</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20.29-21.67</t>
+          <t>21.67-23.06</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>21.67-23.06</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85"/>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15.56-17.81</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>15.56-17.81</t>
+          <t>17.81-20.05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>17.81-20.05</t>
+          <t>20.05-22.29</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -11696,37 +11110,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20.05-22.29</t>
+          <t>22.29-24.53</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>22.29-24.53</t>
+          <t>24.53-26.78</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>24.53-26.78</t>
+          <t>26.78-29.02</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>26.78-29.02</t>
+          <t>29.02-31.26</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -11736,200 +11150,190 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>29.02-31.26</t>
+          <t>31.26-33.50</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>31.26-33.50</t>
+          <t>33.50-35.75</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>33.50-35.75</t>
+          <t>35.75-37.99</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>35.75-37.99</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="97"/>
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5.67-6.14</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.15-1.18</t>
+          <t>6.14-6.61</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1.18-2.20</t>
+          <t>6.61-7.09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2.20-3.23</t>
+          <t>7.09-7.56</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3.23-4.25</t>
+          <t>7.56-8.03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4.25-5.28</t>
+          <t>8.03-8.51</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5.28-6.30</t>
+          <t>8.51-8.98</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6.30-7.32</t>
+          <t>8.98-9.45</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7.32-8.35</t>
+          <t>9.45-9.92</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8.35-9.37</t>
+          <t>9.92-10.40</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>9.37-10.40</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-07-08 23:00</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="109"/>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-07-08 23:00</t>
+          <t>2025-07-09 00:00</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-07-09 00:00</t>
+          <t>2025-07-09 01:00</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-09 01:00</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="114"/>
+    <row r="113"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -11942,7 +11346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12122,7 +11526,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-09T17:01:47.037100</t>
+          <t>2025-07-09T17:03:03.638161</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -12131,7 +11535,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>9.247409285999993</v>
+        <v>6.897099805999915</v>
       </c>
     </row>
     <row r="5">
@@ -12166,7 +11570,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:03.638161</t>
+          <t>2025-07-09T17:03:37.617454</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -12175,7 +11579,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.897099805999915</v>
+        <v>6.614939216000039</v>
       </c>
     </row>
     <row r="6">
@@ -12210,7 +11614,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:37.617454</t>
+          <t>2025-07-09T17:04:28.762056</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -12219,7 +11623,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6.614939216000039</v>
+        <v>6.161488025999915</v>
       </c>
     </row>
     <row r="7">
@@ -12254,7 +11658,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-09T17:04:28.762056</t>
+          <t>2025-07-09T17:05:45.443970</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -12263,7 +11667,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.161488025999915</v>
+        <v>7.119074510999781</v>
       </c>
     </row>
     <row r="8">
@@ -12298,7 +11702,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-09T17:05:45.443970</t>
+          <t>2025-07-09T17:06:45.293099</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -12307,7 +11711,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.119074510999781</v>
+        <v>6.159382433000019</v>
       </c>
     </row>
     <row r="9">
@@ -12342,7 +11746,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-09T17:06:45.293099</t>
+          <t>2025-07-09T17:07:24.072217</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -12351,7 +11755,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6.159382433000019</v>
+        <v>6.417692975000136</v>
       </c>
     </row>
     <row r="10">
@@ -12386,7 +11790,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-09T17:07:24.072217</t>
+          <t>2025-07-09T17:26:59.647686</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -12395,7 +11799,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.417692975000136</v>
+        <v>6.451890132000244</v>
       </c>
     </row>
     <row r="11">
@@ -12430,7 +11834,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-09T17:08:06.371557</t>
+          <t>2025-07-09T20:30:30.101595</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -12439,7 +11843,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.1080534509999325</v>
+        <v>8.816499478999503</v>
       </c>
     </row>
     <row r="12">
@@ -12474,7 +11878,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-09T17:26:59.647686</t>
+          <t>2025-07-09T20:31:01.738214</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -12483,7 +11887,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>6.451890132000244</v>
+        <v>8.540726980000727</v>
       </c>
     </row>
     <row r="13">
@@ -12518,7 +11922,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-09T20:30:30.101595</t>
+          <t>2025-07-09T20:31:37.819749</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -12527,7 +11931,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8.816499478999503</v>
+        <v>7.299677785000313</v>
       </c>
     </row>
     <row r="14">
@@ -12562,7 +11966,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:01.738214</t>
+          <t>2025-07-09T20:32:20.341560</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -12571,7 +11975,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8.540726980000727</v>
+        <v>11.75148576600077</v>
       </c>
     </row>
     <row r="15">
@@ -12606,7 +12010,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:37.819749</t>
+          <t>2025-07-09T20:33:07.793293</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -12615,7 +12019,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.299677785000313</v>
+        <v>7.708521808000114</v>
       </c>
     </row>
     <row r="16">
@@ -12650,7 +12054,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-09T20:32:20.341560</t>
+          <t>2025-07-09T20:33:49.288918</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -12659,7 +12063,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>11.75148576600077</v>
+        <v>9.006529381000291</v>
       </c>
     </row>
     <row r="17">
@@ -12694,7 +12098,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:07.793293</t>
+          <t>2025-07-09T20:34:30.067643</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -12703,7 +12107,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7.708521808000114</v>
+        <v>11.63869443600015</v>
       </c>
     </row>
     <row r="18">
@@ -12738,7 +12142,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:49.288918</t>
+          <t>2025-07-09T20:35:05.386697</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -12747,7 +12151,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>9.006529381000291</v>
+        <v>8.106902147000255</v>
       </c>
     </row>
     <row r="19">
@@ -12782,7 +12186,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-09T20:34:30.067643</t>
+          <t>2025-07-09T20:35:35.226695</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -12791,7 +12195,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>11.63869443600015</v>
+        <v>8.520435885000552</v>
       </c>
     </row>
     <row r="20">
@@ -12826,7 +12230,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:05.386697</t>
+          <t>2025-07-09T20:36:29.537481</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -12835,7 +12239,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8.106902147000255</v>
+        <v>8.480712200000198</v>
       </c>
     </row>
     <row r="21">
@@ -12870,7 +12274,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:35.226695</t>
+          <t>2025-07-09T20:36:57.813144</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -12879,7 +12283,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>8.520435885000552</v>
+        <v>6.521772070000225</v>
       </c>
     </row>
     <row r="22">
@@ -12914,7 +12318,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:07.336123</t>
+          <t>2025-07-09T20:38:33.987930</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -12923,7 +12327,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>12.07209446199977</v>
+        <v>8.629125122000005</v>
       </c>
     </row>
     <row r="23">
@@ -12958,7 +12362,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:29.537481</t>
+          <t>2025-07-09T20:38:59.265073</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -12967,7 +12371,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>8.480712200000198</v>
+        <v>6.954240297000069</v>
       </c>
     </row>
     <row r="24">
@@ -13002,7 +12406,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:57.813144</t>
+          <t>2025-07-09T20:39:29.977912</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -13011,7 +12415,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6.521772070000225</v>
+        <v>7.272197137000148</v>
       </c>
     </row>
     <row r="25">
@@ -13046,7 +12450,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-09T20:37:32.893677</t>
+          <t>2025-07-09T20:40:17.407669</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -13055,7 +12459,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>9.810703275999913</v>
+        <v>6.873431026000617</v>
       </c>
     </row>
     <row r="26">
@@ -13090,7 +12494,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:33.987930</t>
+          <t>2025-07-09T20:40:55.082577</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -13099,7 +12503,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>8.629125122000005</v>
+        <v>7.356497611000123</v>
       </c>
     </row>
     <row r="27">
@@ -13134,7 +12538,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:59.265073</t>
+          <t>2025-07-09T20:41:52.569669</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -13143,7 +12547,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>6.954240297000069</v>
+        <v>6.921981114000118</v>
       </c>
     </row>
     <row r="28">
@@ -13178,7 +12582,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:29.977912</t>
+          <t>2025-07-09T20:42:31.549409</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -13187,7 +12591,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>7.272197137000148</v>
+        <v>8.263683973000298</v>
       </c>
     </row>
     <row r="29">
@@ -13222,7 +12626,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:17.407669</t>
+          <t>2025-07-09T20:43:08.035381</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -13231,7 +12635,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>6.873431026000617</v>
+        <v>9.204706790000273</v>
       </c>
     </row>
     <row r="30">
@@ -13250,7 +12654,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:55.082577</t>
+          <t>2025-07-09T20:43:40.411913</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -13259,7 +12663,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>7.356497611000123</v>
+        <v>6.803173390999291</v>
       </c>
     </row>
     <row r="31">
@@ -13278,7 +12682,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-09T20:41:52.569669</t>
+          <t>2025-07-09T20:45:03.272091</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -13287,7 +12691,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>6.921981114000118</v>
+        <v>10.16644128699954</v>
       </c>
     </row>
     <row r="32">
@@ -13306,7 +12710,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-09T20:42:31.549409</t>
+          <t>2025-07-09T20:45:40.087592</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -13315,7 +12719,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>8.263683973000298</v>
+        <v>7.225754842000242</v>
       </c>
     </row>
     <row r="33">
@@ -13334,7 +12738,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:08.035381</t>
+          <t>2025-07-09T20:46:28.717921</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -13343,7 +12747,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>9.204706790000273</v>
+        <v>7.40263581399995</v>
       </c>
     </row>
     <row r="34">
@@ -13362,7 +12766,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:40.411913</t>
+          <t>2025-07-09T20:56:27.405597</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -13371,13 +12775,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6.803173390999291</v>
+        <v>10.9151503310004</v>
       </c>
     </row>
     <row r="35">
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-09T20:45:03.272091</t>
+          <t>2025-07-09T20:56:48.251831</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -13386,460 +12790,468 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>10.16644128699954</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:45:40.087592</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>7.225754842000242</v>
-      </c>
-    </row>
+        <v>7.771012766999775</v>
+      </c>
+    </row>
+    <row r="36"/>
     <row r="37">
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:46:28.717921</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>7.40263581399995</v>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:56:27.405597</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>10.9151503310004</v>
+          <t>7.99</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-09T20:56:48.251831</t>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>7.771012766999775</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41">
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
+          <t>6.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>7.97</t>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:01:47.037100</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>17.83</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0.11</t>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:04:12.589235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>36.19</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>12.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="45"/>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 438 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:05:01.688080</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 411 mm</t>
+        </is>
+      </c>
+    </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>Error Message</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-09T17:08:06.371557</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-09T17:01:47.037100</t>
+          <t>2025-07-09T17:45:36.009750</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed to find packages with IDs: [10]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-09T17:04:12.589235</t>
+          <t>2025-07-09T18:02:26.276053</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 438 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-09T17:05:01.688080</t>
+          <t>2025-07-09T18:02:26.277270</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 411 mm</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-09T17:08:06.371557</t>
+          <t>2025-07-09T18:02:26.285881</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Retrieve Packages Callback: 4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-09T17:45:36.009750</t>
+          <t>2025-07-09T18:03:36.485227</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Find Package Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [10]</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.276053</t>
+          <t>2025-07-09T18:03:36.491422</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.277270</t>
+          <t>2025-07-09T20:36:07.336123</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.285881</t>
+          <t>2025-07-09T20:37:32.893677</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 4</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.485227</t>
+          <t>2025-07-09T20:39:40.083563</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Find Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Package height when sagging is too high. Measured 192 mm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.491422</t>
+          <t>2025-07-09T20:40:28.663328</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:07.336123</t>
+          <t>2025-07-09T20:40:28.673805</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package height when sagging is too high. Measured 285 mm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-09T20:37:32.893677</t>
+          <t>2025-07-09T20:52:36.900737</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package height is too high. Measured 215 mm</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:40.083563</t>
+          <t>2025-07-09T20:56:32.092396</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 192 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.663328</t>
+          <t>2025-07-09T20:56:32.103587</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.673805</t>
+          <t>2025-07-09T20:56:56.326403</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 285 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T20:52:36.900737</t>
+          <t>2025-07-09T20:56:56.350654</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -13849,214 +13261,186 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 215 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.092396</t>
+          <t>2025-07-09T21:14:57.673519</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find packages with IDs: [9]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.103587</t>
+          <t>2025-07-09T21:36:10.061029</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.326403</t>
+          <t>2025-07-09T21:36:10.068756</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.350654</t>
+          <t>2025-07-09T21:36:10.076362</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Retrieve Packages Callback: 22</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T21:14:57.673519</t>
+          <t>2025-07-09T21:41:01.897946</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [9]</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.061029</t>
+          <t>2025-07-09T21:41:01.900418</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.068756</t>
+          <t>2025-07-09T21:41:01.993078</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-07-09T21:36:10.076362</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 22</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
+    <row r="70"/>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-07-09T21:41:01.897946</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.900418</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
+          <t>9.83-11.43</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.993078</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 18</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="74"/>
+          <t>11.43-13.03</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>13.03-14.62</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14.62-16.22</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9.83-11.43</t>
+          <t>16.22-17.81</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14066,7 +13450,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11.43-13.03</t>
+          <t>17.81-19.41</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -14076,7 +13460,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13.03-14.62</t>
+          <t>19.41-21.01</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14086,90 +13470,90 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>14.62-16.22</t>
+          <t>21.01-22.60</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>16.22-17.81</t>
+          <t>22.60-24.20</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17.81-19.41</t>
+          <t>24.20-25.79</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>19.41-21.01</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>3</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82"/>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>21.01-22.60</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>22.60-24.20</t>
+          <t>17.83-19.66</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24.20-25.79</t>
+          <t>19.66-21.50</t>
         </is>
       </c>
       <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>21.50-23.34</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="86"/>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>23.34-25.17</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>17.83-19.66</t>
+          <t>25.17-27.01</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14179,130 +13563,130 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>19.66-21.50</t>
+          <t>27.01-28.85</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21.50-23.34</t>
+          <t>28.85-30.68</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>23.34-25.17</t>
+          <t>30.68-32.52</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>25.17-27.01</t>
+          <t>32.52-34.36</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>27.01-28.85</t>
+          <t>34.36-36.19</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>28.85-30.68</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94"/>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>30.68-32.52</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>3</v>
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>32.52-34.36</t>
+          <t>6.16-6.72</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>34.36-36.19</t>
+          <t>6.72-7.28</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7.28-7.84</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7.84-8.40</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0.11-1.30</t>
+          <t>8.40-8.96</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1.30-2.50</t>
+          <t>8.96-9.51</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2.50-3.70</t>
+          <t>9.51-10.07</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -14312,117 +13696,77 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3.70-4.89</t>
+          <t>10.07-10.63</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4.89-6.09</t>
+          <t>10.63-11.19</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6.09-7.29</t>
+          <t>11.19-11.75</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>7.29-8.48</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>9</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106"/>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>8.48-9.68</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>8</v>
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>9.68-10.88</t>
+          <t>2025-07-09 17:00</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10.88-12.07</t>
+          <t>2025-07-09 18:00</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110"/>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-07-09 17:00</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-09 18:00</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>2025-07-09 21:00</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B110" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="115"/>
+    <row r="111"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -328,198 +328,6 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 3'!B37</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 3'!$A$38:$A$47</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 3'!$B$38:$B$47</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 3'!B49</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 3'!$A$50:$A$59</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 3'!$B$50:$B$59</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 3'!B61</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 3'!$A$62:$A$71</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 3'!$B$62:$B$71</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
     <title>
       <tx>
         <rich>
@@ -544,7 +352,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 3'!B73</f>
+              <f>'Day 2'!B133</f>
             </strRef>
           </tx>
           <spPr>
@@ -554,12 +362,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 3'!$A$74:$A$75</f>
+              <f>'Day 2'!$A$134:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 3'!$B$74:$B$75</f>
+              <f>'Day 2'!$B$134:$B$136</f>
             </numRef>
           </val>
         </ser>
@@ -626,7 +434,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -638,7 +446,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B73</f>
+              <f>'Day 3'!B38</f>
             </strRef>
           </tx>
           <spPr>
@@ -648,12 +456,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$74:$A$83</f>
+              <f>'Day 3'!$A$39:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$74:$B$83</f>
+              <f>'Day 3'!$B$39:$B$48</f>
             </numRef>
           </val>
         </ser>
@@ -690,7 +498,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -702,7 +510,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B85</f>
+              <f>'Day 3'!B50</f>
             </strRef>
           </tx>
           <spPr>
@@ -712,12 +520,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$86:$A$95</f>
+              <f>'Day 3'!$A$51:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$86:$B$95</f>
+              <f>'Day 3'!$B$51:$B$60</f>
             </numRef>
           </val>
         </ser>
@@ -754,7 +562,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -766,7 +574,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B97</f>
+              <f>'Day 3'!B62</f>
             </strRef>
           </tx>
           <spPr>
@@ -776,12 +584,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$98:$A$107</f>
+              <f>'Day 3'!$A$63:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$98:$B$107</f>
+              <f>'Day 3'!$B$63:$B$72</f>
             </numRef>
           </val>
         </ser>
@@ -818,7 +626,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -845,7 +653,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 4'!B109</f>
+              <f>'Day 3'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -855,12 +663,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 4'!$A$110:$A$112</f>
+              <f>'Day 3'!$A$75:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 4'!$B$110:$B$112</f>
+              <f>'Day 3'!$B$75:$B$76</f>
             </numRef>
           </val>
         </ser>
@@ -927,7 +735,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
@@ -939,7 +747,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B71</f>
+              <f>'Day 4'!B74</f>
             </strRef>
           </tx>
           <spPr>
@@ -949,12 +757,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$72:$A$81</f>
+              <f>'Day 4'!$A$75:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$72:$B$81</f>
+              <f>'Day 4'!$B$75:$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -991,6 +799,243 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B86</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$87:$A$96</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$87:$B$96</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B98</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$99:$A$108</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$99:$B$108</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 4'!B110</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 4'!$A$111:$A$113</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 4'!$B$111:$B$113</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1003,7 +1048,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B83</f>
+              <f>'Day 5'!B75</f>
             </strRef>
           </tx>
           <spPr>
@@ -1013,12 +1058,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$84:$A$93</f>
+              <f>'Day 5'!$A$76:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$84:$B$93</f>
+              <f>'Day 5'!$B$76:$B$85</f>
             </numRef>
           </val>
         </ser>
@@ -1243,7 +1288,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B95</f>
+              <f>'Day 5'!B87</f>
             </strRef>
           </tx>
           <spPr>
@@ -1253,12 +1298,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$96:$A$105</f>
+              <f>'Day 5'!$A$88:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$96:$B$105</f>
+              <f>'Day 5'!$B$88:$B$97</f>
             </numRef>
           </val>
         </ser>
@@ -1298,6 +1343,70 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 5'!B99</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 5'!$A$100:$A$109</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 5'!$B$100:$B$109</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
     <title>
       <tx>
         <rich>
@@ -1322,7 +1431,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 5'!B107</f>
+              <f>'Day 5'!B111</f>
             </strRef>
           </tx>
           <spPr>
@@ -1332,12 +1441,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 5'!$A$108:$A$110</f>
+              <f>'Day 5'!$A$112:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 5'!$B$108:$B$110</f>
+              <f>'Day 5'!$B$112:$B$114</f>
             </numRef>
           </val>
         </ser>
@@ -1416,7 +1525,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B59</f>
+              <f>'Day 1'!B63</f>
             </strRef>
           </tx>
           <spPr>
@@ -1426,12 +1535,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$60:$A$69</f>
+              <f>'Day 1'!$A$64:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$60:$B$69</f>
+              <f>'Day 1'!$B$64:$B$73</f>
             </numRef>
           </val>
         </ser>
@@ -1480,7 +1589,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B71</f>
+              <f>'Day 1'!B75</f>
             </strRef>
           </tx>
           <spPr>
@@ -1490,12 +1599,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$72:$A$81</f>
+              <f>'Day 1'!$A$76:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$72:$B$81</f>
+              <f>'Day 1'!$B$76:$B$85</f>
             </numRef>
           </val>
         </ser>
@@ -1535,6 +1644,70 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 1'!B87</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 1'!$A$88:$A$97</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 1'!$B$88:$B$97</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
     <title>
       <tx>
         <rich>
@@ -1559,7 +1732,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 1'!B83</f>
+              <f>'Day 1'!B99</f>
             </strRef>
           </tx>
           <spPr>
@@ -1569,12 +1742,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 1'!$A$84</f>
+              <f>'Day 1'!$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 1'!$B$84</f>
+              <f>'Day 1'!$B$100</f>
             </numRef>
           </val>
         </ser>
@@ -1641,70 +1814,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 2'!B94</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 2'!$A$95:$A$104</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 2'!$B$95:$B$104</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -1717,7 +1826,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B106</f>
+              <f>'Day 2'!B97</f>
             </strRef>
           </tx>
           <spPr>
@@ -1727,12 +1836,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$107:$A$116</f>
+              <f>'Day 2'!$A$98:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$107:$B$116</f>
+              <f>'Day 2'!$B$98:$B$107</f>
             </numRef>
           </val>
         </ser>
@@ -1781,7 +1890,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B118</f>
+              <f>'Day 2'!B109</f>
             </strRef>
           </tx>
           <spPr>
@@ -1791,12 +1900,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$119:$A$128</f>
+              <f>'Day 2'!$A$110:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$119:$B$128</f>
+              <f>'Day 2'!$B$110:$B$119</f>
             </numRef>
           </val>
         </ser>
@@ -1836,21 +1945,6 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hourly Package Retrieval Throughput</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
     <plotArea>
       <barChart>
         <barDir val="col"/>
@@ -1860,7 +1954,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 2'!B130</f>
+              <f>'Day 2'!B121</f>
             </strRef>
           </tx>
           <spPr>
@@ -1870,12 +1964,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 2'!$A$131:$A$133</f>
+              <f>'Day 2'!$A$122:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 2'!$B$131:$B$133</f>
+              <f>'Day 2'!$B$122:$B$131</f>
             </numRef>
           </val>
         </ser>
@@ -1889,21 +1983,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Hour of Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -1916,21 +1995,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Packages Retrieved</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -1997,7 +2061,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>58</row>
+      <row>62</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2019,7 +2083,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>70</row>
+      <row>74</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2041,7 +2105,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>82</row>
+      <row>86</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2059,6 +2123,28 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2068,7 +2154,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>93</row>
+      <row>96</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2090,7 +2176,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>108</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2112,7 +2198,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>117</row>
+      <row>120</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2134,7 +2220,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>129</row>
+      <row>132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2161,7 +2247,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2183,7 +2269,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>48</row>
+      <row>49</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2205,7 +2291,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2227,7 +2313,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>72</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2254,7 +2340,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>72</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2276,7 +2362,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>84</row>
+      <row>85</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2298,7 +2384,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>96</row>
+      <row>97</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2320,7 +2406,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>108</row>
+      <row>109</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2347,7 +2433,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>70</row>
+      <row>74</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2369,7 +2455,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>82</row>
+      <row>86</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2391,7 +2477,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>94</row>
+      <row>98</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2413,7 +2499,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>106</row>
+      <row>110</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2814,7 +2900,7 @@
         <v>33.49</v>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>20.36</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -2857,7 +2943,7 @@
         <v>26.73</v>
       </c>
       <c r="E3" t="n">
-        <v>8.039999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
@@ -2900,7 +2986,7 @@
         <v>24.47</v>
       </c>
       <c r="E4" t="n">
-        <v>7.24</v>
+        <v>7.35</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -2943,7 +3029,7 @@
         <v>25.15</v>
       </c>
       <c r="E5" t="n">
-        <v>6.88</v>
+        <v>6.73</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
@@ -2986,7 +3072,7 @@
         <v>26.52</v>
       </c>
       <c r="E6" t="n">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -3261,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3351,6 +3437,19 @@
       <c r="G2" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:20.256411</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>25.45775632799996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3382,6 +3481,19 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:01:29.195530</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7.825434046000737</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3413,6 +3525,19 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:02:13.838250</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>25.97068918999867</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3444,6 +3569,19 @@
       <c r="G5" t="n">
         <v>5</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:02:39.708783</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>17.31372129900046</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3475,6 +3613,19 @@
       <c r="G6" t="n">
         <v>7</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:03:19.043178</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>29.26283795299969</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3506,6 +3657,19 @@
       <c r="G7" t="n">
         <v>6</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:03:45.298176</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>23.00239465800041</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3537,6 +3701,19 @@
       <c r="G8" t="n">
         <v>8</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:04:20.105888</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>26.14362267699835</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3568,6 +3745,19 @@
       <c r="G9" t="n">
         <v>11</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:05:22.689968</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>23.83769998499702</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3599,6 +3789,19 @@
       <c r="G10" t="n">
         <v>12</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:05:47.215603</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>15.4775147979999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3614,6 +3817,19 @@
       <c r="C11" t="n">
         <v>17.09584704299778</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:06:34.470484</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>23.18112631599797</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3629,6 +3845,19 @@
       <c r="C12" t="n">
         <v>17.57112371599942</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:07:05.496402</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>22.63011557400023</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3644,6 +3873,19 @@
       <c r="C13" t="n">
         <v>17.95931244299936</v>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:07:45.915439</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>22.62298024700067</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3659,6 +3901,19 @@
       <c r="C14" t="n">
         <v>19.13264779399833</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:09:17.400815</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>22.05420880300153</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3674,6 +3929,19 @@
       <c r="C15" t="n">
         <v>19.03255571999762</v>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:09:48.168392</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>16.44586178700047</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3689,6 +3957,19 @@
       <c r="C16" t="n">
         <v>13.03475232900018</v>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:10:30.301397</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>11.49830916399878</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3704,6 +3985,19 @@
       <c r="C17" t="n">
         <v>17.85630472499906</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:11:11.928653</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>11.0140851890028</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3719,6 +4013,19 @@
       <c r="C18" t="n">
         <v>16.50813590300095</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:12:11.422764</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>22.49193067099986</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3734,6 +4041,19 @@
       <c r="C19" t="n">
         <v>19.91787753099925</v>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:12:46.561878</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>22.14876318700044</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3749,213 +4069,233 @@
       <c r="C20" t="n">
         <v>11.70008817900089</v>
       </c>
-    </row>
-    <row r="21"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:13:09.288170</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>13.05020356800014</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:14:29.267844</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>25.37964505200216</v>
+      </c>
+    </row>
     <row r="22">
-      <c r="B22" s="2" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:15:08.138037</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>14.29664806599976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:16:15.441481</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>23.68733280299784</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:16:56.442388</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>23.47725808500036</v>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>33.49</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>16.64</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>22.29</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:04.068974</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 209 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:20.256411</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:29.195530</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-07-03T01:01:33.762790</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:13.838250</t>
+          <t>2025-07-03T01:01:04.068974</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Package height when sagging is too high. Measured 209 mm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-03T01:02:39.708783</t>
+          <t>2025-07-03T01:01:20.256411</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3965,14 +4305,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:19.043178</t>
+          <t>2025-07-03T01:01:29.195530</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3982,65 +4322,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>No contour found</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-03T01:03:45.298176</t>
+          <t>2025-07-03T01:01:33.762790</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.244721</t>
+          <t>2025-07-03T01:02:13.838250</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 5</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:12.280598</t>
+          <t>2025-07-03T01:02:39.708783</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-03T01:04:20.105888</t>
+          <t>2025-07-03T01:03:19.043178</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4057,7 +4397,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:22.689968</t>
+          <t>2025-07-03T01:03:45.298176</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4074,41 +4414,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-03T01:05:47.215603</t>
+          <t>2025-07-03T01:04:12.244721</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to find placement for package with ID 5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-03T01:06:34.470484</t>
+          <t>2025-07-03T01:04:12.280598</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:05.496402</t>
+          <t>2025-07-03T01:04:20.105888</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4118,14 +4458,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-03T01:07:45.915439</t>
+          <t>2025-07-03T01:05:22.689968</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4142,7 +4482,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:17.400815</t>
+          <t>2025-07-03T01:05:47.215603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4152,14 +4492,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-03T01:09:48.168392</t>
+          <t>2025-07-03T01:06:34.470484</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4169,14 +4509,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-03T01:10:30.301397</t>
+          <t>2025-07-03T01:07:05.496402</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4186,14 +4526,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-03T01:11:11.928653</t>
+          <t>2025-07-03T01:07:45.915439</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4203,14 +4543,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to extract address: Internal Server Error</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:11.422764</t>
+          <t>2025-07-03T01:09:17.400815</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4227,7 +4567,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-03T01:12:46.561878</t>
+          <t>2025-07-03T01:09:48.168392</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4237,14 +4577,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:09.288170</t>
+          <t>2025-07-03T01:10:30.301397</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4261,41 +4601,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.701142</t>
+          <t>2025-07-03T01:11:11.928653</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-03T01:13:14.713890</t>
+          <t>2025-07-03T01:12:11.422764</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-03T01:14:29.267844</t>
+          <t>2025-07-03T01:12:46.561878</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4312,7 +4652,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-03T01:15:08.138037</t>
+          <t>2025-07-03T01:13:09.288170</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4329,41 +4669,41 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-03T01:15:36.387544</t>
+          <t>2025-07-03T01:13:14.701142</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 208 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:15.441481</t>
+          <t>2025-07-03T01:13:14.713890</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-03T01:16:56.442388</t>
+          <t>2025-07-03T01:14:29.267844</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4377,103 +4717,131 @@
         </is>
       </c>
     </row>
-    <row r="58"/>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:15:08.138037</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to extract address: Internal Server Error</t>
+        </is>
+      </c>
+    </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-03T01:15:36.387544</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.66-11.82</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3</v>
+          <t>2025-07-03T01:16:15.441481</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11.82-12.98</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>12.98-14.15</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-    </row>
+          <t>2025-07-03T01:16:56.442388</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>14.15-15.31</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15.31-16.47</t>
+          <t>10.66-11.82</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16.47-17.64</t>
+          <t>11.82-12.98</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17.64-18.80</t>
+          <t>12.98-14.15</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>18.80-19.96</t>
+          <t>14.15-15.31</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19.96-21.12</t>
+          <t>15.31-16.47</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4483,100 +4851,100 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21.12-22.29</t>
+          <t>16.47-17.64</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>17.64-18.80</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>18.80-19.96</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16.64-24.19</t>
+          <t>19.96-21.12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>24.19-31.74</t>
+          <t>21.12-22.29</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>31.74-39.29</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
         <v>2</v>
       </c>
     </row>
+    <row r="74"/>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>39.29-46.84</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>46.84-54.39</t>
+          <t>16.64-24.19</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>54.39-61.94</t>
+          <t>24.19-31.74</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>61.94-69.49</t>
+          <t>31.74-39.29</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>69.49-77.04</t>
+          <t>39.29-46.84</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4586,7 +4954,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>77.04-84.59</t>
+          <t>46.84-54.39</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4596,37 +4964,190 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>84.59-92.14</t>
+          <t>54.39-61.94</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>61.94-69.49</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>69.49-77.04</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>77.04-84.59</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84.59-92.14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7.83-9.97</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>9.97-12.11</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12.11-14.26</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>14.26-16.40</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>16.40-18.54</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>18.54-20.69</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20.69-22.83</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>22.83-24.98</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>24.98-27.12</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>27.12-29.26</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98"/>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>2025-07-03 02:00</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B100" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="85"/>
+    <row r="101"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -4639,7 +5160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4995,7 +5516,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:41.316843</t>
+          <t>2025-07-07T17:54:04.304537</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5004,7 +5525,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.377344214000004</v>
+        <v>7.491145134999897</v>
       </c>
     </row>
     <row r="9">
@@ -5039,7 +5560,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:06.371687</t>
+          <t>2025-07-07T17:54:41.316843</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5048,7 +5569,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>5.975922769000135</v>
+        <v>7.377344214000004</v>
       </c>
     </row>
     <row r="10">
@@ -5083,7 +5604,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:24.965520</t>
+          <t>2025-07-07T17:55:06.371687</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5092,7 +5613,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.126032918999954</v>
+        <v>5.975922769000135</v>
       </c>
     </row>
     <row r="11">
@@ -5127,7 +5648,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-07T17:58:28.737846</t>
+          <t>2025-07-07T17:55:24.965520</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5136,7 +5657,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7.095316783999806</v>
+        <v>6.126032918999954</v>
       </c>
     </row>
     <row r="12">
@@ -5171,7 +5692,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:06.490194</t>
+          <t>2025-07-07T17:58:28.737846</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5180,7 +5701,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7.318892298999799</v>
+        <v>7.095316783999806</v>
       </c>
     </row>
     <row r="13">
@@ -5215,7 +5736,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:32.848347</t>
+          <t>2025-07-07T18:00:06.490194</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5224,7 +5745,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>6.272883712000294</v>
+        <v>7.318892298999799</v>
       </c>
     </row>
     <row r="14">
@@ -5259,7 +5780,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:05.711651</t>
+          <t>2025-07-07T18:00:32.848347</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5268,7 +5789,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.602910526999949</v>
+        <v>6.272883712000294</v>
       </c>
     </row>
     <row r="15">
@@ -5303,7 +5824,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:41.634287</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5312,7 +5833,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>6.580440927999916</v>
+        <v>10.72084570400011</v>
       </c>
     </row>
     <row r="16">
@@ -5347,7 +5868,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:10.621610</t>
+          <t>2025-07-07T18:03:05.711651</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -5356,7 +5877,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6.69653442300023</v>
+        <v>6.602910526999949</v>
       </c>
     </row>
     <row r="17">
@@ -5391,7 +5912,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:32.236033</t>
+          <t>2025-07-07T18:07:41.634287</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5400,7 +5921,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7.071184787999755</v>
+        <v>6.580440927999916</v>
       </c>
     </row>
     <row r="18">
@@ -5435,7 +5956,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-07T20:12:01.251252</t>
+          <t>2025-07-07T18:08:10.621610</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -5444,7 +5965,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>10.56414242500068</v>
+        <v>6.69653442300023</v>
       </c>
     </row>
     <row r="19">
@@ -5479,7 +6000,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-07T20:13:18.434270</t>
+          <t>2025-07-07T18:08:32.236033</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -5488,7 +6009,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>6.220035006999751</v>
+        <v>7.071184787999755</v>
       </c>
     </row>
     <row r="20">
@@ -5523,7 +6044,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:44.373559</t>
+          <t>2025-07-07T20:12:01.251252</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -5532,7 +6053,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>6.278396850999343</v>
+        <v>10.56414242500068</v>
       </c>
     </row>
     <row r="21">
@@ -5567,7 +6088,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:09.435168</t>
+          <t>2025-07-07T20:13:18.434270</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5576,7 +6097,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.347279622001224</v>
+        <v>6.220035006999751</v>
       </c>
     </row>
     <row r="22">
@@ -5611,7 +6132,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:39.210811</t>
+          <t>2025-07-07T20:23:44.373559</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -5620,7 +6141,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>15.53937051200046</v>
+        <v>6.278396850999343</v>
       </c>
     </row>
     <row r="23">
@@ -5655,7 +6176,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:18.304200</t>
+          <t>2025-07-07T20:24:09.435168</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5664,7 +6185,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>30.12905363700156</v>
+        <v>6.347279622001224</v>
       </c>
     </row>
     <row r="24">
@@ -5699,7 +6220,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:29.241532</t>
+          <t>2025-07-07T20:24:39.210811</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5708,7 +6229,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6.710644097000113</v>
+        <v>15.53937051200046</v>
       </c>
     </row>
     <row r="25">
@@ -5743,7 +6264,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:51.873737</t>
+          <t>2025-07-07T20:25:18.304200</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5752,7 +6273,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>6.863947986999847</v>
+        <v>30.12905363700156</v>
       </c>
     </row>
     <row r="26">
@@ -5787,7 +6308,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-07T20:26:58.117529</t>
+          <t>2025-07-07T20:25:29.241532</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5796,7 +6317,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6.488622081000358</v>
+        <v>6.710644097000113</v>
       </c>
     </row>
     <row r="27">
@@ -5831,7 +6352,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-07T20:27:40.532709</t>
+          <t>2025-07-07T20:25:51.873737</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5840,7 +6361,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7.000000726000508</v>
+        <v>6.863947986999847</v>
       </c>
     </row>
     <row r="28">
@@ -5875,7 +6396,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-07T20:28:35.256984</t>
+          <t>2025-07-07T20:26:58.117529</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5884,7 +6405,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>6.290267608999784</v>
+        <v>6.488622081000358</v>
       </c>
     </row>
     <row r="29">
@@ -5919,7 +6440,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-07T20:30:29.905975</t>
+          <t>2025-07-07T20:27:40.532709</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5928,7 +6449,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5.887769596998623</v>
+        <v>7.000000726000508</v>
       </c>
     </row>
     <row r="30">
@@ -5963,7 +6484,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-07T20:31:03.875462</t>
+          <t>2025-07-07T20:28:35.256984</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5972,7 +6493,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5.650815741999395</v>
+        <v>6.290267608999784</v>
       </c>
     </row>
     <row r="31">
@@ -5991,7 +6512,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:22.888056</t>
+          <t>2025-07-07T20:30:29.905975</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -6000,7 +6521,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>7.329623222000009</v>
+        <v>5.887769596998623</v>
       </c>
     </row>
     <row r="32">
@@ -6019,7 +6540,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-07T20:32:59.361797</t>
+          <t>2025-07-07T20:31:03.875462</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -6028,7 +6549,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>6.782805582000947</v>
+        <v>5.650815741999395</v>
       </c>
     </row>
     <row r="33">
@@ -6047,7 +6568,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-07T20:39:17.271112</t>
+          <t>2025-07-07T20:32:22.888056</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6056,7 +6577,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>6.085372293999171</v>
+        <v>7.329623222000009</v>
       </c>
     </row>
     <row r="34">
@@ -6075,7 +6596,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-07T20:40:28.037368</t>
+          <t>2025-07-07T20:32:59.361797</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6084,7 +6605,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>7.455442231999768</v>
+        <v>6.782805582000947</v>
       </c>
     </row>
     <row r="35">
@@ -6103,7 +6624,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:00.020547</t>
+          <t>2025-07-07T20:39:17.271112</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6112,13 +6633,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>7.01819500000056</v>
+        <v>6.085372293999171</v>
       </c>
     </row>
     <row r="36">
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:31.608901</t>
+          <t>2025-07-07T20:40:28.037368</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6127,13 +6648,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7.044207163000465</v>
+        <v>7.455442231999768</v>
       </c>
     </row>
     <row r="37">
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:49.221380</t>
+          <t>2025-07-07T20:41:00.020547</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6142,13 +6663,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>8.417750570000862</v>
+        <v>7.01819500000056</v>
       </c>
     </row>
     <row r="38">
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-07-07T20:43:26.219315</t>
+          <t>2025-07-07T20:41:31.608901</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6157,13 +6678,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7.417676393000875</v>
+        <v>7.044207163000465</v>
       </c>
     </row>
     <row r="39">
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:13.126019</t>
+          <t>2025-07-07T20:42:49.221380</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6172,13 +6693,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8.078220472001703</v>
+        <v>8.417750570000862</v>
       </c>
     </row>
     <row r="40">
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-07-07T20:44:36.476819</t>
+          <t>2025-07-07T20:43:26.219315</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6187,13 +6708,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>6.408298532000117</v>
+        <v>7.417676393000875</v>
       </c>
     </row>
     <row r="41">
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:07.070913</t>
+          <t>2025-07-07T20:44:13.126019</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6202,13 +6723,13 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>9.519743813998502</v>
+        <v>8.078220472001703</v>
       </c>
     </row>
     <row r="42">
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-07-07T20:45:53.363984</t>
+          <t>2025-07-07T20:44:36.476819</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6217,13 +6738,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7.321187820998603</v>
+        <v>6.408298532000117</v>
       </c>
     </row>
     <row r="43">
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-07-07T20:46:45.131372</t>
+          <t>2025-07-07T20:45:07.070913</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6232,13 +6753,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>10.50983613400058</v>
+        <v>9.519743813998502</v>
       </c>
     </row>
     <row r="44">
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-07-07T20:47:22.820113</t>
+          <t>2025-07-07T20:45:53.363984</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6247,13 +6768,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>6.563831375999143</v>
+        <v>7.321187820998603</v>
       </c>
     </row>
     <row r="45">
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:16.318484</t>
+          <t>2025-07-07T20:46:45.131372</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6262,13 +6783,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>9.671211946000767</v>
+        <v>10.50983613400058</v>
       </c>
     </row>
     <row r="46">
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-07-07T20:48:55.786657</t>
+          <t>2025-07-07T20:47:22.820113</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6277,13 +6798,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>7.459972787999504</v>
+        <v>6.563831375999143</v>
       </c>
     </row>
     <row r="47">
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:44.183667</t>
+          <t>2025-07-07T20:48:16.318484</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6292,13 +6813,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>8.844760150999718</v>
+        <v>9.671211946000767</v>
       </c>
     </row>
     <row r="48">
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:09.648990</t>
+          <t>2025-07-07T20:48:55.786657</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6307,211 +6828,205 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>6.665908984999987</v>
+        <v>7.459972787999504</v>
       </c>
     </row>
     <row r="49">
       <c r="I49" t="inlineStr">
         <is>
+          <t>2025-07-07T20:49:44.183667</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>8.844760150999718</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-07-07T20:50:09.648990</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>6.665908984999987</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="inlineStr">
+        <is>
           <t>2025-07-07T20:51:20.106347</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>6.566689418999886</v>
       </c>
     </row>
-    <row r="50"/>
-    <row r="51">
-      <c r="B51" s="2" t="inlineStr">
+    <row r="52">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-07-07T21:29:45.978602</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1323295019992656</v>
+      </c>
+    </row>
+    <row r="53"/>
+    <row r="54">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>15.56</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>26.73</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>30.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="55"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+    </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="58"/>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:53:20.633754</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 447 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:54:04.304537</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-07-07T17:54:06.370378</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:13.860722</t>
+          <t>2025-07-07T17:53:20.633754</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6521,31 +7036,31 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 409 mm</t>
+          <t>Package length is too long. Measured 447 mm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:18.597301</t>
+          <t>2025-07-07T17:54:04.304537</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 406 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-07T17:54:43.702674</t>
+          <t>2025-07-07T17:54:06.370378</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6562,7 +7077,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:10.734764</t>
+          <t>2025-07-07T17:54:13.860722</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6572,14 +7087,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package length is too long. Measured 409 mm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-07T17:55:29.067155</t>
+          <t>2025-07-07T17:54:18.597301</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6589,31 +7104,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package length is too long. Measured 406 mm</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.030613</t>
+          <t>2025-07-07T17:54:43.702674</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 7</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:10.051266</t>
+          <t>2025-07-07T17:55:10.734764</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6623,14 +7138,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:36.125880</t>
+          <t>2025-07-07T17:55:29.067155</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6647,41 +7162,41 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-07T18:01:05.673187</t>
+          <t>2025-07-07T18:00:10.030613</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.874522</t>
+          <t>2025-07-07T18:00:10.051266</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-07T18:03:09.896068</t>
+          <t>2025-07-07T18:00:36.125880</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6691,116 +7206,116 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.696819</t>
+          <t>2025-07-07T18:01:05.673187</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-07T18:07:45.718017</t>
+          <t>2025-07-07T18:03:09.874522</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.255685</t>
+          <t>2025-07-07T18:03:09.896068</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:14.287395</t>
+          <t>2025-07-07T18:07:45.696819</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.394486</t>
+          <t>2025-07-07T18:07:45.718017</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 8</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-07T18:08:35.418117</t>
+          <t>2025-07-07T18:08:14.255685</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-07-07T20:23:54.984629</t>
+          <t>2025-07-07T18:08:14.287395</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6810,31 +7325,31 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 200 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-07-07T20:24:11.557410</t>
+          <t>2025-07-07T18:08:35.394486</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 210 mm</t>
+          <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-07-07T20:25:00.905263</t>
+          <t>2025-07-07T18:08:35.418117</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6844,31 +7359,31 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.929023</t>
+          <t>2025-07-07T20:23:54.984629</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 21</t>
+          <t>Package height when sagging is too high. Measured 200 mm</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-07-07T20:41:37.954032</t>
+          <t>2025-07-07T20:24:11.557410</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6878,14 +7393,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height when sagging is too high. Measured 210 mm</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:09.232090</t>
+          <t>2025-07-07T20:25:00.905263</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6895,31 +7410,31 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 424 mm</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-07-07T20:42:14.735939</t>
+          <t>2025-07-07T20:41:37.929023</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 423 mm</t>
+          <t>Failed to find placement for package with ID 21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:22.678706</t>
+          <t>2025-07-07T20:41:37.954032</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6929,14 +7444,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-07-07T20:49:25.426897</t>
+          <t>2025-07-07T20:42:09.232090</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6946,31 +7461,31 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 205 mm</t>
+          <t>Package length is too long. Measured 424 mm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.227524</t>
+          <t>2025-07-07T20:42:14.735939</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 32</t>
+          <t>Package length is too long. Measured 423 mm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-07-07T20:50:13.240163</t>
+          <t>2025-07-07T20:49:22.678706</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6980,265 +7495,286 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-07-07T21:29:45.978602</t>
+          <t>2025-07-07T20:49:25.426897</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-07-07T22:20:17.031515</t>
+          <t>2025-07-07T20:50:13.227524</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed to find placement for package with ID 32</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-07-07T22:20:17.040077</t>
+          <t>2025-07-07T20:50:13.240163</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 3</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-07-07T22:25:39.778239</t>
+          <t>2025-07-07T21:29:45.978602</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-07-07T22:25:39.792261</t>
+          <t>2025-07-07T22:20:17.031515</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 7</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:20:17.040077</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="93"/>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-07T22:25:39.778239</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>9.37-10.58</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>10.58-11.79</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-    </row>
+          <t>2025-07-07T22:25:39.792261</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="96"/>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>11.79-13.00</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>5</v>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>13.00-14.21</t>
+          <t>9.37-10.58</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>14.21-15.42</t>
+          <t>10.58-11.79</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>15.42-16.63</t>
+          <t>11.79-13.00</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>16.63-17.84</t>
+          <t>13.00-14.21</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>17.84-19.05</t>
+          <t>14.21-15.42</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>19.05-20.26</t>
+          <t>15.42-16.63</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20.26-21.47</t>
+          <t>16.63-17.84</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>17.84-19.05</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19.05-20.26</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>16.29-18.49</t>
+          <t>20.26-21.47</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>18.49-20.69</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="108"/>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>20.69-22.88</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>3</v>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>22.88-25.08</t>
+          <t>16.29-18.49</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>25.08-27.28</t>
+          <t>18.49-20.69</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7248,37 +7784,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>27.28-29.47</t>
+          <t>20.69-22.88</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>29.47-31.67</t>
+          <t>22.88-25.08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>31.67-33.87</t>
+          <t>25.08-27.28</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>33.87-36.07</t>
+          <t>27.28-29.47</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -7288,170 +7824,200 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>36.07-38.26</t>
+          <t>29.47-31.67</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>31.67-33.87</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>33.87-36.07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5.65-8.10</t>
+          <t>36.07-38.26</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>8.10-10.55</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>8</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120"/>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>10.55-12.99</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2</v>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>12.99-15.44</t>
+          <t>0.13-3.13</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>15.44-17.89</t>
+          <t>3.13-6.13</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>17.89-20.34</t>
+          <t>6.13-9.13</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20.34-22.79</t>
+          <t>9.13-12.13</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>22.79-25.23</t>
+          <t>12.13-15.13</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>25.23-27.68</t>
+          <t>15.13-18.13</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>27.68-30.13</t>
+          <t>18.13-21.13</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>21.13-24.13</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>24.13-27.13</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>27.13-30.13</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132"/>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>2025-07-07 20:00</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B134" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>2025-07-07 21:00</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>2025-07-07 22:00</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B136" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="134"/>
+    <row r="137"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -7464,7 +8030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8210,436 +8776,441 @@
     <row r="20">
       <c r="I20" t="inlineStr">
         <is>
+          <t>2025-07-08T01:33:22.522884</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>9.348954451000282</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" t="inlineStr">
+        <is>
           <t>2025-07-08T01:43:20.830363</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6.77231205300086</v>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22">
-      <c r="B22" s="2" t="inlineStr">
+    <row r="22"/>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>7.24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>7.35</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>21.71</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>34.15</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>11.35</t>
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-08T01:13:10.554253</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-08T01:13:10.572025</t>
+          <t>2025-07-08T01:13:10.554253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-08T01:21:37.898638</t>
+          <t>2025-07-08T01:13:10.572025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Vision Init Service</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.791967</t>
+          <t>2025-07-08T01:21:37.898638</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Vision Init Service</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-08T01:32:08.809127</t>
+          <t>2025-07-08T01:32:08.791967</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 277 mm</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-08T01:33:22.522884</t>
+          <t>2025-07-08T01:32:08.809127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Package height when sagging is too high. Measured 277 mm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-08T01:40:48.987836</t>
+          <t>2025-07-08T01:33:22.522884</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 403 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>2025-07-08T01:40:48.987836</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Package length is too long. Measured 403 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2025-07-08T01:40:56.515946</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Package length is too long. Measured 404 mm</t>
         </is>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8.96-10.23</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.23-11.51</t>
+          <t>8.96-10.23</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11.51-12.78</t>
+          <t>10.23-11.51</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12.78-14.06</t>
+          <t>11.51-12.78</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14.06-15.33</t>
+          <t>12.78-14.06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15.33-16.61</t>
+          <t>14.06-15.33</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16.61-17.88</t>
+          <t>15.33-16.61</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>17.88-19.16</t>
+          <t>16.61-17.88</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19.16-20.43</t>
+          <t>17.88-19.16</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>19.16-20.43</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>20.43-21.71</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>16.46-18.23</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18.23-20.00</t>
+          <t>16.46-18.23</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20.00-21.77</t>
+          <t>18.23-20.00</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -8649,7 +9220,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21.77-23.53</t>
+          <t>20.00-21.77</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -8659,47 +9230,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>23.53-25.30</t>
+          <t>21.77-23.53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>25.30-27.07</t>
+          <t>23.53-25.30</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>27.07-28.84</t>
+          <t>25.30-27.07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>28.84-30.61</t>
+          <t>27.07-28.84</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.61-32.38</t>
+          <t>28.84-30.61</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -8709,80 +9280,80 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>30.61-32.38</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>32.38-34.15</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B60" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>5.48-6.07</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6.07-6.65</t>
+          <t>5.48-6.07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.65-7.24</t>
+          <t>6.07-6.65</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7.24-7.83</t>
+          <t>6.65-7.24</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.83-8.42</t>
+          <t>7.24-7.83</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8.42-9.00</t>
+          <t>7.83-8.42</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -8792,7 +9363,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9.00-9.59</t>
+          <t>8.42-9.00</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -8802,17 +9373,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9.59-10.18</t>
+          <t>9.00-9.59</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10.18-10.76</t>
+          <t>9.59-10.18</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -8822,47 +9393,57 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>10.18-10.76</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>10.76-11.35</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B72" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-07-08 01:00</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>2025-07-08 01:00</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>2025-07-08 02:00</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B76" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="76"/>
+    <row r="77"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -8875,7 +9456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10462,210 +11043,208 @@
         <v>7.020958000000974</v>
       </c>
     </row>
-    <row r="44"/>
-    <row r="45">
-      <c r="B45" s="2" t="inlineStr">
+    <row r="44">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-09T00:22:12.580287</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1523438369986252</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>6.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Average</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>6.73</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>23.06</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>37.99</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>10.40</t>
         </is>
       </c>
     </row>
-    <row r="49"/>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-07-08T22:56:53.043192</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-08T22:56:53.065961</t>
+          <t>2025-07-08T22:56:53.043192</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise Callback</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to pick and raise</t>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.150607</t>
+          <t>2025-07-08T22:56:53.065961</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 11</t>
+          <t>Failed to pick and raise</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-08T23:16:59.174089</t>
+          <t>2025-07-08T23:16:59.150607</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 11</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-08T23:26:59.288288</t>
+          <t>2025-07-08T23:16:59.174089</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10675,14 +11254,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 204 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-08T23:27:06.637060</t>
+          <t>2025-07-08T23:26:59.288288</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10692,48 +11271,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 414 mm</t>
+          <t>Package height is too high. Measured 204 mm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.228905</t>
+          <t>2025-07-08T23:27:06.637060</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 37</t>
+          <t>Package length is too long. Measured 414 mm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-08T23:42:46.248970</t>
+          <t>2025-07-08T23:42:46.228905</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 37</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09T00:16:43.556644</t>
+          <t>2025-07-08T23:42:46.248970</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -10743,271 +11322,278 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Package length is too long. Measured 410 mm</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.528185</t>
+          <t>2025-07-09T00:16:43.556644</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Add Package Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Failed to find placement for package with ID 38</t>
+          <t>Package length is too long. Measured 410 mm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T00:17:16.552050</t>
+          <t>2025-07-09T00:17:16.528185</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unable to find a place for the package</t>
+          <t>Failed to find placement for package with ID 38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T00:22:12.580287</t>
+          <t>2025-07-09T00:17:16.552050</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>No contours found</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.132885</t>
+          <t>2025-07-09T00:22:12.580287</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.138871</t>
+          <t>2025-07-09T00:57:29.132885</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T00:57:29.145963</t>
+          <t>2025-07-09T00:57:29.138871</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 8</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.572326</t>
+          <t>2025-07-09T00:57:29.145963</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T00:58:22.579425</t>
+          <t>2025-07-09T00:58:22.572326</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 9</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.729963</t>
+          <t>2025-07-09T00:58:22.579425</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T01:04:06.741982</t>
+          <t>2025-07-09T01:04:06.729963</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 2</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-09T01:14:06.484565</t>
+          <t>2025-07-09T01:04:06.741982</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Retrieve Packages Callback: 2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>2025-07-09T01:14:06.484565</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>2025-07-09T01:14:06.501028</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Retrieve Packages Callback: 18</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>9.22-10.61</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10.61-11.99</t>
+          <t>9.22-10.61</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>11.99-13.37</t>
+          <t>10.61-11.99</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>13.37-14.76</t>
+          <t>11.99-13.37</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>14.76-16.14</t>
+          <t>13.37-14.76</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -11017,7 +11603,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>16.14-17.52</t>
+          <t>14.76-16.14</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -11027,7 +11613,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>17.52-18.91</t>
+          <t>16.14-17.52</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -11037,7 +11623,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>18.91-20.29</t>
+          <t>17.52-18.91</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -11047,60 +11633,60 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20.29-21.67</t>
+          <t>18.91-20.29</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21.67-23.06</t>
+          <t>20.29-21.67</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84"/>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21.67-23.06</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>15.56-17.81</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>17.81-20.05</t>
+          <t>15.56-17.81</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20.05-22.29</t>
+          <t>17.81-20.05</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -11110,37 +11696,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>22.29-24.53</t>
+          <t>20.05-22.29</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24.53-26.78</t>
+          <t>22.29-24.53</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>26.78-29.02</t>
+          <t>24.53-26.78</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>29.02-31.26</t>
+          <t>26.78-29.02</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -11150,190 +11736,200 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>31.26-33.50</t>
+          <t>29.02-31.26</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>33.50-35.75</t>
+          <t>31.26-33.50</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>33.50-35.75</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>35.75-37.99</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B96" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>5.67-6.14</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6.14-6.61</t>
+          <t>0.15-1.18</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6.61-7.09</t>
+          <t>1.18-2.20</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7.09-7.56</t>
+          <t>2.20-3.23</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7.56-8.03</t>
+          <t>3.23-4.25</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8.03-8.51</t>
+          <t>4.25-5.28</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8.51-8.98</t>
+          <t>5.28-6.30</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>8.98-9.45</t>
+          <t>6.30-7.32</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9.45-9.92</t>
+          <t>7.32-8.35</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9.92-10.40</t>
+          <t>8.35-9.37</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108"/>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.37-10.40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2025-07-08 23:00</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-07-09 00:00</t>
+          <t>2025-07-08 23:00</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>2025-07-09 00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>2025-07-09 01:00</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B113" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="113"/>
+    <row r="114"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -11346,7 +11942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11526,7 +12122,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:03.638161</t>
+          <t>2025-07-09T17:01:47.037100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11535,7 +12131,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6.897099805999915</v>
+        <v>9.247409285999993</v>
       </c>
     </row>
     <row r="5">
@@ -11570,7 +12166,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-09T17:03:37.617454</t>
+          <t>2025-07-09T17:03:03.638161</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11579,7 +12175,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.614939216000039</v>
+        <v>6.897099805999915</v>
       </c>
     </row>
     <row r="6">
@@ -11614,7 +12210,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-09T17:04:28.762056</t>
+          <t>2025-07-09T17:03:37.617454</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11623,7 +12219,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6.161488025999915</v>
+        <v>6.614939216000039</v>
       </c>
     </row>
     <row r="7">
@@ -11658,7 +12254,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-09T17:05:45.443970</t>
+          <t>2025-07-09T17:04:28.762056</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -11667,7 +12263,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7.119074510999781</v>
+        <v>6.161488025999915</v>
       </c>
     </row>
     <row r="8">
@@ -11702,7 +12298,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-09T17:06:45.293099</t>
+          <t>2025-07-09T17:05:45.443970</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -11711,7 +12307,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6.159382433000019</v>
+        <v>7.119074510999781</v>
       </c>
     </row>
     <row r="9">
@@ -11746,7 +12342,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-09T17:07:24.072217</t>
+          <t>2025-07-09T17:06:45.293099</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -11755,7 +12351,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6.417692975000136</v>
+        <v>6.159382433000019</v>
       </c>
     </row>
     <row r="10">
@@ -11790,7 +12386,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-09T17:26:59.647686</t>
+          <t>2025-07-09T17:07:24.072217</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -11799,7 +12395,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6.451890132000244</v>
+        <v>6.417692975000136</v>
       </c>
     </row>
     <row r="11">
@@ -11834,7 +12430,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-09T20:30:30.101595</t>
+          <t>2025-07-09T17:08:06.371557</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -11843,7 +12439,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.816499478999503</v>
+        <v>0.1080534509999325</v>
       </c>
     </row>
     <row r="12">
@@ -11878,7 +12474,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:01.738214</t>
+          <t>2025-07-09T17:26:59.647686</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -11887,7 +12483,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>8.540726980000727</v>
+        <v>6.451890132000244</v>
       </c>
     </row>
     <row r="13">
@@ -11922,7 +12518,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-09T20:31:37.819749</t>
+          <t>2025-07-09T20:30:30.101595</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -11931,7 +12527,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.299677785000313</v>
+        <v>8.816499478999503</v>
       </c>
     </row>
     <row r="14">
@@ -11966,7 +12562,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-09T20:32:20.341560</t>
+          <t>2025-07-09T20:31:01.738214</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -11975,7 +12571,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>11.75148576600077</v>
+        <v>8.540726980000727</v>
       </c>
     </row>
     <row r="15">
@@ -12010,7 +12606,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:07.793293</t>
+          <t>2025-07-09T20:31:37.819749</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -12019,7 +12615,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.708521808000114</v>
+        <v>7.299677785000313</v>
       </c>
     </row>
     <row r="16">
@@ -12054,7 +12650,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-09T20:33:49.288918</t>
+          <t>2025-07-09T20:32:20.341560</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -12063,7 +12659,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>9.006529381000291</v>
+        <v>11.75148576600077</v>
       </c>
     </row>
     <row r="17">
@@ -12098,7 +12694,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-09T20:34:30.067643</t>
+          <t>2025-07-09T20:33:07.793293</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -12107,7 +12703,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>11.63869443600015</v>
+        <v>7.708521808000114</v>
       </c>
     </row>
     <row r="18">
@@ -12142,7 +12738,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:05.386697</t>
+          <t>2025-07-09T20:33:49.288918</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -12151,7 +12747,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>8.106902147000255</v>
+        <v>9.006529381000291</v>
       </c>
     </row>
     <row r="19">
@@ -12186,7 +12782,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-09T20:35:35.226695</t>
+          <t>2025-07-09T20:34:30.067643</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -12195,7 +12791,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>8.520435885000552</v>
+        <v>11.63869443600015</v>
       </c>
     </row>
     <row r="20">
@@ -12230,7 +12826,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:29.537481</t>
+          <t>2025-07-09T20:35:05.386697</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -12239,7 +12835,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8.480712200000198</v>
+        <v>8.106902147000255</v>
       </c>
     </row>
     <row r="21">
@@ -12274,7 +12870,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:57.813144</t>
+          <t>2025-07-09T20:35:35.226695</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -12283,7 +12879,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.521772070000225</v>
+        <v>8.520435885000552</v>
       </c>
     </row>
     <row r="22">
@@ -12318,7 +12914,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:33.987930</t>
+          <t>2025-07-09T20:36:07.336123</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -12327,7 +12923,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>8.629125122000005</v>
+        <v>12.07209446199977</v>
       </c>
     </row>
     <row r="23">
@@ -12362,7 +12958,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-09T20:38:59.265073</t>
+          <t>2025-07-09T20:36:29.537481</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -12371,7 +12967,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>6.954240297000069</v>
+        <v>8.480712200000198</v>
       </c>
     </row>
     <row r="24">
@@ -12406,7 +13002,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:29.977912</t>
+          <t>2025-07-09T20:36:57.813144</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -12415,7 +13011,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>7.272197137000148</v>
+        <v>6.521772070000225</v>
       </c>
     </row>
     <row r="25">
@@ -12450,7 +13046,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:17.407669</t>
+          <t>2025-07-09T20:37:32.893677</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -12459,7 +13055,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>6.873431026000617</v>
+        <v>9.810703275999913</v>
       </c>
     </row>
     <row r="26">
@@ -12494,7 +13090,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:55.082577</t>
+          <t>2025-07-09T20:38:33.987930</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -12503,7 +13099,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>7.356497611000123</v>
+        <v>8.629125122000005</v>
       </c>
     </row>
     <row r="27">
@@ -12538,7 +13134,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-09T20:41:52.569669</t>
+          <t>2025-07-09T20:38:59.265073</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -12547,7 +13143,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>6.921981114000118</v>
+        <v>6.954240297000069</v>
       </c>
     </row>
     <row r="28">
@@ -12582,7 +13178,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-09T20:42:31.549409</t>
+          <t>2025-07-09T20:39:29.977912</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -12591,7 +13187,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>8.263683973000298</v>
+        <v>7.272197137000148</v>
       </c>
     </row>
     <row r="29">
@@ -12626,7 +13222,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:08.035381</t>
+          <t>2025-07-09T20:40:17.407669</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -12635,7 +13231,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>9.204706790000273</v>
+        <v>6.873431026000617</v>
       </c>
     </row>
     <row r="30">
@@ -12654,7 +13250,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-09T20:43:40.411913</t>
+          <t>2025-07-09T20:40:55.082577</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -12663,7 +13259,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>6.803173390999291</v>
+        <v>7.356497611000123</v>
       </c>
     </row>
     <row r="31">
@@ -12682,7 +13278,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-09T20:45:03.272091</t>
+          <t>2025-07-09T20:41:52.569669</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -12691,7 +13287,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>10.16644128699954</v>
+        <v>6.921981114000118</v>
       </c>
     </row>
     <row r="32">
@@ -12710,7 +13306,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-09T20:45:40.087592</t>
+          <t>2025-07-09T20:42:31.549409</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -12719,7 +13315,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>7.225754842000242</v>
+        <v>8.263683973000298</v>
       </c>
     </row>
     <row r="33">
@@ -12738,7 +13334,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-09T20:46:28.717921</t>
+          <t>2025-07-09T20:43:08.035381</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -12747,7 +13343,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>7.40263581399995</v>
+        <v>9.204706790000273</v>
       </c>
     </row>
     <row r="34">
@@ -12766,7 +13362,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:27.405597</t>
+          <t>2025-07-09T20:43:40.411913</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -12775,483 +13371,475 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>10.9151503310004</v>
+        <v>6.803173390999291</v>
       </c>
     </row>
     <row r="35">
       <c r="I35" t="inlineStr">
         <is>
+          <t>2025-07-09T20:45:03.272091</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>10.16644128699954</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:45:40.087592</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>7.225754842000242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:46:28.717921</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.40263581399995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-09T20:56:27.405597</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>10.9151503310004</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
           <t>2025-07-09T20:56:48.251831</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>7.771012766999775</v>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
+    <row r="40"/>
+    <row r="41">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J41" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>17.83</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>36.19</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>11.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:01:47.037100</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:04:12.589235</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 438 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:05:01.688080</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Package length is too long. Measured 411 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-07-09T17:08:06.371557</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-09T17:45:36.009750</t>
+          <t>2025-07-09T17:01:47.037100</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [10]</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.276053</t>
+          <t>2025-07-09T17:04:12.589235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package length is too long. Measured 438 mm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.277270</t>
+          <t>2025-07-09T17:05:01.688080</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Package length is too long. Measured 411 mm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-09T18:02:26.285881</t>
+          <t>2025-07-09T17:08:06.371557</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 4</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>No contours found</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.485227</t>
+          <t>2025-07-09T17:45:36.009750</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Find Package Callback</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Failed to find packages with IDs: [10]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-09T18:03:36.491422</t>
+          <t>2025-07-09T18:02:26.276053</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Failed to find package</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-09T20:36:07.336123</t>
+          <t>2025-07-09T18:02:26.277270</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Error message not found</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-09T20:37:32.893677</t>
+          <t>2025-07-09T18:02:26.285881</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
+          <t>Retrieve Packages Callback: 4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Failed to extract address using GPT query</t>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-09T20:39:40.083563</t>
+          <t>2025-07-09T18:03:36.485227</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Find Package Callback</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 192 mm</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.663328</t>
+          <t>2025-07-09T18:03:36.491422</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find package</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-09T20:40:28.673805</t>
+          <t>2025-07-09T20:36:07.336123</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Package height when sagging is too high. Measured 285 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-09T20:52:36.900737</t>
+          <t>2025-07-09T20:37:32.893677</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Package height is too high. Measured 215 mm</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.092396</t>
+          <t>2025-07-09T20:39:40.083563</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height when sagging is too high. Measured 192 mm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:32.103587</t>
+          <t>2025-07-09T20:40:28.663328</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.326403</t>
+          <t>2025-07-09T20:40:28.673805</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package height when sagging is too high. Measured 285 mm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09T20:56:56.350654</t>
+          <t>2025-07-09T20:52:36.900737</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -13261,186 +13849,214 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
+          <t>Package height is too high. Measured 215 mm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09T21:14:57.673519</t>
+          <t>2025-07-09T20:56:32.092396</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Failed to find packages with IDs: [9]</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.061029</t>
+          <t>2025-07-09T20:56:32.103587</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.068756</t>
+          <t>2025-07-09T20:56:56.326403</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09T21:36:10.076362</t>
+          <t>2025-07-09T20:56:56.350654</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 22</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.897946</t>
+          <t>2025-07-09T21:14:57.673519</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Retrieve Packages Callback</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find packages with IDs: [9]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.900418</t>
+          <t>2025-07-09T21:36:10.061029</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Execute Pick and Raise</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09T21:41:01.993078</t>
+          <t>2025-07-09T21:36:10.068756</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback: 18</t>
+          <t>Execute Pick and Place Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:36:10.076362</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 22</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
     </row>
-    <row r="70"/>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-09T21:41:01.897946</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9.83-11.43</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5</v>
+          <t>2025-07-09T21:41:01.900418</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>11.43-13.03</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>13.03-14.62</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
-      </c>
-    </row>
+          <t>2025-07-09T21:41:01.993078</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 18</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>14.62-16.22</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>11</v>
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>16.22-17.81</t>
+          <t>9.83-11.43</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -13450,7 +14066,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>17.81-19.41</t>
+          <t>11.43-13.03</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -13460,7 +14076,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19.41-21.01</t>
+          <t>13.03-14.62</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -13470,90 +14086,90 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>21.01-22.60</t>
+          <t>14.62-16.22</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22.60-24.20</t>
+          <t>16.22-17.81</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24.20-25.79</t>
+          <t>17.81-19.41</t>
         </is>
       </c>
       <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>19.41-21.01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>21.01-22.60</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="82"/>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>17.83-19.66</t>
+          <t>22.60-24.20</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>19.66-21.50</t>
+          <t>24.20-25.79</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>21.50-23.34</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="86"/>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>23.34-25.17</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>7</v>
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>25.17-27.01</t>
+          <t>17.83-19.66</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -13563,130 +14179,130 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>27.01-28.85</t>
+          <t>19.66-21.50</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>28.85-30.68</t>
+          <t>21.50-23.34</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.68-32.52</t>
+          <t>23.34-25.17</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>32.52-34.36</t>
+          <t>25.17-27.01</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>34.36-36.19</t>
+          <t>27.01-28.85</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>28.85-30.68</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>30.68-32.52</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6.16-6.72</t>
+          <t>32.52-34.36</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6.72-7.28</t>
+          <t>34.36-36.19</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>7.28-7.84</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>5</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98"/>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>7.84-8.40</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>3</v>
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8.40-8.96</t>
+          <t>0.11-1.30</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8.96-9.51</t>
+          <t>1.30-2.50</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9.51-10.07</t>
+          <t>2.50-3.70</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -13696,77 +14312,117 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10.07-10.63</t>
+          <t>3.70-4.89</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10.63-11.19</t>
+          <t>4.89-6.09</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>11.19-11.75</t>
+          <t>6.09-7.29</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7.29-8.48</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>9</v>
+      </c>
+    </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.48-9.68</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-07-09 17:00</t>
+          <t>9.68-10.88</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>10.88-12.07</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-09 17:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>2025-07-09 18:00</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B113" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>2025-07-09 21:00</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B114" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="111"/>
+    <row r="115"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -3162,7 +3162,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Vision: Package Dimension Error</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Gripper: Vacuum Failure</t>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Day 3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Day 4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Day 5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Day 6" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -187,12 +188,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$6</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$6</f>
+              <f>'Master Summary'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -219,12 +220,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$6</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$6</f>
+              <f>'Master Summary'!$D$2:$D$7</f>
             </numRef>
           </val>
         </ser>
@@ -251,12 +252,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$6</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$6</f>
+              <f>'Master Summary'!$E$2:$E$7</f>
             </numRef>
           </val>
         </ser>
@@ -1099,12 +1100,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$6</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$6</f>
+              <f>'Master Summary'!$J$2:$J$7</f>
             </numRef>
           </val>
         </ser>
@@ -1136,7 +1137,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$6</f>
+              <f>'Master Summary'!$K$2:$K$7</f>
             </numRef>
           </val>
         </ser>
@@ -1338,6 +1339,307 @@
           <val>
             <numRef>
               <f>'Day 5'!$B$108:$B$110</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 6'!B77</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 6'!$A$78:$A$87</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 6'!$B$78:$B$87</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 6'!B89</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 6'!$A$90:$A$99</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 6'!$B$90:$B$99</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 6'!B101</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 6'!$A$102:$A$111</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 6'!$B$102:$B$111</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 6'!B113</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 6'!$A$114:$A$115</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 6'!$B$114:$B$115</f>
             </numRef>
           </val>
         </ser>
@@ -1948,7 +2250,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -1970,7 +2272,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2434,6 +2736,99 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>100</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>112</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2723,7 +3118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,6 +3406,49 @@
       </c>
       <c r="M6" t="n">
         <v>0.7758506075000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5628282969444445</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.021561097777778</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3248,6 +3686,43 @@
       </c>
       <c r="K6" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11340,52 +11815,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -12780,24 +13255,24 @@
     </row>
     <row r="36"/>
     <row r="37">
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -12807,7 +13282,7 @@
           <t>15.66</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -12817,7 +13292,7 @@
           <t>26.52</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -12829,7 +13304,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -12839,7 +13314,7 @@
           <t>9.83</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -12849,7 +13324,7 @@
           <t>17.83</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -12861,7 +13336,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -12871,7 +13346,7 @@
           <t>25.79</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -12881,7 +13356,7 @@
           <t>36.19</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -12894,17 +13369,17 @@
     </row>
     <row r="41"/>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -13371,12 +13846,12 @@
     </row>
     <row r="70"/>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B71" s="1" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -13484,12 +13959,12 @@
     </row>
     <row r="82"/>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B83" s="1" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -13597,12 +14072,12 @@
     </row>
     <row r="94"/>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B95" s="1" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -13710,12 +14185,12 @@
     </row>
     <row r="106"/>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B107" s="1" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -13756,4 +14231,2434 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:40:54.893419</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>71.37139698100009</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:24:47.166310</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 18)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>24.51405289100057</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:39:59.030548</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>13.6682736810003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:43:44.358943</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15.9129081430001</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:24:47.166310</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 28)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>21.55270833199938</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:44:06.033120</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>6.129066134999903</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:44:10.604689</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.36751304300014</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:27:54.396793</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 29)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>27.92434960900027</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:45:33.634607</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>15.08043583500012</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:45:31.859748</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15.07451665499957</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:33:37.124795</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>22.93322730999989</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:45:56.732984</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>8.179402084999765</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:46:06.258926</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19.87638477200016</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:34:49.018232</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 22)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>39.34805943900028</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:46:34.536596</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>13.0217830659999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:46:35.507949</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14.14599092700018</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:45:05.622559</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>28.10675261899996</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:47:04.647527</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>6.453577467999821</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:47:11.917368</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15.25857065500031</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:46:14.105596</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 30)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>33.32706891299949</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:47:41.848051</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>7.310219932000109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:48:19.660435</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11.97339253200016</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:46:59.527573</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>36.95982115000061</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:48:23.265697</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>13.54128071700006</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:49:33.155188</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12.30257993099985</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:49:42.900459</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>29.21103480800048</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:48:51.944557</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>8.398797129000286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:51:34.557564</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10.16599401999974</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:49:42.900459</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>34.82511259399962</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:49:32.933085</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>10.36216175100026</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:52:05.455778</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17.38472799400006</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:53:26.040157</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>30.54601972199998</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:49:57.516233</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>8.44385518900026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:52:39.056818</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16.00878539299993</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:54:52.924853</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>24.85015876200032</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:51:31.721064</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7.153507579000234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:53:14.343755</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16.95296562299973</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:56:20.732897</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>32.026485718</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:51:59.358160</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>7.717519638999875</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:55:17.451908</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>11.55568371500021</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:00:02.876742</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>19.90405979199932</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:52:37.524340</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>12.79152987299994</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:55:55.284907</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>14.23364843000036</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:04:16.553571</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 17)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>26.77861645099983</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:53:09.563029</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>10.29314979300034</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:57:11.475429</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>14.202758077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:13:36.413834</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>32.74339233499995</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:53:46.531917</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>7.722303881000244</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:57:51.600629</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14.83924359799994</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:13:36.413834</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 34)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>33.56315659099982</v>
+      </c>
+      <c r="G18" t="n">
+        <v>34</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:54:45.680388</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>6.422102085999995</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:58:43.305028</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>14.0285458469998</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:14:10.550280</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>26.37474933700014</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:55:17.528127</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>9.678654162999919</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:59:04.283011</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10.02204860399979</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:21:10.392572</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 31)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>31.47083117799957</v>
+      </c>
+      <c r="G20" t="n">
+        <v>31</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:55:49.747765</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6.766122168000038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:59:28.146275</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14.2932208330003</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:22:15.715431</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>34.41502785899866</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:56:23.245484</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>9.471834323000166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:59:53.275074</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14.38870017099998</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:22:15.715431</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>25.3239531249983</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:57:08.869947</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>7.833445908000158</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:00:27.568657</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>15.93576829299991</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:26:04.786262</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 33)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>26.79378583799917</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:57:44.636212</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>7.69226282100044</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:02:07.295826</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>16.04148905600005</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:58:41.895421</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>12.52499125800023</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:02:38.320101</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12.85468629500019</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:59:02.297069</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>7.857107413999984</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:03:44.601953</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16.15044052400026</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:59:24.959942</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>7.385817719999977</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:04:21.347121</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16.49332053799981</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:59:49.085600</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>8.381729327999892</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:04:59.360251</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>16.97427246799998</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:00:52.404312</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6.923370559999967</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:05:36.353412</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15.56534413500003</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:01:22.818008</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>6.332638588999998</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:06:01.122406</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10.9722325759999</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:02:03.331609</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>9.842082479000055</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:06:28.112322</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12.22770663199981</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:02:34.553506</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>7.447700661999988</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:07:13.807093</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>18.64544717299987</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:03:41.269445</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>7.189584733999709</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:13:26.059188</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>14.75712942300015</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:04:14.857221</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>8.167566461000206</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:14:03.959845</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>17.46585036499982</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:04:52.942746</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>8.926236614000118</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:14:41.075288</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15.42821048499991</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:05:30.526605</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>9.555216784999629</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:06:00.732883</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>10.44259968599999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:06:24.961983</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7.620882779000112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:07:03.985214</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>7.212076873999649</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:13:21.390857</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>6.593189544999404</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:13:56.594887</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>6.584655456000291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:14:37.142349</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>9.715482558000076</v>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:43:33.779601</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:47:52.945850</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 201 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:48:59.011394</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:48:59.033390</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:49:14.324595</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:49:14.330191</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:53:52.924999</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:54:34.559620</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 258 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:54:48.889902</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:56:28.588471</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:56:28.609165</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-10T20:58:17.167070</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Package height is too high. Measured 200 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:00:19.391123</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:01:02.312505</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:01:29.337989</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:03:07.129895</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:03:17.020098</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:25:32.405754</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-10T21:25:32.412954</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:05:15.922321</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:05:15.940098</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:18:24.279677</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:18:24.280902</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:18:24.292277</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 4</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:22:58.630049</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:22:58.631196</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-07-10T22:22:58.642483</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10.02-16.16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>16.16-22.29</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>22.29-28.43</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>28.43-34.56</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>34.56-40.70</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>40.70-46.83</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>46.83-52.97</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>52.97-59.10</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>59.10-65.24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>65.24-71.37</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88"/>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>19.90-21.85</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>21.85-23.79</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>23.79-25.74</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>25.74-27.68</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>27.68-29.63</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>29.63-31.57</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>31.57-33.51</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>33.51-35.46</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>35.46-37.40</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>37.40-39.35</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>6.13-7.02</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>7.02-7.92</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>7.92-8.81</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>8.81-9.71</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>9.71-10.60</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10.60-11.50</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>11.50-12.40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12.40-13.29</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>13.29-14.19</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>14.19-15.08</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-07-10 21:00</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-07-10 22:00</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Day 4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Day 5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Day 6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Day 7" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -188,12 +189,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$7</f>
+              <f>'Master Summary'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$7</f>
+              <f>'Master Summary'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
@@ -220,12 +221,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$7</f>
+              <f>'Master Summary'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$7</f>
+              <f>'Master Summary'!$D$2:$D$8</f>
             </numRef>
           </val>
         </ser>
@@ -252,12 +253,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$7</f>
+              <f>'Master Summary'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$7</f>
+              <f>'Master Summary'!$E$2:$E$8</f>
             </numRef>
           </val>
         </ser>
@@ -1100,12 +1101,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$7</f>
+              <f>'Master Summary'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$7</f>
+              <f>'Master Summary'!$J$2:$J$8</f>
             </numRef>
           </val>
         </ser>
@@ -1137,7 +1138,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$7</f>
+              <f>'Master Summary'!$K$2:$K$8</f>
             </numRef>
           </val>
         </ser>
@@ -1640,6 +1641,307 @@
           <val>
             <numRef>
               <f>'Day 6'!$B$114:$B$115</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 7'!B272</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 7'!$A$273:$A$282</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 7'!$B$273:$B$282</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 7'!B284</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 7'!$A$285:$A$294</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 7'!$B$285:$B$294</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 7'!B296</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 7'!$A$297:$A$306</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 7'!$B$297:$B$306</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 7'!B308</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 7'!$A$309:$A$320</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 7'!$B$309:$B$320</f>
             </numRef>
           </val>
         </ser>
@@ -2250,7 +2552,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2272,7 +2574,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2829,6 +3131,99 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>271</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>283</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>295</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>307</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3118,7 +3513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3449,6 +3844,49 @@
       </c>
       <c r="M7" t="n">
         <v>1.021561097777778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F8" t="n">
+        <v>133</v>
+      </c>
+      <c r="G8" t="n">
+        <v>163</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>129</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.399205809444441</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.221508685277778</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3723,6 +4161,43 @@
       </c>
       <c r="K7" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -14248,52 +14723,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -15695,24 +16170,24 @@
     </row>
     <row r="42"/>
     <row r="43">
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -15722,7 +16197,7 @@
           <t>16.35</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -15732,7 +16207,7 @@
           <t>29.25</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -15744,7 +16219,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -15754,7 +16229,7 @@
           <t>10.02</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -15764,7 +16239,7 @@
           <t>19.90</t>
         </is>
       </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -15776,7 +16251,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -15786,7 +16261,7 @@
           <t>71.37</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -15796,7 +16271,7 @@
           <t>39.35</t>
         </is>
       </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -15809,17 +16284,17 @@
     </row>
     <row r="47"/>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -16286,12 +16761,12 @@
     </row>
     <row r="76"/>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -16399,12 +16874,12 @@
     </row>
     <row r="88"/>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B89" s="1" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -16512,12 +16987,12 @@
     </row>
     <row r="100"/>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B101" s="1" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -16625,12 +17100,12 @@
     </row>
     <row r="112"/>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B113" s="1" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -16661,4 +17136,6897 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N321"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-14T23:20:28.025785</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>10.23742199199933</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:54:28.208497</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>25.97640675000002</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-14T23:20:25.425397</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>7.501711642999908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-14T23:21:16.760428</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15.50615383400054</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:02:55.589453</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 10)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>20.87606333000076</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-14T23:21:10.376348</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7.190829516999656</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:03:16.447737</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28.86597200899996</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-15T18:02:25.413604</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25.03010336199986</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:03:03.035919</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>13.67949707799926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:09:25.974989</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12.88439412099979</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-15T18:02:25.413604</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>26.3309405179989</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:09:22.102541</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>7.255849569999555</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:19:35.402394</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10.69837228699907</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-15T19:06:16.977712</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>13.29698678199929</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:19:32.331157</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>7.480821567000021</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:20:20.205618</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24.79583506500057</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-15T19:06:16.977712</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>20.50125981699966</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:20:04.032768</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>7.083257292000781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:22:11.535551</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14.4545541869993</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-15T20:30:14.144181</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>9.093051031999494</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:22:03.845241</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>6.629320400999859</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:23:40.433139</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12.36631389099966</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-15T20:30:14.144181</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>18.20070479300193</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:23:36.707797</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>6.891355597001166</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:45:27.291540</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10.03524210199976</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:45:01.814332</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>15.7190756050004</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:45:25.909197</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>7.128419274000407</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:45:57.878212</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13.89257862299928</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:45:01.814332</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 18)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>22.17424469999969</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:45:52.908031</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>7.030956884000261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:46:26.086977</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12.77805080899998</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:45:01.814332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 20)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>24.62386713300293</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:46:19.625089</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6.205658238999604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:47:36.078672</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>11.59791020100056</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:50:30.794384</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>15.04600830600248</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:47:32.023036</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7.409224052000354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:48:47.693506</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>18.52174579299935</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-15T22:05:03.004798</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>16.98954229500305</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:48:42.916182</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6.947215095000502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:49:20.818161</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>16.5006863689996</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:47:51.135121</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 29)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>35.47977614100091</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:49:49.932693</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>9.668084340999485</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:49:54.402635</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>17.74316117300077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:48:47.644453</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 30)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>26.07040084599794</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:51:22.228781</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>7.194146826999713</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:50:26.116137</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16.22398100800092</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:50:12.507851</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 31)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>23.9472739490011</v>
+      </c>
+      <c r="G17" t="n">
+        <v>31</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:55:38.494351</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>7.176375045999521</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:51:27.442583</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14.01445524100018</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:07:34.405943</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>17.97145369899954</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:59:12.437969</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>6.808648713000366</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:59:16.681275</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12.74711104500057</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-17T16:49:27.278177</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>15.08432913100023</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:03:14.080727</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>7.122922611999456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:22:20.437256</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10.29617067799882</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:52:48.573820</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>24.43500420899727</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:22:16.755843</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6.477640256000086</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:23:20.873610</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14.83606740399955</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:54:28.808235</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 30)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>17.61541582300197</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:23:13.694513</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>7.502986408999277</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:24:03.585072</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>19.00971418900008</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:54:28.808235</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>28.53343931900235</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:23:57.691333</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6.562078932000077</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-15T02:06:35.309356</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11.7508563429983</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:54:28.808235</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>28.34332955699938</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-15T02:06:31.699712</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>8.040926730001956</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-15T02:07:21.000477</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>22.27978552499917</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:17:54.162843</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>16.42402329400284</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-15T02:07:12.543908</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.987346301997604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-15T02:07:59.427063</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>16.25860902699787</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:17:54.162843</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 32)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>17.87759665299745</v>
+      </c>
+      <c r="G25" t="n">
+        <v>32</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-15T02:07:50.512334</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>5.734805070998846</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-15T15:58:10.940737</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10.10219406499994</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:17:54.162843</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 33)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>18.50257789799798</v>
+      </c>
+      <c r="G26" t="n">
+        <v>33</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-15T15:58:13.416883</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>10.86717873700002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-15T15:59:06.793280</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>18.48587495300001</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:17:54.162843</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 35)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>19.63337877799859</v>
+      </c>
+      <c r="G27" t="n">
+        <v>35</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-15T15:59:03.044668</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>7.41748102300005</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-15T15:59:49.534190</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15.14434148200007</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-15T15:59:44.628558</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6.476791398000046</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-15T16:51:31.702673</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15.03930602700029</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-15T16:51:30.851871</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>7.422993849999784</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:22:13.071155</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>13.95969768499981</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:22:11.577980</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>7.047548086999996</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:27:31.248664</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14.01824963199942</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:27:29.488122</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>6.957619345000239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:28:36.424134</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17.8523754480002</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:28:29.258333</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>7.162533652000093</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:32:27.970738</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>13.85485890099972</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:32:26.692606</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>7.249928103999991</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:45:35.213459</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15.20911807799712</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:32:47.083110</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6.064736770999843</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:46:14.604165</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12.87379506600337</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:46:10.101158</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>6.720032662000449</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:46:49.530464</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>12.84246585100118</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:46:44.917417</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>6.579244971002481</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:51:43.356866</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>16.37967379900147</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:51:34.958870</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>6.363921140997263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:06:52.775545</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>13.74227842699838</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:06:51.648442</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>7.401180984001257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:09:34.141469</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>13.28313247199912</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:09:33.334638</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>7.243173939998087</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:11:26.718421</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>13.70629386699875</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:11:25.695698</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7.408306725999864</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-07-16T18:23:11.080896</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>11.06847821200017</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:58:51.241914</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>6.940760067998781</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-07-16T18:23:33.420119</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10.05289873100037</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-07-16T01:13:55.567373</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>8.466831901001569</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-16T20:27:50.928543</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11.90245390900054</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-07-16T18:23:07.724246</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>7.544694419999814</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-16T20:28:24.016594</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>16.28501187999973</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-16T18:23:29.632718</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>6.041712990999713</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-16T20:29:00.439973</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>18.1292509750001</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-07-16T20:27:47.380932</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>8.22765436300142</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:03:13.482440</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7.896120339000845</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-07-16T20:28:17.208278</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>7.704692764000356</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:04:04.524636</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>9.88017253200087</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-07-16T20:28:50.215104</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>6.278333979000308</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:17:30.304594</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20.52953969299961</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:03:18.798093</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>13.01128086900098</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:29:02.393972</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>13.46609825700034</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:04:03.650742</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>7.337743964000765</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:31:04.754354</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>14.59061159699922</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:04:42.263143</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>12.12959422700078</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:32:23.192820</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>13.3584798310003</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:29:03.279548</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>9.159374505999949</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:43:50.284440</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>13.67866109700117</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:31:00.621769</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>6.784803958998964</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:48:46.516266</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>14.8274897400006</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:01:24.693906</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>8.020479882001382</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:56:00.536933</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>13.27110660100152</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:01:25.241950</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>7.384330897000837</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:00:35.026801</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>13.38552314399931</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:34:42.912278</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>7.093005912999615</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:01:27.357167</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>12.23330129200258</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:40:30.842687</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>7.856856018999679</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:05:45.556932</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>13.64855083200018</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:41:41.291343</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>10.02403310299997</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:14:37.394705</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>14.6731928879999</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:42:02.438334</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>7.03215387399996</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:01:26.318333</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>12.10973953699977</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:43:06.267695</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>5.943938069999604</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:34:44.819976</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10.10784083399994</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:53:16.422950</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>7.50551382499998</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:41:40.011119</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9.563261475999752</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:57:38.490412</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>6.217149746000359</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:42:09.324733</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>14.70123683899965</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:57:57.658079</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>5.827923922999616</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:43:12.349580</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>12.81943327699992</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:58:47.961734</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>6.077588465999725</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:53:20.370484</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>12.25999564799986</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:01:22.996959</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>7.220844120000038</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:55:31.807318</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>11.47321385500072</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:06:07.737352</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>6.59612167799969</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:56:09.598214</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>11.26073204800014</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:35:52.821058</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>6.923715623999669</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:57:42.931775</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>11.50426962199981</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:36:12.767642</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>7.113568902001134</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:58:16.745522</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>25.69024199700016</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:36:41.625220</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>6.278644599000472</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:58:53.454695</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>12.31409314699977</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:09:54.188238</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>6.825565625000309</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:59:42.023232</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>10.53590914199958</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:27.484061</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>6.370507931000247</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:00:32.979332</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>11.04066839599909</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:12:00.368197</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>7.69424927199907</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:01:26.632226</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>11.65856868699848</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:12:25.355999</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>6.090092966000157</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:06:09.904920</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>10.22818077400007</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:13:09.413908</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>6.334452917999442</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:07:37.156089</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12.34508944700065</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:13:45.434140</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>6.380082219000542</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:10:26.255411</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>14.50675313799911</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:15:02.581577</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>5.835733752001033</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:11:04.688785</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>11.26145254800031</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2025-07-17T16:48:37.568854</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>10.06291380699986</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:12:02.154551</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>10.93853420999949</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2025-07-17T18:22:02.639808</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>8.223246763000134</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:12:29.556761</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15.99166158099979</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2025-07-17T18:22:58.520297</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>8.734306783000648</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:17:14.818993</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>9.301761536000413</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:16:05.908143</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>8.245742762999726</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:35:53.937794</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>8.24379325100017</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:18:19.322659</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>7.787555822000286</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:36:14.418143</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>8.878975734000051</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:18:57.421585</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>7.932871740000337</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:36:45.973654</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>12.45882053700007</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:20:38.492055</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>6.698768969001321</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:09:55.556614</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>13.69115122599942</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:21:39.577210</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>6.47156700800042</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:31.413275</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>11.88595284000075</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:51:54.716858</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>10.5547480740006</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:12:00.203102</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>7.734228760999031</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:14:30.711961</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>11.14729203299976</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:12:31.705795</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>12.56387908400029</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:15:38.589194</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>8.032578334999926</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:13:46.105994</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>7.156476128999202</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:16:39.435198</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>7.357816114999878</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:14:21.066175</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>12.95868074600003</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:18:17.407488</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>8.516274137000437</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:15:07.227581</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>10.582967534001</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:18:37.458733</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>9.28581498099993</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:22:16.483245</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>14.0685775740003</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:03.631133</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>12.69786712399946</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-07-17T16:48:35.767097</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>8.393582460999824</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:28.095938</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>8.810592637999434</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-07-17T18:22:02.228480</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>7.944835372998568</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:47.111770</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>10.64564558600068</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-17T18:22:59.744668</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>16.47959534199981</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:20:11.072353</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>7.731240981998781</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:16:05.309817</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>9.295195111000794</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:20:38.135345</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>7.666897531998984</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:18:21.050177</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>11.56835264300025</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:22:24.735034</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>11.58865243000037</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:51:52.271613</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>9.76538279200031</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:22:46.563740</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>7.42435379500057</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:14:29.887660</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>11.30975924700033</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:23:37.278959</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>7.571019883998815</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:15:42.797276</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>13.05827225400026</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:24:18.655959</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>6.928089720000571</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:16:44.596262</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>13.35778839399973</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:24:46.631181</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>8.657031394001024</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:18:16.508893</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>8.609134190000987</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:27:00.550227</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>8.917156741001236</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:18:38.592025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>11.34785763699983</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:27:21.587992</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>7.575285848999556</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:28.333414</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>11.70561386999907</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:27:54.204646</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>9.240335764001429</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:47.739288</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>12.1133782729994</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:28:10.948153</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>8.245027390999894</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:21:07.642661</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>10.63310175299921</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:28:42.871294</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>9.725745630001256</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:22:22.101149</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>11.91434042899891</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:29:10.460398</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>10.4768872550012</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:23:36.486386</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9.508502833999955</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:29:34.262733</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>7.485411296000166</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:24:20.013714</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9.110716931001662</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:30:04.448932</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>8.611731704999329</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:24:48.707538</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>11.66544955600148</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:30:29.078643</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>7.927197998000338</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:25:10.810301</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>15.71696926600089</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:33:20.225988</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>8.540628188002302</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:26:31.313425</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>13.86366572800034</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:33:39.649860</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>7.590346138000314</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:27:02.879707</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>12.14350386000115</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:33:58.796465</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>9.776564660998702</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:27:27.169754</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>14.00226726599976</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:34:29.458689</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>7.87028669099891</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:27:56.184440</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>12.09918199599997</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:34:49.769675</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>7.446624877000431</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:28:23.851414</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>22.00689865000095</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:35:40.059856</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>8.66682884599868</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:28:52.314098</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>20.05788204300006</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:36:04.293879</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>10.57209376099854</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:29:19.370275</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>20.27321921700059</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:36:32.841138</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>7.803545455000858</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:29:41.654588</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>15.71180604999972</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:37:04.328101</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>8.658866953999677</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:30:09.976870</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>14.97276763100126</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:37:37.411728</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>8.204926377999072</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:30:38.458953</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>18.16477331900023</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:39:53.625508</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>8.19946980199893</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:33:20.533305</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9.816734774998622</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:40:37.097326</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>7.891397068997321</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:33:40.584014</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9.362392079001438</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:40:59.915544</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>10.13791869499983</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:34:09.386994</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>21.29227521200301</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:41:19.198696</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>8.984435480000684</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:34:29.570611</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8.816482137001003</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:41:40.679887</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>7.592357135999919</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:34:51.845407</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>10.33082446299886</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:43:39.874120</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>7.460598219997337</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:35:21.385974</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>21.50739609700031</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:44:33.207941</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>7.441077419000067</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:35:45.612336</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>15.04289138200329</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:36:14.362723</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>21.5111767260023</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:36:44.557721</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>20.40307389900045</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:37:05.678839</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>10.82503565299703</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:39:52.881798</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>8.38059504299963</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:40:15.310654</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>10.32253422100257</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:40:38.294835</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>9.96633517599912</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:40:57.533013</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>8.786000620999403</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:44:33.325069</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>10.36683165999784</v>
+      </c>
+    </row>
+    <row r="135"/>
+    <row r="136">
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J136" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="I137" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="I138" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>35.48</t>
+        </is>
+      </c>
+      <c r="I139" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-07-14T23:50:46.446993</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 642.479248046875mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:49:20.536052</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:50:17.418206</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:55:35.801847</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-07-15T00:55:35.810359</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:03:11.850952</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-07-15T01:03:11.856103</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-07-15T16:49:14.261124</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 69.964111328125mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:32:59.999490</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:33:00.023639</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:40:39.591805</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:40:39.597379</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:40:39.799769</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:40:39.806113</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 4</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-07-15T17:56:52.539612</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place. PackingPlanner.draw_package_status_box() missing 1 required positional argument: 'id'</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-07-15T18:01:59.046691</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-07-15T18:01:59.047978</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-07-15T19:05:56.437122</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-07-15T19:05:56.443063</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-07-15T20:29:55.910019</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-07-15T20:29:55.911274</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:44:07.898460</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:44:07.902249</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:50:30.743319</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-07-15T21:50:30.744984</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-07-15T22:05:02.977005</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-07-15T22:05:02.978200</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:45:30.365759</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:51:58.815863</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Failed to find packages with IDs: [32]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:52:18.254581</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:52:18.261337</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-07-15T23:52:24.651379</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Failed to find packages with IDs: [32]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:12:51.769576</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:12:51.778732</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback: 2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-07-16T00:58:46.172872</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-07-16T01:01:07.116058</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Package y is negative. Measured -167 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-07-16T01:12:05.971503</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Package y is negative. Measured -135 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-07-16T01:13:47.361092</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-07-16T01:13:47.388096</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:04:34.359692</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise Callback</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:04:34.365951</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Failed to pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:17:19.234002</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:32:19.246751</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:43:46.115560</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:48:42.333427</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-07-16T21:56:00.683562</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:00:30.872921</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:05:41.112041</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-07-16T22:14:33.653436</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:49:00.037302</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:49:00.038980</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:49:23.109023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Retrieve finished with failed packages: [6, 6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:49:28.930816</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 22.946044921875mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:54:22.463499</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:54:22.464868</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:54:42.304016</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Retrieve finished with failed packages: [14, 14]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:59:47.831001</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-07-16T23:59:47.835443</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:00:00.328480</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:00:00.329760</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:00:53.305667</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Retrieve finished with failed packages: [11, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:55:24.829104</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:56:09.494683</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:57:03.824319</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:57:07.521499</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:57:07.530437</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-07-17T00:59:35.875675</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:00:32.219488</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:00:50.903522</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:00:50.909925</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:07:34.954427</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:08:13.768903</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:08:22.213378</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:09:05.489883</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:09:09.241835</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:10:18.791960</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:11:07.243005</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:12:03.337450</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:12:17.838103</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:16:43.960905</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:16:47.864084</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:16:47.874624</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:17:01.657977</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Package x is negative. Measured -18 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:17:16.071614</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:37:51.321247</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:37:51.323290</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:38:11.152852</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Retrieve finished with failed packages: [2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:50.881092</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>No image data available</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:50.886933</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:53.342617</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>No image data available</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:53.348797</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:54.699766</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>No image data available</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:54.707465</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:57.856359</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>No image data available</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:57.864878</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:58.065708</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>No image data available</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:10:58.072834</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:13:19.805066</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:13:36.783135</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:13:36.789474</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:14:19.391885</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-07-17T02:22:11.078672</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-07-17T17:42:39.533368</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 18.1820068359375mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-07-17T18:12:50.754973</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 19.2802734375mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-07-17T18:14:03.774491</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 14.9024658203125mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-07-17T19:15:02.614617</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Vision Init Healthcheck Service</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Sensed background median depth is inconsistent with expected distance from config: 11.1895751953125mm. Check camera functionality or stereo camera distance in configuration files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:04.412175</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:19:04.433729</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:20:16.917132</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 211 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:20:40.994408</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:20:41.013823</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:21:04.586306</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:21:41.833045</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:21:49.007153</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 238 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:22:48.877797</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 187 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:25:04.380640</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:26:32.669925</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:35:16.975497</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:40:18.836960</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:41:21.338214</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:43:39.362005</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 197 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:44:06.767525</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-07-17T20:44:08.679019</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 205 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:00:10.787167</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:00:10.811151</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:05:15.680240</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:05:15.687871</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:15:33.211762</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-07-17T21:15:33.266167</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="271"/>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B272" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>7.16-9.33</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>9.33-11.50</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>11.50-13.67</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>13.67-15.84</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>15.84-18.01</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>18.01-20.18</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20.18-22.35</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>22.35-24.52</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>24.52-26.70</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>26.70-28.87</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283"/>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>9.09-11.73</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>11.73-14.37</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>14.37-17.01</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>17.01-19.65</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>19.65-22.29</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>22.29-24.93</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>24.93-27.56</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>27.56-30.20</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>30.20-32.84</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>32.84-35.48</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295"/>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>5.73-6.53</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>6.53-7.32</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>7.32-8.12</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>8.12-8.91</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>8.91-9.71</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>9.71-10.50</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>10.50-11.30</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>11.30-12.09</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>12.09-12.89</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>12.89-13.68</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307"/>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B308" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-07-15 00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-07-15 01:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-07-15 18:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-07-15 19:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-07-15 20:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-07-15 21:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-07-15 23:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-07-16 00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-07-17 16:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-07-17 20:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-07-17 21:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -1719,7 +1719,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 7'!B272</f>
+              <f>'Day 7'!B72</f>
             </strRef>
           </tx>
           <spPr>
@@ -1729,12 +1729,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 7'!$A$273:$A$282</f>
+              <f>'Day 7'!$A$73:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 7'!$B$273:$B$282</f>
+              <f>'Day 7'!$B$73:$B$82</f>
             </numRef>
           </val>
         </ser>
@@ -1783,7 +1783,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 7'!B284</f>
+              <f>'Day 7'!B84</f>
             </strRef>
           </tx>
           <spPr>
@@ -1793,12 +1793,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 7'!$A$285:$A$294</f>
+              <f>'Day 7'!$A$85:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 7'!$B$285:$B$294</f>
+              <f>'Day 7'!$B$85:$B$94</f>
             </numRef>
           </val>
         </ser>
@@ -1847,7 +1847,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 7'!B296</f>
+              <f>'Day 7'!B96</f>
             </strRef>
           </tx>
           <spPr>
@@ -1857,12 +1857,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 7'!$A$297:$A$306</f>
+              <f>'Day 7'!$A$97:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 7'!$B$297:$B$306</f>
+              <f>'Day 7'!$B$97:$B$106</f>
             </numRef>
           </val>
         </ser>
@@ -1926,7 +1926,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Day 7'!B308</f>
+              <f>'Day 7'!B108</f>
             </strRef>
           </tx>
           <spPr>
@@ -1936,12 +1936,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Day 7'!$A$309:$A$320</f>
+              <f>'Day 7'!$A$109:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Day 7'!$B$309:$B$320</f>
+              <f>'Day 7'!$B$109:$B$110</f>
             </numRef>
           </val>
         </ser>
@@ -3137,7 +3137,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>271</row>
+      <row>71</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3159,7 +3159,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>283</row>
+      <row>83</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3181,7 +3181,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>295</row>
+      <row>95</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3203,7 +3203,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>307</row>
+      <row>107</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3852,41 +3852,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13.41</v>
+        <v>13.49</v>
       </c>
       <c r="D8" t="n">
-        <v>20.91</v>
+        <v>21.42</v>
       </c>
       <c r="E8" t="n">
-        <v>7.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>21.29</v>
+        <v>19.13</v>
       </c>
       <c r="K8" t="n">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="L8" t="n">
-        <v>5.399205809444441</v>
+        <v>0.4635357797222222</v>
       </c>
       <c r="M8" t="n">
-        <v>1.221508685277778</v>
+        <v>0.4182191730555556</v>
       </c>
     </row>
   </sheetData>
@@ -4169,35 +4169,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
         <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -17144,7 +17135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N321"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17207,7 +17198,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-14T23:20:28.025785</t>
+          <t>2025-07-17T20:16:44.596262</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -17216,27 +17207,27 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>10.23742199199933</v>
+        <v>13.35778839399973</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-15T00:54:28.208497</t>
+          <t>2025-07-17T20:52:48.573820</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 12)</t>
+          <t>Individual Retrieval (ID: 15)</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>25.97640675000002</v>
+        <v>24.43500420899727</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-14T23:20:25.425397</t>
+          <t>2025-07-17T20:16:39.435198</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -17245,13 +17236,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>7.501711642999908</v>
+        <v>7.357816114999878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-14T23:21:16.760428</t>
+          <t>2025-07-17T20:18:16.508893</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -17260,27 +17251,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.50615383400054</v>
+        <v>8.609134190000987</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-15T01:02:55.589453</t>
+          <t>2025-07-17T20:54:28.808235</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 10)</t>
+          <t>Individual Retrieval (ID: 30)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.87606333000076</v>
+        <v>17.61541582300197</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-14T23:21:10.376348</t>
+          <t>2025-07-17T20:18:17.407488</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -17289,13 +17280,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>7.190829516999656</v>
+        <v>8.516274137000437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-15T00:03:16.447737</t>
+          <t>2025-07-17T20:18:38.592025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -17304,11 +17295,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28.86597200899996</v>
+        <v>11.34785763699983</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-15T18:02:25.413604</t>
+          <t>2025-07-17T20:54:28.808235</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -17317,14 +17308,14 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25.03010336199986</v>
+        <v>28.53343931900235</v>
       </c>
       <c r="G4" t="n">
         <v>8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-15T00:03:03.035919</t>
+          <t>2025-07-17T20:18:37.458733</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -17333,13 +17324,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>13.67949707799926</v>
+        <v>9.28581498099993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-15T00:09:25.974989</t>
+          <t>2025-07-17T20:19:28.333414</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -17348,27 +17339,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.88439412099979</v>
+        <v>11.70561386999907</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-15T18:02:25.413604</t>
+          <t>2025-07-17T20:54:28.808235</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 13)</t>
+          <t>Individual Retrieval (ID: 16)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>26.3309405179989</v>
+        <v>28.34332955699938</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-15T00:09:22.102541</t>
+          <t>2025-07-17T20:19:03.631133</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -17377,13 +17368,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>7.255849569999555</v>
+        <v>12.69786712399946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-15T00:19:35.402394</t>
+          <t>2025-07-17T20:19:47.739288</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -17392,27 +17383,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.69837228699907</v>
+        <v>12.1133782729994</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-15T19:06:16.977712</t>
+          <t>2025-07-17T21:17:54.162843</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 2)</t>
+          <t>Individual Retrieval (ID: 25)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13.29698678199929</v>
+        <v>16.42402329400284</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-15T00:19:32.331157</t>
+          <t>2025-07-17T20:19:28.095938</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -17421,13 +17412,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>7.480821567000021</v>
+        <v>8.810592637999434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-15T00:20:20.205618</t>
+          <t>2025-07-17T20:21:07.642661</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -17436,27 +17427,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.79583506500057</v>
+        <v>10.63310175299921</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-15T19:06:16.977712</t>
+          <t>2025-07-17T21:17:54.162843</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 6)</t>
+          <t>Individual Retrieval (ID: 32)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20.50125981699966</v>
+        <v>17.87759665299745</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-15T00:20:04.032768</t>
+          <t>2025-07-17T20:19:47.111770</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -17465,13 +17456,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7.083257292000781</v>
+        <v>10.64564558600068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-15T00:22:11.535551</t>
+          <t>2025-07-17T20:22:22.101149</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -17480,27 +17471,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.4545541869993</v>
+        <v>11.91434042899891</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-15T20:30:14.144181</t>
+          <t>2025-07-17T21:17:54.162843</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 3)</t>
+          <t>Individual Retrieval (ID: 33)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.093051031999494</v>
+        <v>18.50257789799798</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-15T00:22:03.845241</t>
+          <t>2025-07-17T20:20:11.072353</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -17509,13 +17500,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6.629320400999859</v>
+        <v>7.731240981998781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-15T00:23:40.433139</t>
+          <t>2025-07-17T20:23:36.486386</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -17524,27 +17515,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.36631389099966</v>
+        <v>9.508502833999955</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-15T20:30:14.144181</t>
+          <t>2025-07-17T21:17:54.162843</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 15)</t>
+          <t>Individual Retrieval (ID: 35)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18.20070479300193</v>
+        <v>19.63337877799859</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-15T00:23:36.707797</t>
+          <t>2025-07-17T20:20:38.135345</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -17553,13 +17544,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6.891355597001166</v>
+        <v>7.666897531998984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-15T00:45:27.291540</t>
+          <t>2025-07-17T20:24:20.013714</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -17568,27 +17559,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.03524210199976</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:45:01.814332</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 5)</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>15.7190756050004</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
+        <v>9.110716931001662</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-15T00:45:25.909197</t>
+          <t>2025-07-17T20:22:24.735034</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -17597,13 +17572,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>7.128419274000407</v>
+        <v>11.58865243000037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-15T00:45:57.878212</t>
+          <t>2025-07-17T20:24:48.707538</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -17612,27 +17587,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13.89257862299928</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:45:01.814332</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 18)</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>22.17424469999969</v>
-      </c>
-      <c r="G11" t="n">
-        <v>18</v>
+        <v>11.66544955600148</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-15T00:45:52.908031</t>
+          <t>2025-07-17T20:22:46.563740</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -17641,13 +17600,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7.030956884000261</v>
+        <v>7.42435379500057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-15T00:46:26.086977</t>
+          <t>2025-07-17T20:25:10.810301</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -17656,27 +17615,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12.77805080899998</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:45:01.814332</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 20)</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>24.62386713300293</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20</v>
+        <v>15.71696926600089</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-15T00:46:19.625089</t>
+          <t>2025-07-17T20:23:37.278959</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -17685,13 +17628,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>6.205658238999604</v>
+        <v>7.571019883998815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-15T00:47:36.078672</t>
+          <t>2025-07-17T20:26:31.313425</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -17700,27 +17643,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.59791020100056</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:50:30.794384</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 9)</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>15.04600830600248</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
+        <v>13.86366572800034</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-15T00:47:32.023036</t>
+          <t>2025-07-17T20:24:18.655959</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -17729,13 +17656,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.409224052000354</v>
+        <v>6.928089720000571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-15T00:48:47.693506</t>
+          <t>2025-07-17T20:27:02.879707</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -17744,27 +17671,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.52174579299935</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-07-15T22:05:03.004798</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 9)</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>16.98954229500305</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9</v>
+        <v>12.14350386000115</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-15T00:48:42.916182</t>
+          <t>2025-07-17T20:24:46.631181</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -17773,13 +17684,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.947215095000502</v>
+        <v>8.657031394001024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-15T00:49:20.818161</t>
+          <t>2025-07-17T20:27:27.169754</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -17788,27 +17699,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.5006863689996</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:47:51.135121</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 29)</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>35.47977614100091</v>
-      </c>
-      <c r="G15" t="n">
-        <v>29</v>
+        <v>14.00226726599976</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-15T00:49:49.932693</t>
+          <t>2025-07-17T20:27:00.550227</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -17817,13 +17712,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>9.668084340999485</v>
+        <v>8.917156741001236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-15T00:49:54.402635</t>
+          <t>2025-07-17T20:27:56.184440</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -17832,27 +17727,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17.74316117300077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:48:47.644453</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 30)</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>26.07040084599794</v>
-      </c>
-      <c r="G16" t="n">
-        <v>30</v>
+        <v>12.09918199599997</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-15T00:51:22.228781</t>
+          <t>2025-07-17T20:27:21.587992</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -17861,13 +17740,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>7.194146826999713</v>
+        <v>7.575285848999556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-15T00:50:26.116137</t>
+          <t>2025-07-17T20:28:23.851414</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -17876,27 +17755,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.22398100800092</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:50:12.507851</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 31)</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>23.9472739490011</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31</v>
+        <v>22.00689865000095</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-15T00:55:38.494351</t>
+          <t>2025-07-17T20:27:54.204646</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -17905,13 +17768,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7.176375045999521</v>
+        <v>9.240335764001429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-15T00:51:27.442583</t>
+          <t>2025-07-17T20:28:52.314098</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -17920,27 +17783,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14.01445524100018</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:07:34.405943</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 1)</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>17.97145369899954</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
+        <v>20.05788204300006</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-15T00:59:12.437969</t>
+          <t>2025-07-17T20:28:10.948153</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -17949,13 +17796,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6.808648713000366</v>
+        <v>8.245027390999894</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-15T00:59:16.681275</t>
+          <t>2025-07-17T20:29:19.370275</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -17964,27 +17811,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.74711104500057</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-07-17T16:49:27.278177</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 9)</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>15.08432913100023</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9</v>
+        <v>20.27321921700059</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-15T01:03:14.080727</t>
+          <t>2025-07-17T20:28:42.871294</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -17993,13 +17824,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>7.122922611999456</v>
+        <v>9.725745630001256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-15T01:22:20.437256</t>
+          <t>2025-07-17T20:29:41.654588</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -18008,27 +17839,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10.29617067799882</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:52:48.573820</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 15)</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>24.43500420899727</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15</v>
+        <v>15.71180604999972</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-15T01:22:16.755843</t>
+          <t>2025-07-17T20:29:10.460398</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -18037,13 +17852,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>6.477640256000086</v>
+        <v>10.4768872550012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-15T01:23:20.873610</t>
+          <t>2025-07-17T20:30:09.976870</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -18052,27 +17867,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14.83606740399955</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:54:28.808235</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 30)</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>17.61541582300197</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30</v>
+        <v>14.97276763100126</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-15T01:23:13.694513</t>
+          <t>2025-07-17T20:29:34.262733</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -18081,13 +17880,13 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>7.502986408999277</v>
+        <v>7.485411296000166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-15T01:24:03.585072</t>
+          <t>2025-07-17T20:30:38.458953</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -18096,27 +17895,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19.00971418900008</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:54:28.808235</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 8)</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>28.53343931900235</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8</v>
+        <v>18.16477331900023</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-15T01:23:57.691333</t>
+          <t>2025-07-17T20:30:04.448932</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -18125,13 +17908,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>6.562078932000077</v>
+        <v>8.611731704999329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-15T02:06:35.309356</t>
+          <t>2025-07-17T20:33:20.533305</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -18140,27 +17923,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11.7508563429983</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:54:28.808235</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 16)</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>28.34332955699938</v>
-      </c>
-      <c r="G23" t="n">
-        <v>16</v>
+        <v>9.816734774998622</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-15T02:06:31.699712</t>
+          <t>2025-07-17T20:30:29.078643</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -18169,13 +17936,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>8.040926730001956</v>
+        <v>7.927197998000338</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-15T02:07:21.000477</t>
+          <t>2025-07-17T20:33:40.584014</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -18184,27 +17951,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.27978552499917</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 25)</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>16.42402329400284</v>
-      </c>
-      <c r="G24" t="n">
-        <v>25</v>
+        <v>9.362392079001438</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-15T02:07:12.543908</t>
+          <t>2025-07-17T20:33:20.225988</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -18213,13 +17964,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6.987346301997604</v>
+        <v>8.540628188002302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-15T02:07:59.427063</t>
+          <t>2025-07-17T20:34:09.386994</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -18228,27 +17979,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16.25860902699787</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 32)</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>17.87759665299745</v>
-      </c>
-      <c r="G25" t="n">
-        <v>32</v>
+        <v>21.29227521200301</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-15T02:07:50.512334</t>
+          <t>2025-07-17T20:33:39.649860</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -18257,13 +17992,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5.734805070998846</v>
+        <v>7.590346138000314</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-15T15:58:10.940737</t>
+          <t>2025-07-17T20:34:29.570611</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -18272,27 +18007,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10.10219406499994</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 33)</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>18.50257789799798</v>
-      </c>
-      <c r="G26" t="n">
-        <v>33</v>
+        <v>8.816482137001003</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-15T15:58:13.416883</t>
+          <t>2025-07-17T20:33:58.796465</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -18301,13 +18020,13 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>10.86717873700002</v>
+        <v>9.776564660998702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-15T15:59:06.793280</t>
+          <t>2025-07-17T20:34:51.845407</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -18316,27 +18035,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.48587495300001</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 35)</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>19.63337877799859</v>
-      </c>
-      <c r="G27" t="n">
-        <v>35</v>
+        <v>10.33082446299886</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-15T15:59:03.044668</t>
+          <t>2025-07-17T20:34:29.458689</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -18345,13 +18048,13 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7.41748102300005</v>
+        <v>7.87028669099891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-15T15:59:49.534190</t>
+          <t>2025-07-17T20:35:21.385974</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -18360,11 +18063,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15.14434148200007</v>
+        <v>21.50739609700031</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-15T15:59:44.628558</t>
+          <t>2025-07-17T20:34:49.769675</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -18373,13 +18076,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>6.476791398000046</v>
+        <v>7.446624877000431</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-15T16:51:31.702673</t>
+          <t>2025-07-17T20:35:45.612336</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -18388,11 +18091,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15.03930602700029</v>
+        <v>15.04289138200329</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-07-15T16:51:30.851871</t>
+          <t>2025-07-17T20:35:40.059856</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -18401,13 +18104,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>7.422993849999784</v>
+        <v>8.66682884599868</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-15T17:22:13.071155</t>
+          <t>2025-07-17T20:36:14.362723</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -18416,11 +18119,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13.95969768499981</v>
+        <v>21.5111767260023</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-07-15T17:22:11.577980</t>
+          <t>2025-07-17T20:36:04.293879</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -18429,13 +18132,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>7.047548086999996</v>
+        <v>10.57209376099854</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-15T17:27:31.248664</t>
+          <t>2025-07-17T20:36:44.557721</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -18444,11 +18147,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14.01824963199942</v>
+        <v>20.40307389900045</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-07-15T17:27:29.488122</t>
+          <t>2025-07-17T20:36:32.841138</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -18457,13 +18160,13 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>6.957619345000239</v>
+        <v>7.803545455000858</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-15T17:28:36.424134</t>
+          <t>2025-07-17T20:37:05.678839</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -18472,11 +18175,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17.8523754480002</v>
+        <v>10.82503565299703</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-07-15T17:28:29.258333</t>
+          <t>2025-07-17T20:37:04.328101</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -18485,13 +18188,13 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>7.162533652000093</v>
+        <v>8.658866953999677</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-15T17:32:27.970738</t>
+          <t>2025-07-17T20:39:52.881798</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -18500,11 +18203,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13.85485890099972</v>
+        <v>8.38059504299963</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-07-15T17:32:26.692606</t>
+          <t>2025-07-17T20:37:37.411728</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -18513,13 +18216,13 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>7.249928103999991</v>
+        <v>8.204926377999072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-15T23:45:35.213459</t>
+          <t>2025-07-17T20:40:15.310654</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -18528,11 +18231,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15.20911807799712</v>
+        <v>10.32253422100257</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-07-15T17:32:47.083110</t>
+          <t>2025-07-17T20:39:53.625508</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -18541,13 +18244,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6.064736770999843</v>
+        <v>8.19946980199893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-15T23:46:14.604165</t>
+          <t>2025-07-17T20:40:38.294835</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -18556,11 +18259,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.87379506600337</v>
+        <v>9.96633517599912</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07-15T23:46:10.101158</t>
+          <t>2025-07-17T20:40:37.097326</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -18569,13 +18272,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>6.720032662000449</v>
+        <v>7.891397068997321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-15T23:46:49.530464</t>
+          <t>2025-07-17T20:40:57.533013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -18584,11 +18287,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12.84246585100118</v>
+        <v>8.786000620999403</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-07-15T23:46:44.917417</t>
+          <t>2025-07-17T20:40:59.915544</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -18597,13 +18300,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>6.579244971002481</v>
+        <v>10.13791869499983</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-15T23:51:43.356866</t>
+          <t>2025-07-17T20:44:33.325069</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -18612,11 +18315,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16.37967379900147</v>
+        <v>10.36683165999784</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-07-15T23:51:34.958870</t>
+          <t>2025-07-17T20:41:19.198696</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -18625,26 +18328,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>6.363921140997263</v>
+        <v>8.984435480000684</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:06:52.775545</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>13.74227842699838</v>
-      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-07-16T00:06:51.648442</t>
+          <t>2025-07-17T20:41:40.679887</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -18653,26 +18343,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7.401180984001257</v>
+        <v>7.592357135999919</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:09:34.141469</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>13.28313247199912</v>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-07-16T00:09:33.334638</t>
+          <t>2025-07-17T20:43:39.874120</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -18681,26 +18358,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>7.243173939998087</v>
+        <v>7.460598219997337</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:11:26.718421</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>13.70629386699875</v>
-      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-07-16T00:11:25.695698</t>
+          <t>2025-07-17T20:44:33.207941</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -18709,237 +18373,162 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7.408306725999864</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-07-16T18:23:11.080896</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>11.06847821200017</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:58:51.241914</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>6.940760067998781</v>
-      </c>
-    </row>
+        <v>7.441077419000067</v>
+      </c>
+    </row>
+    <row r="41"/>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-07-16T18:23:33.420119</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>10.05289873100037</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-07-16T01:13:55.567373</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>8.466831901001569</v>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-07-16T20:27:50.928543</t>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>11.90245390900054</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-07-16T18:23:07.724246</t>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>7.544694419999814</v>
+          <t>8.61</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-07-16T20:28:24.016594</t>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>16.28501187999973</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025-07-16T18:23:29.632718</t>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>6.041712990999713</v>
+          <t>6.93</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-07-16T20:29:00.439973</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>18.1292509750001</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025-07-16T20:27:47.380932</t>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>8.22765436300142</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:03:13.482440</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>7.896120339000845</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025-07-16T20:28:17.208278</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>7.704692764000356</v>
-      </c>
-    </row>
+          <t>12.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:04:04.524636</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>9.88017253200087</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025-07-16T20:28:50.215104</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>6.278333979000308</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-16T21:17:30.304594</t>
+          <t>2025-07-17T20:19:04.412175</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>20.52953969299961</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:03:18.798093</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>13.01128086900098</v>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 5</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-16T21:29:02.393972</t>
+          <t>2025-07-17T20:19:04.433729</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -18947,27 +18536,16 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>13.46609825700034</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:04:03.650742</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>7.337743964000765</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-16T21:31:04.754354</t>
+          <t>2025-07-17T20:20:16.917132</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -18975,55 +18553,33 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>14.59061159699922</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:04:42.263143</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>12.12959422700078</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 211 mm</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-16T21:32:23.192820</t>
+          <t>2025-07-17T20:20:40.994408</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>13.3584798310003</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:29:03.279548</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>9.159374505999949</v>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 7</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-16T21:43:50.284440</t>
+          <t>2025-07-17T20:20:41.013823</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -19031,83 +18587,50 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>13.67866109700117</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:31:00.621769</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>6.784803958998964</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-16T21:48:46.516266</t>
+          <t>2025-07-17T20:21:04.586306</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>14.8274897400006</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2025-07-16T22:01:24.693906</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>8.020479882001382</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-16T21:56:00.536933</t>
+          <t>2025-07-17T20:21:41.833045</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>13.27110660100152</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:01:25.241950</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>7.384330897000837</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-16T22:00:35.026801</t>
+          <t>2025-07-17T20:21:49.007153</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -19115,27 +18638,16 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>13.38552314399931</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:34:42.912278</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>7.093005912999615</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 238 mm</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-16T22:01:27.357167</t>
+          <t>2025-07-17T20:22:48.877797</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -19143,139 +18655,84 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>12.23330129200258</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:40:30.842687</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>7.856856018999679</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 187 mm</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-16T22:05:45.556932</t>
+          <t>2025-07-17T20:25:04.380640</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>13.64855083200018</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:41:41.291343</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>10.02403310299997</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-16T22:14:37.394705</t>
+          <t>2025-07-17T20:26:32.669925</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>14.6731928879999</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:42:02.438334</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>7.03215387399996</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-17T00:01:26.318333</t>
+          <t>2025-07-17T20:35:16.975497</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>12.10973953699977</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:43:06.267695</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>5.943938069999604</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-17T00:34:44.819976</t>
+          <t>2025-07-17T20:40:18.836960</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>10.10784083399994</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:53:16.422950</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>7.50551382499998</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-17T00:41:40.011119</t>
+          <t>2025-07-17T20:41:21.338214</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -19283,27 +18740,16 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>9.563261475999752</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:57:38.490412</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>6.217149746000359</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-17T00:42:09.324733</t>
+          <t>2025-07-17T20:43:39.362005</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -19311,55 +18757,33 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>14.70123683899965</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:57:57.658079</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>5.827923922999616</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 197 mm</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-17T00:43:12.349580</t>
+          <t>2025-07-17T20:44:06.767525</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>12.81943327699992</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:58:47.961734</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>6.077588465999725</v>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-17T00:53:20.370484</t>
+          <t>2025-07-17T20:44:08.679019</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -19367,4664 +18791,487 @@
           <t>Conveyable Stow</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>12.25999564799986</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:01:22.996959</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>7.220844120000038</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Package height when sagging is too high. Measured 205 mm</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-17T00:55:31.807318</t>
+          <t>2025-07-17T21:00:10.787167</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>11.47321385500072</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:06:07.737352</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>6.59612167799969</v>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-17T00:56:09.598214</t>
+          <t>2025-07-17T21:00:10.811151</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>11.26073204800014</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:35:52.821058</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>6.923715623999669</v>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-17T00:57:42.931775</t>
+          <t>2025-07-17T21:05:15.680240</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>11.50426962199981</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:36:12.767642</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>7.113568902001134</v>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-17T00:58:16.745522</t>
+          <t>2025-07-17T21:05:15.687871</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>25.69024199700016</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:36:41.625220</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>6.278644599000472</v>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-17T00:58:53.454695</t>
+          <t>2025-07-17T21:15:33.211762</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>12.31409314699977</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:09:54.188238</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>6.825565625000309</v>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-17T00:59:42.023232</t>
+          <t>2025-07-17T21:15:33.266167</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>10.53590914199958</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:27.484061</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>6.370507931000247</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:00:32.979332</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>11.04066839599909</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:12:00.368197</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>7.69424927199907</v>
-      </c>
-    </row>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="71"/>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:01:26.632226</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>11.65856868699848</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:12:25.355999</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>6.090092966000157</v>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-17T01:06:09.904920</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>10.22818077400007</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:13:09.413908</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>6.334452917999442</v>
+          <t>8.38-9.74</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-07-17T01:07:37.156089</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>12.34508944700065</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:13:45.434140</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>6.380082219000542</v>
+          <t>9.74-11.11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-17T01:10:26.255411</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>14.50675313799911</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:15:02.581577</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>5.835733752001033</v>
+          <t>11.11-12.47</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-17T01:11:04.688785</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>11.26145254800031</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2025-07-17T16:48:37.568854</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>10.06291380699986</v>
+          <t>12.47-13.83</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-07-17T01:12:02.154551</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>10.93853420999949</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2025-07-17T18:22:02.639808</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>8.223246763000134</v>
+          <t>13.83-15.19</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-07-17T01:12:29.556761</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>15.99166158099979</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2025-07-17T18:22:58.520297</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>8.734306783000648</v>
+          <t>15.19-16.56</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-07-17T01:17:14.818993</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>9.301761536000413</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:16:05.908143</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>8.245742762999726</v>
+          <t>16.56-17.92</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-07-17T01:35:53.937794</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>8.24379325100017</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:18:19.322659</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
-        <v>7.787555822000286</v>
+          <t>17.92-19.28</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-07-17T01:36:14.418143</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>8.878975734000051</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:18:57.421585</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>7.932871740000337</v>
+          <t>19.28-20.64</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-07-17T01:36:45.973654</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>12.45882053700007</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:20:38.492055</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
-        <v>6.698768969001321</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:09:55.556614</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>13.69115122599942</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:21:39.577210</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
-        <v>6.47156700800042</v>
-      </c>
-    </row>
+          <t>20.64-22.01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83"/>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:31.413275</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>11.88595284000075</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:51:54.716858</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
-        <v>10.5547480740006</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-07-17T02:12:00.203102</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>7.734228760999031</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:14:30.711961</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
-        <v>11.14729203299976</v>
+          <t>16.42-17.63</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-07-17T02:12:31.705795</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>12.56387908400029</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:15:38.589194</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>8.032578334999926</v>
+          <t>17.63-18.85</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-07-17T02:13:46.105994</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>7.156476128999202</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:16:39.435198</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
-        <v>7.357816114999878</v>
+          <t>18.85-20.06</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-07-17T02:14:21.066175</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>12.95868074600003</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:18:17.407488</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>8.516274137000437</v>
+          <t>20.06-21.27</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-07-17T02:15:07.227581</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>10.582967534001</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:18:37.458733</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K89" t="n">
-        <v>9.28581498099993</v>
+          <t>21.27-22.48</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-07-17T02:22:16.483245</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>14.0685775740003</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:03.631133</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K90" t="n">
-        <v>12.69786712399946</v>
+          <t>22.48-23.69</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-07-17T16:48:35.767097</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>8.393582460999824</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:28.095938</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
-        <v>8.810592637999434</v>
+          <t>23.69-24.90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-07-17T18:22:02.228480</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>7.944835372998568</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:47.111770</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K92" t="n">
-        <v>10.64564558600068</v>
+          <t>24.90-26.11</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-07-17T18:22:59.744668</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>16.47959534199981</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:11.072353</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
-        <v>7.731240981998781</v>
+          <t>26.11-27.32</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-07-17T19:16:05.309817</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>9.295195111000794</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:38.135345</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K94" t="n">
-        <v>7.666897531998984</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:18:21.050177</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>11.56835264300025</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:24.735034</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>11.58865243000037</v>
-      </c>
-    </row>
+          <t>27.32-28.53</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95"/>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:51:52.271613</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>9.76538279200031</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:46.563740</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K96" t="n">
-        <v>7.42435379500057</v>
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-07-17T20:14:29.887660</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>11.30975924700033</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:23:37.278959</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K97" t="n">
-        <v>7.571019883998815</v>
+          <t>6.93-7.51</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-07-17T20:15:42.797276</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>13.05827225400026</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:18.655959</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
-        <v>6.928089720000571</v>
+          <t>7.51-8.08</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-07-17T20:16:44.596262</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>13.35778839399973</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:46.631181</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>8.657031394001024</v>
+          <t>8.08-8.66</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-07-17T20:18:16.508893</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>8.609134190000987</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:00.550227</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
-        <v>8.917156741001236</v>
+          <t>8.66-9.24</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-07-17T20:18:38.592025</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>11.34785763699983</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:21.587992</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>7.575285848999556</v>
+          <t>9.24-9.81</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-07-17T20:19:28.333414</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>11.70561386999907</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:54.204646</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>9.240335764001429</v>
+          <t>9.81-10.39</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-07-17T20:19:47.739288</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>12.1133782729994</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:10.948153</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>8.245027390999894</v>
+          <t>10.39-10.97</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-07-17T20:21:07.642661</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>10.63310175299921</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:42.871294</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K104" t="n">
-        <v>9.725745630001256</v>
+          <t>10.97-11.54</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-07-17T20:22:22.101149</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>11.91434042899891</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:10.460398</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
-        <v>10.4768872550012</v>
+          <t>11.54-12.12</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-07-17T20:23:36.486386</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>9.508502833999955</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:34.262733</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K106" t="n">
-        <v>7.485411296000166</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:20.013714</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>9.110716931001662</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:04.448932</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
-        <v>8.611731704999329</v>
-      </c>
-    </row>
+          <t>12.12-12.70</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107"/>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:48.707538</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>11.66544955600148</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:29.078643</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>7.927197998000338</v>
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-07-17T20:25:10.810301</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>15.71696926600089</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:20.225988</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>8.540628188002302</v>
+          <t>2025-07-17 20:00</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-07-17T20:26:31.313425</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>13.86366572800034</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:39.649860</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>7.590346138000314</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:02.879707</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>12.14350386000115</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:58.796465</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
-        <v>9.776564660998702</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:27.169754</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>14.00226726599976</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:29.458689</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
-        <v>7.87028669099891</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:56.184440</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>12.09918199599997</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:49.769675</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>7.446624877000431</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:23.851414</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>22.00689865000095</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:40.059856</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K114" t="n">
-        <v>8.66682884599868</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:52.314098</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>20.05788204300006</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:04.293879</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
-        <v>10.57209376099854</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:19.370275</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>20.27321921700059</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:32.841138</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K116" t="n">
-        <v>7.803545455000858</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:41.654588</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>15.71180604999972</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:37:04.328101</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
-        <v>8.658866953999677</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:09.976870</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>14.97276763100126</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:37:37.411728</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
-        <v>8.204926377999072</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:38.458953</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>18.16477331900023</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:39:53.625508</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>8.19946980199893</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:20.533305</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>9.816734774998622</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:37.097326</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>7.891397068997321</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:40.584014</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>9.362392079001438</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:59.915544</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
-        <v>10.13791869499983</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:09.386994</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>21.29227521200301</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:41:19.198696</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>8.984435480000684</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:29.570611</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>8.816482137001003</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:41:40.679887</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K123" t="n">
-        <v>7.592357135999919</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:51.845407</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>10.33082446299886</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:43:39.874120</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
-        <v>7.460598219997337</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:21.385974</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>21.50739609700031</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:33.207941</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K125" t="n">
-        <v>7.441077419000067</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:45.612336</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>15.04289138200329</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:14.362723</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>21.5111767260023</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:44.557721</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>20.40307389900045</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:37:05.678839</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>10.82503565299703</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:39:52.881798</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>8.38059504299963</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:15.310654</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>10.32253422100257</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:38.294835</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>9.96633517599912</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:57.533013</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>8.786000620999403</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:33.325069</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>10.36683165999784</v>
-      </c>
-    </row>
-    <row r="135"/>
-    <row r="136">
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E136" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J136" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="I137" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="I138" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>28.87</t>
-        </is>
-      </c>
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>35.48</t>
-        </is>
-      </c>
-      <c r="I139" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>13.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="140"/>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C141" s="1" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2025-07-14T23:50:46.446993</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 642.479248046875mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2025-07-15T00:49:20.536052</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2025-07-15T00:50:17.418206</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2025-07-15T00:55:35.801847</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2025-07-15T00:55:35.810359</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2025-07-15T01:03:11.850952</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2025-07-15T01:03:11.856103</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2025-07-15T16:49:14.261124</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 69.964111328125mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:32:59.999490</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:33:00.023639</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:40:39.591805</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:40:39.597379</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:40:39.799769</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:40:39.806113</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 4</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2025-07-15T17:56:52.539612</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place. PackingPlanner.draw_package_status_box() missing 1 required positional argument: 'id'</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2025-07-15T18:01:59.046691</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2025-07-15T18:01:59.047978</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2025-07-15T19:05:56.437122</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2025-07-15T19:05:56.443063</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2025-07-15T20:29:55.910019</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2025-07-15T20:29:55.911274</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:44:07.898460</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:44:07.902249</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:50:30.743319</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2025-07-15T21:50:30.744984</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2025-07-15T22:05:02.977005</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2025-07-15T22:05:02.978200</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:45:30.365759</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:51:58.815863</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Failed to find packages with IDs: [32]</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:52:18.254581</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:52:18.261337</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2025-07-15T23:52:24.651379</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Failed to find packages with IDs: [32]</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:12:51.769576</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:12:51.778732</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback: 2</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Failed in attempt to pick and place: Failed to pick and place</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2025-07-16T00:58:46.172872</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2025-07-16T01:01:07.116058</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Package y is negative. Measured -167 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2025-07-16T01:12:05.971503</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Package y is negative. Measured -135 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2025-07-16T01:13:47.361092</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2025-07-16T01:13:47.388096</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:04:34.359692</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise Callback</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:04:34.365951</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Failed to pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:17:19.234002</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:32:19.246751</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:43:46.115560</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:48:42.333427</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2025-07-16T21:56:00.683562</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2025-07-16T22:00:30.872921</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2025-07-16T22:05:41.112041</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2025-07-16T22:14:33.653436</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:49:00.037302</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:49:00.038980</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:49:23.109023</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Retrieve finished with failed packages: [6, 6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:49:28.930816</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 22.946044921875mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:54:22.463499</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:54:22.464868</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:54:42.304016</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Retrieve finished with failed packages: [14, 14]</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:59:47.831001</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2025-07-16T23:59:47.835443</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:00:00.328480</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:00:00.329760</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:00:53.305667</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Retrieve finished with failed packages: [11, 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:55:24.829104</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:56:09.494683</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:57:03.824319</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:57:07.521499</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:57:07.530437</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2025-07-17T00:59:35.875675</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:00:32.219488</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:00:50.903522</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:00:50.909925</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:07:34.954427</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:08:13.768903</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:08:22.213378</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:09:05.489883</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:09:09.241835</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:10:18.791960</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:11:07.243005</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:12:03.337450</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:12:17.838103</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:16:43.960905</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:16:47.864084</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:16:47.874624</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:17:01.657977</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Package x is negative. Measured -18 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:17:16.071614</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:37:51.321247</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Execute Pick and Raise</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:37:51.323290</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Error message not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:38:11.152852</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Retrieve finished with failed packages: [2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:50.881092</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>No image data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:50.886933</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:53.342617</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>No image data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:53.348797</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:54.699766</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>No image data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:54.707465</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:57.856359</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>No image data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:57.864878</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:58.065708</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>No image data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:10:58.072834</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:13:19.805066</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:13:36.783135</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Find Package Callback</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:13:36.789474</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Failed to find package</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:14:19.391885</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2025-07-17T02:22:11.078672</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2025-07-17T17:42:39.533368</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 18.1820068359375mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2025-07-17T18:12:50.754973</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 19.2802734375mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2025-07-17T18:14:03.774491</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 14.9024658203125mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2025-07-17T19:15:02.614617</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Vision Init Healthcheck Service</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Sensed background median depth is inconsistent with expected distance from config: 11.1895751953125mm. Check camera functionality or stereo camera distance in configuration files.</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:04.412175</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:04.433729</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:16.917132</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 211 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:40.994408</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:41.013823</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:04.586306</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:41.833045</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:49.007153</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 238 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:48.877797</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 187 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:25:04.380640</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:26:32.669925</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:16.975497</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:18.836960</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:41:21.338214</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:43:39.362005</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 197 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:06.767525</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:08.679019</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 205 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:00:10.787167</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:00:10.811151</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:05:15.680240</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:05:15.687871</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:15:33.211762</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:15:33.266167</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="271"/>
-    <row r="272">
-      <c r="A272" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B272" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>7.16-9.33</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>9.33-11.50</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>11.50-13.67</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>13.67-15.84</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>15.84-18.01</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>18.01-20.18</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>20.18-22.35</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>22.35-24.52</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>24.52-26.70</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>26.70-28.87</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283"/>
-    <row r="284">
-      <c r="A284" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B284" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>9.09-11.73</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>11.73-14.37</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>14.37-17.01</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>17.01-19.65</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>19.65-22.29</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>22.29-24.93</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>24.93-27.56</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
+          <t>2025-07-17 21:00</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>27.56-30.20</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>30.20-32.84</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>32.84-35.48</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295"/>
-    <row r="296">
-      <c r="A296" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B296" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>5.73-6.53</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>6.53-7.32</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>7.32-8.12</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>8.12-8.91</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>8.91-9.71</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>9.71-10.50</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>10.50-11.30</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>11.30-12.09</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>12.09-12.89</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>12.89-13.68</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307"/>
-    <row r="308">
-      <c r="A308" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B308" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2025-07-15 00:00</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2025-07-15 01:00</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2025-07-15 18:00</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2025-07-15 19:00</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2025-07-15 20:00</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2025-07-15 21:00</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2025-07-15 22:00</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2025-07-15 23:00</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2025-07-16 00:00</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2025-07-17 16:00</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2025-07-17 20:00</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2025-07-17 21:00</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321"/>
+    <row r="111"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Day 4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Day 5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Day 6" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Day 7" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -189,12 +188,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$8</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$8</f>
+              <f>'Master Summary'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -221,12 +220,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$8</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$8</f>
+              <f>'Master Summary'!$D$2:$D$7</f>
             </numRef>
           </val>
         </ser>
@@ -253,12 +252,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$8</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$8</f>
+              <f>'Master Summary'!$E$2:$E$7</f>
             </numRef>
           </val>
         </ser>
@@ -1101,12 +1100,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$8</f>
+              <f>'Master Summary'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$8</f>
+              <f>'Master Summary'!$J$2:$J$7</f>
             </numRef>
           </val>
         </ser>
@@ -1138,7 +1137,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$8</f>
+              <f>'Master Summary'!$K$2:$K$7</f>
             </numRef>
           </val>
         </ser>
@@ -1641,307 +1640,6 @@
           <val>
             <numRef>
               <f>'Day 6'!$B$114:$B$115</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Hour of Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Packages Retrieved</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 7'!B72</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 7'!$A$73:$A$82</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 7'!$B$73:$B$82</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 7'!B84</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 7'!$A$85:$A$94</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 7'!$B$85:$B$94</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 7'!B96</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 7'!$A$97:$A$106</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 7'!$B$97:$B$106</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hourly Package Retrieval Throughput</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Day 7'!B108</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Day 7'!$A$109:$A$110</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Day 7'!$B$109:$B$110</f>
             </numRef>
           </val>
         </ser>
@@ -2552,7 +2250,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2574,7 +2272,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3131,99 +2829,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>71</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>83</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>95</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>107</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3513,7 +3118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3844,49 +3449,6 @@
       </c>
       <c r="M7" t="n">
         <v>1.021561097777778</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-17</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>36</v>
-      </c>
-      <c r="G8" t="n">
-        <v>44</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>23</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.4635357797222222</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.4182191730555556</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,34 +3723,6 @@
       </c>
       <c r="K7" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-17</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -14714,52 +14248,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -16161,24 +15695,24 @@
     </row>
     <row r="42"/>
     <row r="43">
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -16188,7 +15722,7 @@
           <t>16.35</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -16198,7 +15732,7 @@
           <t>29.25</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I44" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -16210,7 +15744,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -16220,7 +15754,7 @@
           <t>10.02</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -16230,7 +15764,7 @@
           <t>19.90</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I45" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -16242,7 +15776,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -16252,7 +15786,7 @@
           <t>71.37</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -16262,7 +15796,7 @@
           <t>39.35</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I46" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -16275,17 +15809,17 @@
     </row>
     <row r="47"/>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -16752,12 +16286,12 @@
     </row>
     <row r="76"/>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -16865,12 +16399,12 @@
     </row>
     <row r="88"/>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -16978,12 +16512,12 @@
     </row>
     <row r="100"/>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -17091,12 +16625,12 @@
     </row>
     <row r="112"/>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" s="1" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -17127,2153 +16661,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N111"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Package ID</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Event Label</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:16:44.596262</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>13.35778839399973</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:52:48.573820</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 15)</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>24.43500420899727</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:16:39.435198</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>7.357816114999878</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:18:16.508893</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8.609134190000987</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:54:28.808235</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 30)</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17.61541582300197</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:18:17.407488</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>8.516274137000437</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:18:38.592025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11.34785763699983</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:54:28.808235</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 8)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>28.53343931900235</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:18:37.458733</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>9.28581498099993</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:28.333414</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11.70561386999907</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:54:28.808235</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 16)</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>28.34332955699938</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:03.631133</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>12.69786712399946</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:47.739288</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12.1133782729994</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 25)</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>16.42402329400284</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:28.095938</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>8.810592637999434</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:07.642661</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10.63310175299921</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 32)</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>17.87759665299745</v>
-      </c>
-      <c r="G7" t="n">
-        <v>32</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:47.111770</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>10.64564558600068</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:22.101149</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11.91434042899891</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 33)</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>18.50257789799798</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:11.072353</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>7.731240981998781</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:23:36.486386</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>9.508502833999955</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:17:54.162843</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 35)</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>19.63337877799859</v>
-      </c>
-      <c r="G9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:38.135345</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>7.666897531998984</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:20.013714</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>9.110716931001662</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:24.735034</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>11.58865243000037</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:48.707538</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>11.66544955600148</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:46.563740</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>7.42435379500057</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:25:10.810301</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>15.71696926600089</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:23:37.278959</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>7.571019883998815</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:26:31.313425</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>13.86366572800034</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:18.655959</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>6.928089720000571</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:02.879707</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>12.14350386000115</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:24:46.631181</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>8.657031394001024</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:27.169754</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>14.00226726599976</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:00.550227</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>8.917156741001236</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:56.184440</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>12.09918199599997</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:21.587992</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>7.575285848999556</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:23.851414</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>22.00689865000095</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:27:54.204646</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>9.240335764001429</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:52.314098</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>20.05788204300006</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:10.948153</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>8.245027390999894</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:19.370275</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>20.27321921700059</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:28:42.871294</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>9.725745630001256</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:41.654588</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>15.71180604999972</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:10.460398</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>10.4768872550012</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:09.976870</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>14.97276763100126</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:29:34.262733</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>7.485411296000166</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:38.458953</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>18.16477331900023</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:04.448932</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>8.611731704999329</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:20.533305</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>9.816734774998622</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:30:29.078643</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>7.927197998000338</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:40.584014</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>9.362392079001438</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:20.225988</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>8.540628188002302</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:09.386994</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>21.29227521200301</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:39.649860</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>7.590346138000314</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:29.570611</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>8.816482137001003</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:33:58.796465</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>9.776564660998702</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:51.845407</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10.33082446299886</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:29.458689</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>7.87028669099891</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:21.385974</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>21.50739609700031</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:34:49.769675</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>7.446624877000431</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:45.612336</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>15.04289138200329</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:40.059856</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>8.66682884599868</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:14.362723</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>21.5111767260023</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:04.293879</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>10.57209376099854</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:44.557721</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>20.40307389900045</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:36:32.841138</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>7.803545455000858</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:37:05.678839</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10.82503565299703</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:37:04.328101</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>8.658866953999677</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:39:52.881798</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>8.38059504299963</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:37:37.411728</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>8.204926377999072</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:15.310654</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>10.32253422100257</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:39:53.625508</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>8.19946980199893</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:38.294835</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>9.96633517599912</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:37.097326</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>7.891397068997321</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:57.533013</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>8.786000620999403</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:59.915544</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>10.13791869499983</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:33.325069</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>10.36683165999784</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:41:19.198696</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>8.984435480000684</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:41:40.679887</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>7.592357135999919</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:43:39.874120</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>7.460598219997337</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:33.207941</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>7.441077419000067</v>
-      </c>
-    </row>
-    <row r="41"/>
-    <row r="42">
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>13.49</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>21.42</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>16.42</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>28.53</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>12.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="46"/>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>Error Type</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>Error Message</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:04.412175</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:19:04.433729</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:16.917132</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 211 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:40.994408</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:20:41.013823</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:04.586306</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:41.833045</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:21:49.007153</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 238 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:22:48.877797</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 187 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:25:04.380640</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:26:32.669925</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:35:16.975497</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:40:18.836960</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Failed to extract address using GPT query</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:41:21.338214</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:43:39.362005</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 197 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:06.767525</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Read Label Callback</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>No contour found</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2025-07-17T20:44:08.679019</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Package height when sagging is too high. Measured 205 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:00:10.787167</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:00:10.811151</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:05:15.680240</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:05:15.687871</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:15:33.211762</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Execute Pick and Place Callback</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-07-17T21:15:33.266167</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Retrieve Packages Callback</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
-        </is>
-      </c>
-    </row>
-    <row r="71"/>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>8.38-9.74</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>9.74-11.11</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>11.11-12.47</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>12.47-13.83</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>13.83-15.19</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>15.19-16.56</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>16.56-17.92</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>17.92-19.28</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>19.28-20.64</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>20.64-22.01</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83"/>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>16.42-17.63</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>17.63-18.85</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>18.85-20.06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>20.06-21.27</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>21.27-22.48</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>22.48-23.69</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>23.69-24.90</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>24.90-26.11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>26.11-27.32</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>27.32-28.53</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95"/>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>6.93-7.51</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>7.51-8.08</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>8.08-8.66</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r